--- a/work/04_miyagi.xlsx
+++ b/work/04_miyagi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\00_班共有\フォルダ（整理中）\008_感染症対策関係\000_感染症発生時の随時対応（全数，集団）\☆疾病別フォルダ\■武漢肺炎（新型コロナ）\70_医療体制整備\格納（古いデータ）\04 公表用グラフ等（秘書課送付用）\02_HP更新等\0915\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\00_班共有\フォルダ（整理中）\008_感染症対策関係\000_感染症発生時の随時対応（全数，集団）\☆疾病別フォルダ\■武漢肺炎（新型コロナ）\70_医療体制整備\格納（古いデータ）\04 公表用グラフ等（秘書課送付用）\02_HP更新等\0916\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19005" windowHeight="7215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17850" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="患者状況一覧（HP掲載）" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,11 @@
     <sheet name="その他集計（HP掲載）" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$A$3:$F$316</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$A$3:$F$334</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'その他集計（HP掲載）'!$A$1:$L$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'患者状況一覧（HP掲載）'!$A$2:$F$316</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'患者状況一覧（HP掲載）'!$A$2:$F$334</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'日別集計（HP掲載）'!$F$1:$T$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'累計グラフ（HP掲載）'!$A$1:$GV$105</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'累計グラフ（HP掲載）'!$A$1:$GW$105</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'患者状況一覧（HP掲載）'!$2:$3</definedName>
     <definedName name="Z_52D76B34_E0A5_4D8A_BB93_26BF349B7B6B_.wvu.FilterData" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$A$3:$F$189</definedName>
     <definedName name="Z_52D76B34_E0A5_4D8A_BB93_26BF349B7B6B_.wvu.PrintArea" localSheetId="3" hidden="1">'その他集計（HP掲載）'!$A$1:$L$30</definedName>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="88">
   <si>
     <t>＜患者発生状況一覧＞</t>
     <rPh sb="1" eb="3">
@@ -642,10 +642,10 @@
     <t>気仙沼保健所管内</t>
   </si>
   <si>
-    <t>うち塩釜：64人</t>
+    <t>うち塩釜：79人</t>
   </si>
   <si>
-    <t>うち仙台市：224人</t>
+    <t>うち仙台市：226人</t>
   </si>
   <si>
     <t>県外：4人</t>
@@ -1316,6 +1316,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2673,23 +2674,26 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="195">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="196">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="196">
+                <c:pt idx="197">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="198">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="197">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>15</c:v>
+                <c:pt idx="199">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9045-4DAE-A809-5D6288E71500}"/>
+              <c16:uniqueId val="{00000000-A466-4B8B-9A20-592E7884725A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2757,6 +2761,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4123,14 +4128,17 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9045-4DAE-A809-5D6288E71500}"/>
+              <c16:uniqueId val="{00000001-A466-4B8B-9A20-592E7884725A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4201,6 +4209,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5569,12 +5578,15 @@
                 <c:pt idx="198">
                   <c:v>13</c:v>
                 </c:pt>
+                <c:pt idx="199">
+                  <c:v>11</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9045-4DAE-A809-5D6288E71500}"/>
+              <c16:uniqueId val="{00000002-A466-4B8B-9A20-592E7884725A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5642,6 +5654,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7010,12 +7023,15 @@
                 <c:pt idx="198">
                   <c:v>28</c:v>
                 </c:pt>
+                <c:pt idx="199">
+                  <c:v>42</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9045-4DAE-A809-5D6288E71500}"/>
+              <c16:uniqueId val="{00000003-A466-4B8B-9A20-592E7884725A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7083,6 +7099,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8597,7 +8614,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9045-4DAE-A809-5D6288E71500}"/>
+              <c16:uniqueId val="{00000004-A466-4B8B-9A20-592E7884725A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8687,6 +8704,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9693,145 +9711,145 @@
                   <c:v>313</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>313</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9839,7 +9857,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-9045-4DAE-A809-5D6288E71500}"/>
+              <c16:uniqueId val="{00000005-A466-4B8B-9A20-592E7884725A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9860,7 +9878,7 @@
         <c:axId val="487015024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44088"/>
+          <c:max val="44089"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -10122,6 +10140,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11730,7 +11749,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="242">
                   <c:v>0</c:v>
@@ -11782,7 +11801,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4307-4CBD-9E42-24CE68520F2C}"/>
+              <c16:uniqueId val="{00000000-A218-40D4-BE54-D46966F6C2D4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13229,7 +13248,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4307-4CBD-9E42-24CE68520F2C}"/>
+              <c16:uniqueId val="{00000001-A218-40D4-BE54-D46966F6C2D4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13249,7 +13268,7 @@
         <c:axId val="588931344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44088"/>
+          <c:max val="44089"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -13504,7 +13523,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-1624-4812-8C65-83960D4BB3C4}"/>
+                <c16:uniqueId val="{00000001-C7FD-4B45-9FC3-423D2FDB52E9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13550,7 +13569,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-1624-4812-8C65-83960D4BB3C4}"/>
+                <c16:uniqueId val="{00000003-C7FD-4B45-9FC3-423D2FDB52E9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13596,7 +13615,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-1624-4812-8C65-83960D4BB3C4}"/>
+                <c16:uniqueId val="{00000005-C7FD-4B45-9FC3-423D2FDB52E9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13642,7 +13661,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-1624-4812-8C65-83960D4BB3C4}"/>
+                <c16:uniqueId val="{00000007-C7FD-4B45-9FC3-423D2FDB52E9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13688,7 +13707,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-1624-4812-8C65-83960D4BB3C4}"/>
+                <c16:uniqueId val="{00000009-C7FD-4B45-9FC3-423D2FDB52E9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13734,7 +13753,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-1624-4812-8C65-83960D4BB3C4}"/>
+                <c16:uniqueId val="{0000000B-C7FD-4B45-9FC3-423D2FDB52E9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13757,9 +13776,11 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-1624-4812-8C65-83960D4BB3C4}"/>
+                  <c16:uniqueId val="{00000001-C7FD-4B45-9FC3-423D2FDB52E9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -13790,7 +13811,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1624-4812-8C65-83960D4BB3C4}"/>
+                  <c16:uniqueId val="{00000003-C7FD-4B45-9FC3-423D2FDB52E9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -13850,7 +13871,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-1624-4812-8C65-83960D4BB3C4}"/>
+                  <c16:uniqueId val="{00000005-C7FD-4B45-9FC3-423D2FDB52E9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -13881,7 +13902,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-1624-4812-8C65-83960D4BB3C4}"/>
+                  <c16:uniqueId val="{00000007-C7FD-4B45-9FC3-423D2FDB52E9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -13912,7 +13933,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-1624-4812-8C65-83960D4BB3C4}"/>
+                  <c16:uniqueId val="{00000009-C7FD-4B45-9FC3-423D2FDB52E9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -13934,9 +13955,11 @@
               <c:separator>
 </c:separator>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-1624-4812-8C65-83960D4BB3C4}"/>
+                  <c16:uniqueId val="{0000000B-C7FD-4B45-9FC3-423D2FDB52E9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -14029,19 +14052,19 @@
                 <c:formatCode>0"人"</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>245</c:v>
+                  <c:v>255</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
@@ -14051,7 +14074,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-1624-4812-8C65-83960D4BB3C4}"/>
+              <c16:uniqueId val="{0000000C-C7FD-4B45-9FC3-423D2FDB52E9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16119,7 +16142,7 @@
               <a:ea typeface="游ゴシック"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>288人</a:t>
+            <a:t>305人</a:t>
           </a:fld>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
@@ -16179,7 +16202,7 @@
               <a:ea typeface="游ゴシック"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>うち塩釜：64人</a:t>
+            <a:t>うち塩釜：79人</a:t>
           </a:fld>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
@@ -16239,7 +16262,7 @@
               <a:ea typeface="游ゴシック"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>うち仙台市：224人</a:t>
+            <a:t>うち仙台市：226人</a:t>
           </a:fld>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
@@ -16479,7 +16502,7 @@
               <a:ea typeface="游ゴシック"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>2人</a:t>
+            <a:t>3人</a:t>
           </a:fld>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -16961,12 +16984,12 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EQ316"/>
+  <dimension ref="A1:EQ334"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="D316" sqref="D316"/>
-      <selection pane="bottomLeft" activeCell="E329" sqref="E329"/>
+      <pane ySplit="3" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G348" sqref="G348"/>
+      <selection pane="bottomLeft" activeCell="E344" sqref="E344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
@@ -16990,7 +17013,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="4">
-        <v>44089</v>
+        <v>44090</v>
       </c>
     </row>
     <row r="3" spans="1:147" ht="42" customHeight="1" x14ac:dyDescent="0.4">
@@ -21895,7 +21918,7 @@
         <v>44076</v>
       </c>
       <c r="F215" s="8" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>70</v>
@@ -21991,7 +22014,7 @@
         <v>44077</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>70</v>
@@ -22278,7 +22301,7 @@
         <v>44077</v>
       </c>
       <c r="F231" s="8" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>70</v>
@@ -22301,7 +22324,7 @@
         <v>44078</v>
       </c>
       <c r="F232" s="8" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H232" s="1" t="s">
         <v>70</v>
@@ -22393,7 +22416,7 @@
         <v>44079</v>
       </c>
       <c r="F236" s="8" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H236" s="1" t="s">
         <v>70</v>
@@ -22600,7 +22623,7 @@
         <v>44080</v>
       </c>
       <c r="F245" s="8" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="H245" s="1" t="s">
         <v>70</v>
@@ -22669,7 +22692,7 @@
         <v>44081</v>
       </c>
       <c r="F248" s="8" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="H248" s="1" t="s">
         <v>70</v>
@@ -22692,7 +22715,7 @@
         <v>44081</v>
       </c>
       <c r="F249" s="8" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H249" s="1" t="s">
         <v>70</v>
@@ -22945,7 +22968,7 @@
         <v>44082</v>
       </c>
       <c r="F260" s="8" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="H260" s="1" t="s">
         <v>74</v>
@@ -23359,7 +23382,7 @@
         <v>44084</v>
       </c>
       <c r="F278" s="8" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H278" s="1" t="s">
         <v>74</v>
@@ -23819,7 +23842,7 @@
         <v>44086</v>
       </c>
       <c r="F298" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H298" s="1" t="s">
         <v>74</v>
@@ -24026,7 +24049,7 @@
         <v>44086</v>
       </c>
       <c r="F307" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H307" s="1" t="s">
         <v>70</v>
@@ -24072,7 +24095,7 @@
         <v>44087</v>
       </c>
       <c r="F309" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H309" s="1" t="s">
         <v>70</v>
@@ -24239,8 +24262,422 @@
         <v>70</v>
       </c>
     </row>
+    <row r="317" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A317" s="7">
+        <v>314</v>
+      </c>
+      <c r="B317" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C317" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D317" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E317" s="10">
+        <v>44089</v>
+      </c>
+      <c r="F317" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H317" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A318" s="7">
+        <v>315</v>
+      </c>
+      <c r="B318" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C318" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D318" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E318" s="10">
+        <v>44089</v>
+      </c>
+      <c r="F318" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H318" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A319" s="7">
+        <v>316</v>
+      </c>
+      <c r="B319" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C319" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D319" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E319" s="10">
+        <v>44089</v>
+      </c>
+      <c r="F319" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H319" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A320" s="7">
+        <v>317</v>
+      </c>
+      <c r="B320" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C320" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D320" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E320" s="10">
+        <v>44089</v>
+      </c>
+      <c r="F320" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H320" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A321" s="7">
+        <v>318</v>
+      </c>
+      <c r="B321" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C321" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D321" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E321" s="10">
+        <v>44089</v>
+      </c>
+      <c r="F321" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H321" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A322" s="7">
+        <v>319</v>
+      </c>
+      <c r="B322" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C322" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D322" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E322" s="10">
+        <v>44089</v>
+      </c>
+      <c r="F322" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H322" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A323" s="7">
+        <v>320</v>
+      </c>
+      <c r="B323" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C323" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D323" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E323" s="10">
+        <v>44089</v>
+      </c>
+      <c r="F323" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H323" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A324" s="7">
+        <v>321</v>
+      </c>
+      <c r="B324" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C324" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D324" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E324" s="10">
+        <v>44089</v>
+      </c>
+      <c r="F324" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H324" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A325" s="7">
+        <v>322</v>
+      </c>
+      <c r="B325" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C325" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D325" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E325" s="10">
+        <v>44089</v>
+      </c>
+      <c r="F325" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H325" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A326" s="7">
+        <v>323</v>
+      </c>
+      <c r="B326" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C326" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D326" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E326" s="10">
+        <v>44089</v>
+      </c>
+      <c r="F326" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H326" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A327" s="7">
+        <v>324</v>
+      </c>
+      <c r="B327" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C327" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D327" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E327" s="10">
+        <v>44089</v>
+      </c>
+      <c r="F327" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H327" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A328" s="7">
+        <v>325</v>
+      </c>
+      <c r="B328" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C328" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D328" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E328" s="10">
+        <v>44089</v>
+      </c>
+      <c r="F328" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H328" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A329" s="7">
+        <v>326</v>
+      </c>
+      <c r="B329" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C329" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D329" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E329" s="10">
+        <v>44089</v>
+      </c>
+      <c r="F329" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H329" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A330" s="7">
+        <v>327</v>
+      </c>
+      <c r="B330" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C330" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D330" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E330" s="10">
+        <v>44089</v>
+      </c>
+      <c r="F330" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H330" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A331" s="7">
+        <v>328</v>
+      </c>
+      <c r="B331" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C331" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D331" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E331" s="10">
+        <v>44089</v>
+      </c>
+      <c r="F331" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H331" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A332" s="7">
+        <v>329</v>
+      </c>
+      <c r="B332" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C332" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D332" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E332" s="10">
+        <v>44089</v>
+      </c>
+      <c r="F332" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H332" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A333" s="7">
+        <v>330</v>
+      </c>
+      <c r="B333" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C333" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D333" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E333" s="10">
+        <v>44089</v>
+      </c>
+      <c r="F333" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H333" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A334" s="7">
+        <v>331</v>
+      </c>
+      <c r="B334" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C334" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D334" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E334" s="10">
+        <v>44089</v>
+      </c>
+      <c r="F334" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H334" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:F316"/>
+  <autoFilter ref="A3:F334"/>
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
@@ -24253,7 +24690,7 @@
 ※検疫所確認患者は含んでおりません。</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="78" max="5" man="1"/>
+    <brk id="78" max="7" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -24266,10 +24703,10 @@
   </sheetPr>
   <dimension ref="A1:IQ105"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="GA1" activePane="topRight" state="frozen"/>
-      <selection activeCell="D316" sqref="D316"/>
-      <selection pane="topRight" activeCell="HA31" sqref="HA31"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A22" zoomScale="40" zoomScaleNormal="85" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="BR1" activePane="topRight" state="frozen"/>
+      <selection activeCell="E344" sqref="E344"/>
+      <selection pane="topRight" activeCell="E344" sqref="E344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -24330,8 +24767,8 @@
     <col min="195" max="198" width="4.375" style="17" bestFit="1" customWidth="1"/>
     <col min="199" max="200" width="4" style="17" customWidth="1"/>
     <col min="201" max="202" width="4.875" style="17" customWidth="1"/>
-    <col min="203" max="204" width="4.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="205" max="251" width="2.625" style="17" customWidth="1"/>
+    <col min="203" max="205" width="4.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="206" max="251" width="2.625" style="17" customWidth="1"/>
     <col min="252" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
@@ -24355,7 +24792,7 @@
       <c r="DA2" s="51"/>
       <c r="DB2" s="51"/>
       <c r="DN2" s="52">
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="DO2" s="52"/>
       <c r="DP2" s="52"/>
@@ -25706,157 +26143,157 @@
         <v>63</v>
       </c>
       <c r="GS4" s="21">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="GT4" s="21">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="GU4" s="21">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="GV4" s="21">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="GW4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="GX4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="GY4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="GZ4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="HA4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="HB4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="HC4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="HD4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="HE4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="HF4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="HG4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="HH4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="HI4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="HJ4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="HK4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="HL4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="HM4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="HN4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="HO4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="HP4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="HQ4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="HR4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="HS4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="HT4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="HU4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="HV4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="HW4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="HX4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="HY4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="HZ4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="IA4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="IB4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="IC4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="ID4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="IE4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="IF4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="IG4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="IH4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="II4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="IJ4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="IK4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="IL4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="IM4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="IN4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="IO4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="IP4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="IQ4" s="21">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:251" ht="24" x14ac:dyDescent="0.4">
@@ -26452,18 +26889,20 @@
         <v>10</v>
       </c>
       <c r="GS5" s="21">
+        <v>11</v>
+      </c>
+      <c r="GT5" s="21">
         <v>12</v>
       </c>
-      <c r="GT5" s="21">
+      <c r="GU5" s="21">
+        <v>14</v>
+      </c>
+      <c r="GV5" s="21">
         <v>13</v>
       </c>
-      <c r="GU5" s="21">
-        <v>15</v>
-      </c>
-      <c r="GV5" s="21">
-        <v>15</v>
-      </c>
-      <c r="GW5" s="21"/>
+      <c r="GW5" s="21">
+        <v>12</v>
+      </c>
       <c r="GX5" s="21"/>
       <c r="GY5" s="21"/>
       <c r="GZ5" s="21"/>
@@ -27113,9 +27552,11 @@
         <v>19</v>
       </c>
       <c r="GV6" s="21">
-        <v>18</v>
-      </c>
-      <c r="GW6" s="21"/>
+        <v>16</v>
+      </c>
+      <c r="GW6" s="21">
+        <v>17</v>
+      </c>
       <c r="GX6" s="21"/>
       <c r="GY6" s="21"/>
       <c r="GZ6" s="21"/>
@@ -27767,7 +28208,9 @@
       <c r="GV7" s="21">
         <v>13</v>
       </c>
-      <c r="GW7" s="21"/>
+      <c r="GW7" s="21">
+        <v>11</v>
+      </c>
       <c r="GX7" s="21"/>
       <c r="GY7" s="21"/>
       <c r="GZ7" s="21"/>
@@ -28419,7 +28862,9 @@
       <c r="GV8" s="21">
         <v>28</v>
       </c>
-      <c r="GW8" s="21"/>
+      <c r="GW8" s="21">
+        <v>42</v>
+      </c>
       <c r="GX8" s="21"/>
       <c r="GY8" s="21"/>
       <c r="GZ8" s="21"/>
@@ -29071,145 +29516,145 @@
         <v>313</v>
       </c>
       <c r="GW9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="GX9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="GY9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="GZ9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="HA9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="HB9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="HC9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="HD9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="HE9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="HF9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="HG9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="HH9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="HI9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="HJ9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="HK9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="HL9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="HM9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="HN9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="HO9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="HP9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="HQ9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="HR9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="HS9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="HT9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="HU9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="HV9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="HW9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="HX9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="HY9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="HZ9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="IA9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="IB9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="IC9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="ID9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="IE9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="IF9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="IG9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="IH9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="II9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="IJ9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="IK9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="IL9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="IM9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="IN9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="IO9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="IP9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="IQ9" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:251" ht="24" x14ac:dyDescent="0.4">
@@ -29217,7 +29662,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="21">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="54"/>
@@ -29822,7 +30267,7 @@
         <v>3</v>
       </c>
       <c r="GW10" s="21">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="GX10" s="21">
         <v>0</v>
@@ -29968,7 +30413,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="21">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="54"/>
@@ -30561,7 +31006,7 @@
         <v>1</v>
       </c>
       <c r="GS11" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="GT11" s="21">
         <v>10</v>
@@ -30570,10 +31015,10 @@
         <v>2</v>
       </c>
       <c r="GV11" s="21">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="GW11" s="21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="GX11" s="21">
         <v>0</v>
@@ -32817,7 +33262,9 @@
       <c r="GV14" s="21">
         <v>0</v>
       </c>
-      <c r="GW14" s="21"/>
+      <c r="GW14" s="21">
+        <v>0</v>
+      </c>
       <c r="GX14" s="21"/>
       <c r="GY14" s="21"/>
       <c r="GZ14" s="21"/>
@@ -33469,7 +33916,9 @@
       <c r="GV15" s="21">
         <v>0</v>
       </c>
-      <c r="GW15" s="21"/>
+      <c r="GW15" s="21">
+        <v>0</v>
+      </c>
       <c r="GX15" s="21"/>
       <c r="GY15" s="21"/>
       <c r="GZ15" s="21"/>
@@ -34121,7 +34570,9 @@
       <c r="GV16" s="21">
         <v>0</v>
       </c>
-      <c r="GW16" s="21"/>
+      <c r="GW16" s="21">
+        <v>0</v>
+      </c>
       <c r="GX16" s="21"/>
       <c r="GY16" s="21"/>
       <c r="GZ16" s="21"/>
@@ -34773,7 +35224,9 @@
       <c r="GV17" s="21">
         <v>0</v>
       </c>
-      <c r="GW17" s="21"/>
+      <c r="GW17" s="21">
+        <v>0</v>
+      </c>
       <c r="GX17" s="21"/>
       <c r="GY17" s="21"/>
       <c r="GZ17" s="21"/>
@@ -37978,8 +38431,8 @@
   </sheetPr>
   <dimension ref="A1:EQ258"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="L10" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="L1" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E344" sqref="E344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -38032,7 +38485,7 @@
       <c r="L2" s="33"/>
       <c r="M2" s="33"/>
       <c r="Q2" s="57">
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="R2" s="57"/>
     </row>
@@ -42138,16 +42591,16 @@
         <v>44089</v>
       </c>
       <c r="B243">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C243">
         <v>0</v>
       </c>
       <c r="D243">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="E243">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.4">
@@ -42161,10 +42614,10 @@
         <v>0</v>
       </c>
       <c r="D244">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="E244">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.4">
@@ -42178,10 +42631,10 @@
         <v>0</v>
       </c>
       <c r="D245">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="E245">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.4">
@@ -42195,10 +42648,10 @@
         <v>0</v>
       </c>
       <c r="D246">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="E246">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.4">
@@ -42212,10 +42665,10 @@
         <v>0</v>
       </c>
       <c r="D247">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="E247">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.4">
@@ -42229,10 +42682,10 @@
         <v>0</v>
       </c>
       <c r="D248">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="E248">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.4">
@@ -42246,10 +42699,10 @@
         <v>0</v>
       </c>
       <c r="D249">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="E249">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.4">
@@ -42263,10 +42716,10 @@
         <v>0</v>
       </c>
       <c r="D250">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="E250">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.4">
@@ -42280,10 +42733,10 @@
         <v>0</v>
       </c>
       <c r="D251">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="E251">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.4">
@@ -42297,10 +42750,10 @@
         <v>0</v>
       </c>
       <c r="D252">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="E252">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.4">
@@ -42314,10 +42767,10 @@
         <v>0</v>
       </c>
       <c r="D253">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="E253">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.4">
@@ -42331,10 +42784,10 @@
         <v>0</v>
       </c>
       <c r="D254">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="E254">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.4">
@@ -42348,10 +42801,10 @@
         <v>0</v>
       </c>
       <c r="D255">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="E255">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.4">
@@ -42365,10 +42818,10 @@
         <v>0</v>
       </c>
       <c r="D256">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="E256">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.4">
@@ -42382,10 +42835,10 @@
         <v>0</v>
       </c>
       <c r="D257">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="E257">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.4">
@@ -42399,10 +42852,10 @@
         <v>0</v>
       </c>
       <c r="D258">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="E258">
-        <v>313</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -42424,8 +42877,8 @@
   </sheetPr>
   <dimension ref="A1:EQ30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -42457,7 +42910,7 @@
     </row>
     <row r="2" spans="1:147" x14ac:dyDescent="0.4">
       <c r="H2" s="61">
-        <v>44089</v>
+        <v>44090</v>
       </c>
       <c r="I2" s="61"/>
       <c r="J2" s="61"/>
@@ -42494,20 +42947,20 @@
       </c>
       <c r="C6" s="62"/>
       <c r="D6" s="36">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="E6" s="36">
         <v>8</v>
       </c>
       <c r="F6" s="36">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="P6" s="62" t="s">
         <v>37</v>
       </c>
       <c r="Q6" s="62"/>
       <c r="R6" s="37">
-        <v>321</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:147" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -42518,13 +42971,13 @@
         <v>39</v>
       </c>
       <c r="D7" s="36">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E7" s="36">
         <v>0</v>
       </c>
       <c r="F7" s="36">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P7" s="58" t="s">
         <v>38</v>
@@ -42533,7 +42986,7 @@
         <v>39</v>
       </c>
       <c r="R7" s="37">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:147" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -42542,20 +42995,20 @@
         <v>40</v>
       </c>
       <c r="D8" s="36">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E8" s="36">
         <v>0</v>
       </c>
       <c r="F8" s="36">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="P8" s="58"/>
       <c r="Q8" s="38" t="s">
         <v>40</v>
       </c>
       <c r="R8" s="37">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:147" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -42564,20 +43017,20 @@
         <v>41</v>
       </c>
       <c r="D9" s="36">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9" s="36">
         <v>0</v>
       </c>
       <c r="F9" s="36">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P9" s="58"/>
       <c r="Q9" s="39" t="s">
         <v>41</v>
       </c>
       <c r="R9" s="37">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:147" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -42608,20 +43061,20 @@
         <v>43</v>
       </c>
       <c r="D11" s="36">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="E11" s="36">
         <v>8</v>
       </c>
       <c r="F11" s="36">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="P11" s="58"/>
       <c r="Q11" s="39" t="s">
         <v>43</v>
       </c>
       <c r="R11" s="37">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:147" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -42702,7 +43155,7 @@
         <v>59</v>
       </c>
       <c r="D21" s="36">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="N21" s="39" t="s">
         <v>49</v>
@@ -42750,7 +43203,7 @@
         <v>63</v>
       </c>
       <c r="D25" s="36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N25" s="39" t="s">
         <v>53</v>
@@ -42774,10 +43227,10 @@
         <v>55</v>
       </c>
       <c r="D27" s="36">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N27" s="48">
-        <v>288</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -42798,7 +43251,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="36">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="N29" t="s">
         <v>66</v>

--- a/work/04_miyagi.xlsx
+++ b/work/04_miyagi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\00_班共有\フォルダ（整理中）\008_感染症対策関係\000_感染症発生時の随時対応（全数，集団）\☆疾病別フォルダ\■武漢肺炎（新型コロナ）\70_医療体制整備\格納（古いデータ）\04 公表用グラフ等（秘書課送付用）\02_HP更新等\0917\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\00_班共有\フォルダ（整理中）\008_感染症対策関係\000_感染症発生時の随時対応（全数，集団）\☆疾病別フォルダ\■武漢肺炎（新型コロナ）\70_医療体制整備\格納（古いデータ）\04 公表用グラフ等（秘書課送付用）\02_HP更新等\0918\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,23 +21,23 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$A$3:$F$340</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$A$3:$F$343</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'その他集計（HP掲載）'!$A$1:$L$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'患者状況一覧（HP掲載）'!$A$2:$F$340</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'患者状況一覧（HP掲載）'!$A$2:$F$349</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'日別集計（HP掲載）'!$F$1:$T$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'累計グラフ（HP掲載）'!$A$1:$GX$105</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'累計グラフ（HP掲載）'!$A$1:$GY$105</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'患者状況一覧（HP掲載）'!$2:$3</definedName>
-    <definedName name="Z_52D76B34_E0A5_4D8A_BB93_26BF349B7B6B_.wvu.FilterData" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$A$3:$F$189</definedName>
+    <definedName name="Z_52D76B34_E0A5_4D8A_BB93_26BF349B7B6B_.wvu.FilterData" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$A$3:$F$343</definedName>
     <definedName name="Z_52D76B34_E0A5_4D8A_BB93_26BF349B7B6B_.wvu.PrintArea" localSheetId="3" hidden="1">'その他集計（HP掲載）'!$A$1:$L$30</definedName>
-    <definedName name="Z_52D76B34_E0A5_4D8A_BB93_26BF349B7B6B_.wvu.PrintArea" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$A$2:$F$98</definedName>
-    <definedName name="Z_52D76B34_E0A5_4D8A_BB93_26BF349B7B6B_.wvu.PrintArea" localSheetId="2" hidden="1">'日別集計（HP掲載）'!$F$1:$S$25</definedName>
-    <definedName name="Z_52D76B34_E0A5_4D8A_BB93_26BF349B7B6B_.wvu.PrintArea" localSheetId="1" hidden="1">'累計グラフ（HP掲載）'!$D$1:$DY$67</definedName>
+    <definedName name="Z_52D76B34_E0A5_4D8A_BB93_26BF349B7B6B_.wvu.PrintArea" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$A$2:$F$340</definedName>
+    <definedName name="Z_52D76B34_E0A5_4D8A_BB93_26BF349B7B6B_.wvu.PrintArea" localSheetId="2" hidden="1">'日別集計（HP掲載）'!$F$1:$T$25</definedName>
+    <definedName name="Z_52D76B34_E0A5_4D8A_BB93_26BF349B7B6B_.wvu.PrintArea" localSheetId="1" hidden="1">'累計グラフ（HP掲載）'!$A$1:$GX$105</definedName>
     <definedName name="Z_52D76B34_E0A5_4D8A_BB93_26BF349B7B6B_.wvu.PrintTitles" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$2:$3</definedName>
-    <definedName name="Z_DF1194B1_EBAB_4941_A075_CF0AED6A020A_.wvu.FilterData" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$A$3:$F$189</definedName>
+    <definedName name="Z_DF1194B1_EBAB_4941_A075_CF0AED6A020A_.wvu.FilterData" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$A$3:$F$343</definedName>
     <definedName name="Z_DF1194B1_EBAB_4941_A075_CF0AED6A020A_.wvu.PrintArea" localSheetId="3" hidden="1">'その他集計（HP掲載）'!$A$1:$L$30</definedName>
-    <definedName name="Z_DF1194B1_EBAB_4941_A075_CF0AED6A020A_.wvu.PrintArea" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$A$2:$F$92</definedName>
-    <definedName name="Z_DF1194B1_EBAB_4941_A075_CF0AED6A020A_.wvu.PrintArea" localSheetId="2" hidden="1">'日別集計（HP掲載）'!$F$1:$R$25</definedName>
-    <definedName name="Z_DF1194B1_EBAB_4941_A075_CF0AED6A020A_.wvu.PrintArea" localSheetId="1" hidden="1">'累計グラフ（HP掲載）'!$D$1:$DO$46</definedName>
+    <definedName name="Z_DF1194B1_EBAB_4941_A075_CF0AED6A020A_.wvu.PrintArea" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$A$2:$F$340</definedName>
+    <definedName name="Z_DF1194B1_EBAB_4941_A075_CF0AED6A020A_.wvu.PrintArea" localSheetId="2" hidden="1">'日別集計（HP掲載）'!$F$1:$T$25</definedName>
+    <definedName name="Z_DF1194B1_EBAB_4941_A075_CF0AED6A020A_.wvu.PrintArea" localSheetId="1" hidden="1">'累計グラフ（HP掲載）'!$A$1:$GX$105</definedName>
     <definedName name="Z_DF1194B1_EBAB_4941_A075_CF0AED6A020A_.wvu.PrintTitles" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$2:$3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="88">
   <si>
     <t>＜患者発生状況一覧＞</t>
     <rPh sb="1" eb="3">
@@ -155,10 +155,10 @@
     <t>入院中</t>
   </si>
   <si>
-    <t>療養中</t>
+    <t>仙南保健所管内</t>
   </si>
   <si>
-    <t>仙南保健所管内</t>
+    <t>療養中</t>
   </si>
   <si>
     <t>入院調整中</t>
@@ -698,7 +698,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>うち塩釜：82人</t>
+    <t>うち塩釜：88人</t>
   </si>
   <si>
     <t>総計</t>
@@ -708,7 +708,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>うち仙台市：229人</t>
+    <t>うち仙台市：231人</t>
   </si>
   <si>
     <t>県外：4人</t>
@@ -2692,12 +2692,15 @@
                 <c:pt idx="200">
                   <c:v>11</c:v>
                 </c:pt>
+                <c:pt idx="201">
+                  <c:v>13</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-092F-4ECE-8A57-F7A4AA10819A}"/>
+              <c16:uniqueId val="{00000000-E89F-4BDF-B499-C1A21B966738}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4140,12 +4143,15 @@
                 <c:pt idx="200">
                   <c:v>22</c:v>
                 </c:pt>
+                <c:pt idx="201">
+                  <c:v>21</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-092F-4ECE-8A57-F7A4AA10819A}"/>
+              <c16:uniqueId val="{00000001-E89F-4BDF-B499-C1A21B966738}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5591,12 +5597,15 @@
                 <c:pt idx="200">
                   <c:v>13</c:v>
                 </c:pt>
+                <c:pt idx="201">
+                  <c:v>14</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-092F-4ECE-8A57-F7A4AA10819A}"/>
+              <c16:uniqueId val="{00000002-E89F-4BDF-B499-C1A21B966738}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7034,17 +7043,20 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>42</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>37</c:v>
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-092F-4ECE-8A57-F7A4AA10819A}"/>
+              <c16:uniqueId val="{00000003-E89F-4BDF-B499-C1A21B966738}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8627,7 +8639,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-092F-4ECE-8A57-F7A4AA10819A}"/>
+              <c16:uniqueId val="{00000004-E89F-4BDF-B499-C1A21B966738}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9727,142 +9739,142 @@
                   <c:v>332</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>337</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>337</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9870,7 +9882,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-092F-4ECE-8A57-F7A4AA10819A}"/>
+              <c16:uniqueId val="{00000005-E89F-4BDF-B499-C1A21B966738}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9891,7 +9903,7 @@
         <c:axId val="487015024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44090"/>
+          <c:max val="44091"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -11765,10 +11777,10 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="244">
                   <c:v>0</c:v>
@@ -11814,7 +11826,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6433-4A0A-A67E-3608D4C2A144}"/>
+              <c16:uniqueId val="{00000000-A6E0-41E4-8045-931B24AF5582}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13261,7 +13273,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6433-4A0A-A67E-3608D4C2A144}"/>
+              <c16:uniqueId val="{00000001-A6E0-41E4-8045-931B24AF5582}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13281,7 +13293,7 @@
         <c:axId val="588931344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44090"/>
+          <c:max val="44091"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -13536,7 +13548,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-D7DF-4D8A-BF52-5782E26E0A7A}"/>
+                <c16:uniqueId val="{00000001-E47B-4A75-A891-A785CCC316FD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13582,7 +13594,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-D7DF-4D8A-BF52-5782E26E0A7A}"/>
+                <c16:uniqueId val="{00000003-E47B-4A75-A891-A785CCC316FD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13628,7 +13640,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-D7DF-4D8A-BF52-5782E26E0A7A}"/>
+                <c16:uniqueId val="{00000005-E47B-4A75-A891-A785CCC316FD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13674,7 +13686,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-D7DF-4D8A-BF52-5782E26E0A7A}"/>
+                <c16:uniqueId val="{00000007-E47B-4A75-A891-A785CCC316FD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13720,7 +13732,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-D7DF-4D8A-BF52-5782E26E0A7A}"/>
+                <c16:uniqueId val="{00000009-E47B-4A75-A891-A785CCC316FD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13766,7 +13778,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-D7DF-4D8A-BF52-5782E26E0A7A}"/>
+                <c16:uniqueId val="{0000000B-E47B-4A75-A891-A785CCC316FD}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13775,8 +13787,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.11264921161649005"/>
-                  <c:y val="7.1741669804356395E-2"/>
+                  <c:x val="-6.0944231277535801E-2"/>
+                  <c:y val="5.8501854448749892E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -13793,7 +13805,7 @@
                   <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-D7DF-4D8A-BF52-5782E26E0A7A}"/>
+                  <c16:uniqueId val="{00000001-E47B-4A75-A891-A785CCC316FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -13801,8 +13813,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.12785786673581551"/>
-                  <c:y val="2.9754934078868168E-3"/>
+                  <c:x val="-8.4107498756700358E-2"/>
+                  <c:y val="2.9754934078868177E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -13824,7 +13836,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-D7DF-4D8A-BF52-5782E26E0A7A}"/>
+                  <c16:uniqueId val="{00000003-E47B-4A75-A891-A785CCC316FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -13833,7 +13845,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.5354907244209104E-3"/>
-                  <c:y val="6.1402858608288792E-2"/>
+                  <c:y val="0.14612048135619352"/>
                 </c:manualLayout>
               </c:layout>
               <c:spPr>
@@ -13884,7 +13896,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-D7DF-4D8A-BF52-5782E26E0A7A}"/>
+                  <c16:uniqueId val="{00000005-E47B-4A75-A891-A785CCC316FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -13892,8 +13904,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.5455504904926727E-2"/>
-                  <c:y val="0.1790614058233545"/>
+                  <c:x val="-0.11534203580452448"/>
+                  <c:y val="0.23553982098862419"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="bestFit"/>
@@ -13915,7 +13927,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-D7DF-4D8A-BF52-5782E26E0A7A}"/>
+                  <c16:uniqueId val="{00000007-E47B-4A75-A891-A785CCC316FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -13946,7 +13958,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-D7DF-4D8A-BF52-5782E26E0A7A}"/>
+                  <c16:uniqueId val="{00000009-E47B-4A75-A891-A785CCC316FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -13972,7 +13984,7 @@
                   <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-D7DF-4D8A-BF52-5782E26E0A7A}"/>
+                  <c16:uniqueId val="{0000000B-E47B-4A75-A891-A785CCC316FD}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -14065,19 +14077,19 @@
                 <c:formatCode>0"人"</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>261</c:v>
+                  <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
@@ -14087,7 +14099,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-D7DF-4D8A-BF52-5782E26E0A7A}"/>
+              <c16:uniqueId val="{0000000C-E47B-4A75-A891-A785CCC316FD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -15828,13 +15840,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>105045</xdr:colOff>
+      <xdr:colOff>105044</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>201706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>205</xdr:col>
-      <xdr:colOff>56030</xdr:colOff>
+      <xdr:col>206</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>149677</xdr:rowOff>
     </xdr:to>
@@ -16155,7 +16167,7 @@
               <a:ea typeface="游ゴシック"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>311人</a:t>
+            <a:t>319人</a:t>
           </a:fld>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
@@ -16215,7 +16227,7 @@
               <a:ea typeface="游ゴシック"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>うち塩釜：82人</a:t>
+            <a:t>うち塩釜：88人</a:t>
           </a:fld>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
@@ -16275,7 +16287,7 @@
               <a:ea typeface="游ゴシック"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>うち仙台市：229人</a:t>
+            <a:t>うち仙台市：231人</a:t>
           </a:fld>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
@@ -16335,7 +16347,7 @@
               <a:ea typeface="游ゴシック"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>10人</a:t>
+            <a:t>11人</a:t>
           </a:fld>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
@@ -16638,15 +16650,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>268942</xdr:colOff>
+      <xdr:colOff>235324</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>11204</xdr:rowOff>
+      <xdr:rowOff>44822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
+      <xdr:colOff>33058</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>87404</xdr:rowOff>
+      <xdr:rowOff>121022</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18090,6 +18102,9 @@
           <cell r="GX5">
             <v>11</v>
           </cell>
+          <cell r="GY5">
+            <v>13</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="E6" t="str">
@@ -18698,6 +18713,9 @@
           <cell r="GX6">
             <v>22</v>
           </cell>
+          <cell r="GY6">
+            <v>21</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="E7" t="str">
@@ -19306,6 +19324,9 @@
           <cell r="GX7">
             <v>13</v>
           </cell>
+          <cell r="GY7">
+            <v>14</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="E8" t="str">
@@ -19909,10 +19930,13 @@
             <v>28</v>
           </cell>
           <cell r="GW8">
-            <v>42</v>
+            <v>40</v>
           </cell>
           <cell r="GX8">
-            <v>37</v>
+            <v>36</v>
+          </cell>
+          <cell r="GY8">
+            <v>33</v>
           </cell>
         </row>
         <row r="9">
@@ -20521,142 +20545,142 @@
             <v>332</v>
           </cell>
           <cell r="GX9">
-            <v>337</v>
+            <v>338</v>
           </cell>
           <cell r="GY9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="GZ9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HA9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HB9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HC9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HD9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HE9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HF9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HG9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HH9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HI9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HJ9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HK9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HL9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HM9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HN9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HO9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HP9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HQ9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HR9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HS9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HT9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HU9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HV9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HW9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HX9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HY9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="HZ9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="IA9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="IB9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="IC9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="ID9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="IE9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="IF9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="IG9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="IH9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="II9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="IJ9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="IK9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="IL9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="IM9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="IN9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="IO9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="IP9">
-            <v>337</v>
+            <v>346</v>
           </cell>
           <cell r="IQ9">
-            <v>337</v>
+            <v>346</v>
           </cell>
         </row>
         <row r="13">
@@ -23951,7 +23975,7 @@
             <v>44090</v>
           </cell>
           <cell r="B244">
-            <v>5</v>
+            <v>6</v>
           </cell>
         </row>
         <row r="245">
@@ -23959,7 +23983,7 @@
             <v>44091</v>
           </cell>
           <cell r="B245">
-            <v>0</v>
+            <v>8</v>
           </cell>
         </row>
         <row r="246">
@@ -24073,7 +24097,7 @@
             <v>入院中</v>
           </cell>
           <cell r="R7">
-            <v>33</v>
+            <v>34</v>
           </cell>
         </row>
         <row r="8">
@@ -24081,7 +24105,7 @@
             <v>入院調整中</v>
           </cell>
           <cell r="R8">
-            <v>27</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="9">
@@ -24089,7 +24113,7 @@
             <v>宿泊療養中</v>
           </cell>
           <cell r="R9">
-            <v>13</v>
+            <v>14</v>
           </cell>
         </row>
         <row r="10">
@@ -24097,7 +24121,7 @@
             <v>自宅療養中</v>
           </cell>
           <cell r="R10">
-            <v>9</v>
+            <v>12</v>
           </cell>
         </row>
         <row r="11">
@@ -24105,7 +24129,7 @@
             <v>退院・療養解除</v>
           </cell>
           <cell r="R11">
-            <v>261</v>
+            <v>271</v>
           </cell>
         </row>
         <row r="12">
@@ -24390,12 +24414,12 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EQ340"/>
+  <dimension ref="A1:EQ349"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="F337" sqref="F337"/>
-      <selection pane="bottomLeft" activeCell="F337" sqref="F337"/>
+      <pane ySplit="3" topLeftCell="A349" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F362" sqref="F362"/>
+      <selection pane="bottomLeft" activeCell="F362" sqref="F362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
@@ -24419,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="5">
-        <v>44091</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="3" spans="1:147" ht="42" customHeight="1" x14ac:dyDescent="0.4">
@@ -30006,7 +30030,7 @@
         <v>44080</v>
       </c>
       <c r="F244" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>9</v>
@@ -30305,7 +30329,7 @@
         <v>44082</v>
       </c>
       <c r="F257" s="9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H257" s="1" t="s">
         <v>9</v>
@@ -30420,7 +30444,7 @@
         <v>44083</v>
       </c>
       <c r="F262" s="9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H262" s="1" t="s">
         <v>14</v>
@@ -30437,7 +30461,7 @@
         <v>12</v>
       </c>
       <c r="D263" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E263" s="11">
         <v>44083</v>
@@ -30558,7 +30582,7 @@
         <v>44083</v>
       </c>
       <c r="F268" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H268" s="1" t="s">
         <v>9</v>
@@ -30581,7 +30605,7 @@
         <v>44083</v>
       </c>
       <c r="F269" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H269" s="1" t="s">
         <v>9</v>
@@ -30604,7 +30628,7 @@
         <v>44083</v>
       </c>
       <c r="F270" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H270" s="1" t="s">
         <v>9</v>
@@ -30650,7 +30674,7 @@
         <v>44084</v>
       </c>
       <c r="F272" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H272" s="1" t="s">
         <v>9</v>
@@ -30667,13 +30691,13 @@
         <v>12</v>
       </c>
       <c r="D273" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E273" s="11">
         <v>44084</v>
       </c>
       <c r="F273" s="9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H273" s="1" t="s">
         <v>14</v>
@@ -30690,13 +30714,13 @@
         <v>12</v>
       </c>
       <c r="D274" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E274" s="11">
         <v>44084</v>
       </c>
       <c r="F274" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H274" s="1" t="s">
         <v>14</v>
@@ -30834,7 +30858,7 @@
         <v>44085</v>
       </c>
       <c r="F280" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H280" s="1" t="s">
         <v>9</v>
@@ -30880,7 +30904,7 @@
         <v>44085</v>
       </c>
       <c r="F282" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H282" s="1" t="s">
         <v>9</v>
@@ -30903,7 +30927,7 @@
         <v>44085</v>
       </c>
       <c r="F283" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H283" s="1" t="s">
         <v>9</v>
@@ -30926,7 +30950,7 @@
         <v>44084</v>
       </c>
       <c r="F284" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H284" s="1" t="s">
         <v>14</v>
@@ -30949,7 +30973,7 @@
         <v>44085</v>
       </c>
       <c r="F285" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H285" s="1" t="s">
         <v>14</v>
@@ -30972,7 +30996,7 @@
         <v>44085</v>
       </c>
       <c r="F286" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H286" s="1" t="s">
         <v>14</v>
@@ -30995,7 +31019,7 @@
         <v>44085</v>
       </c>
       <c r="F287" s="9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H287" s="1" t="s">
         <v>14</v>
@@ -31018,7 +31042,7 @@
         <v>44085</v>
       </c>
       <c r="F288" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H288" s="1" t="s">
         <v>14</v>
@@ -31041,7 +31065,7 @@
         <v>44085</v>
       </c>
       <c r="F289" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H289" s="1" t="s">
         <v>14</v>
@@ -31087,7 +31111,7 @@
         <v>44085</v>
       </c>
       <c r="F291" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H291" s="1" t="s">
         <v>14</v>
@@ -31110,7 +31134,7 @@
         <v>44085</v>
       </c>
       <c r="F292" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H292" s="1" t="s">
         <v>14</v>
@@ -31133,7 +31157,7 @@
         <v>44085</v>
       </c>
       <c r="F293" s="9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="H293" s="1" t="s">
         <v>14</v>
@@ -31225,7 +31249,7 @@
         <v>44085</v>
       </c>
       <c r="F297" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H297" s="1" t="s">
         <v>14</v>
@@ -31242,13 +31266,13 @@
         <v>12</v>
       </c>
       <c r="D298" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E298" s="11">
         <v>44086</v>
       </c>
       <c r="F298" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H298" s="1" t="s">
         <v>14</v>
@@ -31271,7 +31295,7 @@
         <v>44086</v>
       </c>
       <c r="F299" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H299" s="1" t="s">
         <v>14</v>
@@ -31294,7 +31318,7 @@
         <v>44086</v>
       </c>
       <c r="F300" s="9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H300" s="1" t="s">
         <v>14</v>
@@ -31363,7 +31387,7 @@
         <v>44086</v>
       </c>
       <c r="F303" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H303" s="1" t="s">
         <v>14</v>
@@ -31432,7 +31456,7 @@
         <v>44087</v>
       </c>
       <c r="F306" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H306" s="1" t="s">
         <v>14</v>
@@ -31478,7 +31502,7 @@
         <v>44086</v>
       </c>
       <c r="F308" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H308" s="1" t="s">
         <v>9</v>
@@ -31501,7 +31525,7 @@
         <v>44087</v>
       </c>
       <c r="F309" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H309" s="1" t="s">
         <v>9</v>
@@ -31524,7 +31548,7 @@
         <v>44087</v>
       </c>
       <c r="F310" s="9" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H310" s="1" t="s">
         <v>9</v>
@@ -31547,7 +31571,7 @@
         <v>44087</v>
       </c>
       <c r="F311" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H311" s="1" t="s">
         <v>9</v>
@@ -31639,7 +31663,7 @@
         <v>44088</v>
       </c>
       <c r="F315" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H315" s="1" t="s">
         <v>9</v>
@@ -31708,7 +31732,7 @@
         <v>44089</v>
       </c>
       <c r="F318" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H318" s="1" t="s">
         <v>9</v>
@@ -31731,7 +31755,7 @@
         <v>44089</v>
       </c>
       <c r="F319" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H319" s="1" t="s">
         <v>14</v>
@@ -31800,7 +31824,7 @@
         <v>44089</v>
       </c>
       <c r="F322" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H322" s="1" t="s">
         <v>14</v>
@@ -31915,7 +31939,7 @@
         <v>44089</v>
       </c>
       <c r="F327" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H327" s="1" t="s">
         <v>14</v>
@@ -31961,7 +31985,7 @@
         <v>44089</v>
       </c>
       <c r="F329" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H329" s="1" t="s">
         <v>14</v>
@@ -32122,7 +32146,7 @@
         <v>44090</v>
       </c>
       <c r="F336" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H336" s="1" t="s">
         <v>14</v>
@@ -32168,7 +32192,7 @@
         <v>44090</v>
       </c>
       <c r="F338" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H338" s="1" t="s">
         <v>9</v>
@@ -32191,7 +32215,7 @@
         <v>44090</v>
       </c>
       <c r="F339" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H339" s="1" t="s">
         <v>9</v>
@@ -32220,8 +32244,215 @@
         <v>9</v>
       </c>
     </row>
+    <row r="341" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A341" s="8">
+        <v>338</v>
+      </c>
+      <c r="B341" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C341" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D341" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E341" s="11">
+        <v>44091</v>
+      </c>
+      <c r="F341" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H341" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A342" s="8">
+        <v>339</v>
+      </c>
+      <c r="B342" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C342" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D342" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E342" s="11">
+        <v>44091</v>
+      </c>
+      <c r="F342" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H342" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A343" s="8">
+        <v>340</v>
+      </c>
+      <c r="B343" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C343" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D343" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E343" s="11">
+        <v>44090</v>
+      </c>
+      <c r="F343" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H343" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A344" s="8">
+        <v>341</v>
+      </c>
+      <c r="B344" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C344" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D344" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E344" s="11">
+        <v>44091</v>
+      </c>
+      <c r="F344" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H344" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A345" s="8">
+        <v>342</v>
+      </c>
+      <c r="B345" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C345" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D345" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E345" s="11">
+        <v>44091</v>
+      </c>
+      <c r="F345" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H345" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A346" s="8">
+        <v>343</v>
+      </c>
+      <c r="B346" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C346" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D346" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E346" s="11">
+        <v>44091</v>
+      </c>
+      <c r="F346" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H346" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A347" s="8">
+        <v>344</v>
+      </c>
+      <c r="B347" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C347" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D347" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E347" s="11">
+        <v>44091</v>
+      </c>
+      <c r="F347" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H347" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A348" s="8">
+        <v>345</v>
+      </c>
+      <c r="B348" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C348" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D348" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E348" s="11">
+        <v>44091</v>
+      </c>
+      <c r="F348" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H348" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A349" s="8">
+        <v>346</v>
+      </c>
+      <c r="B349" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C349" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D349" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E349" s="11">
+        <v>44091</v>
+      </c>
+      <c r="F349" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H349" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:F340"/>
+  <autoFilter ref="A3:F348"/>
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
   </mergeCells>
@@ -32247,10 +32478,10 @@
   </sheetPr>
   <dimension ref="A1:IQ105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="GI1" activePane="topRight" state="frozen"/>
-      <selection activeCell="F337" sqref="F337"/>
-      <selection pane="topRight" activeCell="F337" sqref="F337"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="GB1" activePane="topRight" state="frozen"/>
+      <selection activeCell="F362" sqref="F362"/>
+      <selection pane="topRight" activeCell="F362" sqref="F362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -32313,7 +32544,8 @@
     <col min="201" max="202" width="4.875" style="21" customWidth="1"/>
     <col min="203" max="205" width="4.375" style="21" bestFit="1" customWidth="1"/>
     <col min="206" max="206" width="4.5" style="21" customWidth="1"/>
-    <col min="207" max="251" width="2.625" style="21" customWidth="1"/>
+    <col min="207" max="207" width="4.625" style="21" customWidth="1"/>
+    <col min="208" max="251" width="2.625" style="21" customWidth="1"/>
     <col min="252" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
@@ -32337,7 +32569,7 @@
       <c r="DA2" s="14"/>
       <c r="DB2" s="14"/>
       <c r="DN2" s="15">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="DO2" s="15"/>
       <c r="DP2" s="15"/>
@@ -33700,145 +33932,145 @@
         <v>69</v>
       </c>
       <c r="GW4" s="26">
+        <v>80</v>
+      </c>
+      <c r="GX4" s="26">
         <v>82</v>
       </c>
-      <c r="GX4" s="26">
-        <v>83</v>
-      </c>
       <c r="GY4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="GZ4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HA4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HB4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HC4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HD4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HE4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HF4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HG4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HH4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HI4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HJ4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HK4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HL4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HM4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HN4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HO4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HP4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HQ4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HR4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HS4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HT4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HU4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HV4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HW4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HX4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HY4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="HZ4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="IA4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="IB4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="IC4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="ID4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="IE4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="IF4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="IG4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="IH4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="II4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="IJ4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="IK4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="IL4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="IM4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="IN4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="IO4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="IP4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="IQ4" s="26">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:251" ht="24" x14ac:dyDescent="0.4">
@@ -34451,7 +34683,9 @@
       <c r="GX5" s="26">
         <v>11</v>
       </c>
-      <c r="GY5" s="26"/>
+      <c r="GY5" s="26">
+        <v>13</v>
+      </c>
       <c r="GZ5" s="26"/>
       <c r="HA5" s="26"/>
       <c r="HB5" s="26"/>
@@ -35107,7 +35341,9 @@
       <c r="GX6" s="26">
         <v>22</v>
       </c>
-      <c r="GY6" s="26"/>
+      <c r="GY6" s="26">
+        <v>21</v>
+      </c>
       <c r="GZ6" s="26"/>
       <c r="HA6" s="26"/>
       <c r="HB6" s="26"/>
@@ -35763,7 +35999,9 @@
       <c r="GX7" s="26">
         <v>13</v>
       </c>
-      <c r="GY7" s="26"/>
+      <c r="GY7" s="26">
+        <v>14</v>
+      </c>
       <c r="GZ7" s="26"/>
       <c r="HA7" s="26"/>
       <c r="HB7" s="26"/>
@@ -36414,12 +36652,14 @@
         <v>28</v>
       </c>
       <c r="GW8" s="26">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="GX8" s="26">
-        <v>37</v>
-      </c>
-      <c r="GY8" s="26"/>
+        <v>36</v>
+      </c>
+      <c r="GY8" s="26">
+        <v>33</v>
+      </c>
       <c r="GZ8" s="26"/>
       <c r="HA8" s="26"/>
       <c r="HB8" s="26"/>
@@ -37072,142 +37312,142 @@
         <v>332</v>
       </c>
       <c r="GX9" s="26">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="GY9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="GZ9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HA9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HB9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HC9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HD9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HE9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HF9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HG9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HH9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HI9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HJ9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HK9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HL9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HM9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HN9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HO9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HP9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HQ9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HR9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HS9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HT9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HU9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HV9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HW9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HX9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HY9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="HZ9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="IA9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="IB9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="IC9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="ID9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="IE9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="IF9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="IG9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="IH9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="II9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="IJ9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="IK9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="IL9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="IM9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="IN9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="IO9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="IP9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="IQ9" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:251" ht="24" x14ac:dyDescent="0.4">
@@ -37215,7 +37455,7 @@
         <v>41</v>
       </c>
       <c r="B10" s="26">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="28"/>
@@ -37823,10 +38063,10 @@
         <v>19</v>
       </c>
       <c r="GX10" s="26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="GY10" s="26">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="GZ10" s="26">
         <v>0</v>
@@ -37966,7 +38206,7 @@
         <v>43</v>
       </c>
       <c r="B11" s="26">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C11" s="23"/>
       <c r="D11" s="28"/>
@@ -38571,13 +38811,13 @@
         <v>12</v>
       </c>
       <c r="GW11" s="26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="GX11" s="26">
         <v>4</v>
       </c>
       <c r="GY11" s="26">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="GZ11" s="26">
         <v>0</v>
@@ -40821,7 +41061,9 @@
       <c r="GX14" s="26">
         <v>0</v>
       </c>
-      <c r="GY14" s="26"/>
+      <c r="GY14" s="26">
+        <v>0</v>
+      </c>
       <c r="GZ14" s="26"/>
       <c r="HA14" s="26"/>
       <c r="HB14" s="26"/>
@@ -41477,7 +41719,9 @@
       <c r="GX15" s="26">
         <v>0</v>
       </c>
-      <c r="GY15" s="26"/>
+      <c r="GY15" s="26">
+        <v>0</v>
+      </c>
       <c r="GZ15" s="26"/>
       <c r="HA15" s="26"/>
       <c r="HB15" s="26"/>
@@ -42133,7 +42377,9 @@
       <c r="GX16" s="26">
         <v>0</v>
       </c>
-      <c r="GY16" s="26"/>
+      <c r="GY16" s="26">
+        <v>0</v>
+      </c>
       <c r="GZ16" s="26"/>
       <c r="HA16" s="26"/>
       <c r="HB16" s="26"/>
@@ -42789,7 +43035,9 @@
       <c r="GX17" s="26">
         <v>0</v>
       </c>
-      <c r="GY17" s="26"/>
+      <c r="GY17" s="26">
+        <v>0</v>
+      </c>
       <c r="GZ17" s="26"/>
       <c r="HA17" s="26"/>
       <c r="HB17" s="26"/>
@@ -45992,8 +46240,8 @@
   </sheetPr>
   <dimension ref="A1:EQ258"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="L7" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F337" sqref="F337"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="L13" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F362" sqref="F362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -46046,7 +46294,7 @@
       <c r="L2" s="41"/>
       <c r="M2" s="41"/>
       <c r="Q2" s="42">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="R2" s="42"/>
     </row>
@@ -50169,16 +50417,16 @@
         <v>44090</v>
       </c>
       <c r="B244">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C244">
         <v>0</v>
       </c>
       <c r="D244">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E244">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.4">
@@ -50186,16 +50434,16 @@
         <v>44091</v>
       </c>
       <c r="B245">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C245">
         <v>0</v>
       </c>
       <c r="D245">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E245">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.4">
@@ -50209,10 +50457,10 @@
         <v>0</v>
       </c>
       <c r="D246">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E246">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.4">
@@ -50226,10 +50474,10 @@
         <v>0</v>
       </c>
       <c r="D247">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E247">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.4">
@@ -50243,10 +50491,10 @@
         <v>0</v>
       </c>
       <c r="D248">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E248">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.4">
@@ -50260,10 +50508,10 @@
         <v>0</v>
       </c>
       <c r="D249">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E249">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.4">
@@ -50277,10 +50525,10 @@
         <v>0</v>
       </c>
       <c r="D250">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E250">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.4">
@@ -50294,10 +50542,10 @@
         <v>0</v>
       </c>
       <c r="D251">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E251">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.4">
@@ -50311,10 +50559,10 @@
         <v>0</v>
       </c>
       <c r="D252">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E252">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.4">
@@ -50328,10 +50576,10 @@
         <v>0</v>
       </c>
       <c r="D253">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E253">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.4">
@@ -50345,10 +50593,10 @@
         <v>0</v>
       </c>
       <c r="D254">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E254">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.4">
@@ -50362,10 +50610,10 @@
         <v>0</v>
       </c>
       <c r="D255">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E255">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.4">
@@ -50379,10 +50627,10 @@
         <v>0</v>
       </c>
       <c r="D256">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E256">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.4">
@@ -50396,10 +50644,10 @@
         <v>0</v>
       </c>
       <c r="D257">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E257">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.4">
@@ -50413,10 +50661,10 @@
         <v>0</v>
       </c>
       <c r="D258">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E258">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -50438,8 +50686,8 @@
   </sheetPr>
   <dimension ref="A1:EQ30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F337" sqref="F337"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F362" sqref="F362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -50471,7 +50719,7 @@
     </row>
     <row r="2" spans="1:147" x14ac:dyDescent="0.4">
       <c r="H2" s="44">
-        <v>44091</v>
+        <v>44092</v>
       </c>
       <c r="I2" s="44"/>
       <c r="J2" s="44"/>
@@ -50508,20 +50756,20 @@
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="49">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="E6" s="49">
         <v>8</v>
       </c>
       <c r="F6" s="49">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="P6" s="45" t="s">
         <v>63</v>
       </c>
       <c r="Q6" s="46"/>
       <c r="R6" s="50">
-        <v>345</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:147" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -50532,13 +50780,13 @@
         <v>65</v>
       </c>
       <c r="D7" s="49">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" s="49">
         <v>0</v>
       </c>
       <c r="F7" s="49">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P7" s="51" t="s">
         <v>64</v>
@@ -50547,7 +50795,7 @@
         <v>65</v>
       </c>
       <c r="R7" s="50">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:147" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -50556,20 +50804,20 @@
         <v>66</v>
       </c>
       <c r="D8" s="49">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E8" s="49">
         <v>0</v>
       </c>
       <c r="F8" s="49">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="P8" s="53"/>
       <c r="Q8" s="52" t="s">
         <v>66</v>
       </c>
       <c r="R8" s="50">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:147" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -50578,20 +50826,20 @@
         <v>67</v>
       </c>
       <c r="D9" s="49">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="49">
         <v>0</v>
       </c>
       <c r="F9" s="49">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P9" s="53"/>
       <c r="Q9" s="54" t="s">
         <v>67</v>
       </c>
       <c r="R9" s="50">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:147" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -50600,20 +50848,20 @@
         <v>68</v>
       </c>
       <c r="D10" s="49">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E10" s="49">
         <v>0</v>
       </c>
       <c r="F10" s="49">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P10" s="53"/>
       <c r="Q10" s="52" t="s">
         <v>68</v>
       </c>
       <c r="R10" s="50">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:147" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -50622,20 +50870,20 @@
         <v>69</v>
       </c>
       <c r="D11" s="49">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="E11" s="49">
         <v>8</v>
       </c>
       <c r="F11" s="49">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="P11" s="53"/>
       <c r="Q11" s="54" t="s">
         <v>69</v>
       </c>
       <c r="R11" s="50">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:147" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -50701,7 +50949,7 @@
         <v>73</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="49">
         <v>4</v>
@@ -50716,7 +50964,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="49">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="N21" s="54" t="s">
         <v>75</v>
@@ -50728,7 +50976,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="49">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N22" s="54" t="s">
         <v>76</v>
@@ -50788,10 +51036,10 @@
         <v>82</v>
       </c>
       <c r="D27" s="49">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N27" s="64">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -50812,7 +51060,7 @@
         <v>85</v>
       </c>
       <c r="D29" s="49">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="N29" t="s">
         <v>86</v>

--- a/work/04_miyagi.xlsx
+++ b/work/04_miyagi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\00_班共有\フォルダ（整理中）\008_感染症対策関係\000_感染症発生時の随時対応（全数，集団）\☆疾病別フォルダ\■武漢肺炎（新型コロナ）\70_医療体制整備\格納（古いデータ）\04 公表用グラフ等（秘書課送付用）\02_HP更新等\0920\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2014833ic\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="患者状況一覧（HP掲載）" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$A$3:$F$343</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'その他集計（HP掲載）'!$A$1:$L$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'患者状況一覧（HP掲載）'!$A$2:$F$368</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'患者状況一覧（HP掲載）'!$A$2:$F$370</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'日別集計（HP掲載）'!$F$1:$T$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'累計グラフ（HP掲載）'!$A$1:$HA$105</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'累計グラフ（HP掲載）'!$A$1:$HB$105</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'患者状況一覧（HP掲載）'!$2:$3</definedName>
     <definedName name="Z_52D76B34_E0A5_4D8A_BB93_26BF349B7B6B_.wvu.FilterData" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$A$3:$F$343</definedName>
     <definedName name="Z_52D76B34_E0A5_4D8A_BB93_26BF349B7B6B_.wvu.PrintArea" localSheetId="3" hidden="1">'その他集計（HP掲載）'!$A$1:$L$30</definedName>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="88">
   <si>
     <t>＜患者発生状況一覧＞</t>
     <rPh sb="1" eb="3">
@@ -642,10 +642,10 @@
     <t>気仙沼保健所管内</t>
   </si>
   <si>
-    <t>うち塩釜：100人</t>
+    <t>うち塩釜：101人</t>
   </si>
   <si>
-    <t>うち仙台市：234人</t>
+    <t>うち仙台市：235人</t>
   </si>
   <si>
     <t>県外：4人</t>
@@ -1316,7 +1316,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2700,12 +2699,15 @@
                 <c:pt idx="203">
                   <c:v>16</c:v>
                 </c:pt>
+                <c:pt idx="204">
+                  <c:v>15</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C39B-4B52-AE43-BA8AE5A571C7}"/>
+              <c16:uniqueId val="{00000000-FF63-46FF-8EF9-8D440A95019F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2773,7 +2775,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4157,12 +4158,15 @@
                 <c:pt idx="203">
                   <c:v>21</c:v>
                 </c:pt>
+                <c:pt idx="204">
+                  <c:v>22</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C39B-4B52-AE43-BA8AE5A571C7}"/>
+              <c16:uniqueId val="{00000001-FF63-46FF-8EF9-8D440A95019F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4233,7 +4237,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5615,14 +5618,17 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C39B-4B52-AE43-BA8AE5A571C7}"/>
+              <c16:uniqueId val="{00000002-FF63-46FF-8EF9-8D440A95019F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5690,7 +5696,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7072,14 +7077,17 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>33</c:v>
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C39B-4B52-AE43-BA8AE5A571C7}"/>
+              <c16:uniqueId val="{00000003-FF63-46FF-8EF9-8D440A95019F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7147,7 +7155,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8662,7 +8669,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C39B-4B52-AE43-BA8AE5A571C7}"/>
+              <c16:uniqueId val="{00000004-FF63-46FF-8EF9-8D440A95019F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8752,7 +8759,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9771,133 +9777,133 @@
                   <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>365</c:v>
+                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>365</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9905,7 +9911,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-C39B-4B52-AE43-BA8AE5A571C7}"/>
+              <c16:uniqueId val="{00000005-FF63-46FF-8EF9-8D440A95019F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9926,12 +9932,11 @@
         <c:axId val="487015024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44093"/>
+          <c:max val="44094"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10026,7 +10031,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11871,10 +11875,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="247">
                   <c:v>0</c:v>
@@ -11911,7 +11915,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-73B3-4B27-B17E-977615BBE44C}"/>
+              <c16:uniqueId val="{00000000-C7D4-4185-81BB-474C701AC348}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13358,7 +13362,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-73B3-4B27-B17E-977615BBE44C}"/>
+              <c16:uniqueId val="{00000001-C7D4-4185-81BB-474C701AC348}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13378,7 +13382,7 @@
         <c:axId val="588931344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44093"/>
+          <c:max val="44094"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -13633,7 +13637,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-0405-4A39-9926-8898558E7C1D}"/>
+                <c16:uniqueId val="{00000001-3FCE-4FD8-B75F-03DEB56005A9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13679,7 +13683,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-0405-4A39-9926-8898558E7C1D}"/>
+                <c16:uniqueId val="{00000003-3FCE-4FD8-B75F-03DEB56005A9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13725,7 +13729,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-0405-4A39-9926-8898558E7C1D}"/>
+                <c16:uniqueId val="{00000005-3FCE-4FD8-B75F-03DEB56005A9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13771,7 +13775,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-0405-4A39-9926-8898558E7C1D}"/>
+                <c16:uniqueId val="{00000007-3FCE-4FD8-B75F-03DEB56005A9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13817,7 +13821,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-0405-4A39-9926-8898558E7C1D}"/>
+                <c16:uniqueId val="{00000009-3FCE-4FD8-B75F-03DEB56005A9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13863,7 +13867,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-0405-4A39-9926-8898558E7C1D}"/>
+                <c16:uniqueId val="{0000000B-3FCE-4FD8-B75F-03DEB56005A9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -13890,7 +13894,7 @@
                   <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-0405-4A39-9926-8898558E7C1D}"/>
+                  <c16:uniqueId val="{00000001-3FCE-4FD8-B75F-03DEB56005A9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -13921,7 +13925,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-0405-4A39-9926-8898558E7C1D}"/>
+                  <c16:uniqueId val="{00000003-3FCE-4FD8-B75F-03DEB56005A9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -13981,7 +13985,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-0405-4A39-9926-8898558E7C1D}"/>
+                  <c16:uniqueId val="{00000005-3FCE-4FD8-B75F-03DEB56005A9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -14012,7 +14016,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-0405-4A39-9926-8898558E7C1D}"/>
+                  <c16:uniqueId val="{00000007-3FCE-4FD8-B75F-03DEB56005A9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -14043,7 +14047,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-0405-4A39-9926-8898558E7C1D}"/>
+                  <c16:uniqueId val="{00000009-3FCE-4FD8-B75F-03DEB56005A9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -14069,7 +14073,7 @@
                   <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-0405-4A39-9926-8898558E7C1D}"/>
+                  <c16:uniqueId val="{0000000B-3FCE-4FD8-B75F-03DEB56005A9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -14165,16 +14169,16 @@
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>21</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>280</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
@@ -14184,7 +14188,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-0405-4A39-9926-8898558E7C1D}"/>
+              <c16:uniqueId val="{0000000C-3FCE-4FD8-B75F-03DEB56005A9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16252,7 +16256,7 @@
               <a:ea typeface="游ゴシック"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>334人</a:t>
+            <a:t>336人</a:t>
           </a:fld>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
@@ -16267,7 +16271,7 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>185272</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1279196" cy="349776"/>
+    <xdr:ext cx="1364797" cy="349776"/>
     <xdr:sp macro="" textlink="$N$28">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
@@ -16275,8 +16279,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4756898" y="7300447"/>
-          <a:ext cx="1279196" cy="349776"/>
+          <a:off x="4761941" y="7267390"/>
+          <a:ext cx="1364797" cy="349776"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16312,7 +16316,7 @@
               <a:ea typeface="游ゴシック"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>うち塩釜：100人</a:t>
+            <a:t>うち塩釜：101人</a:t>
           </a:fld>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
@@ -16372,7 +16376,7 @@
               <a:ea typeface="游ゴシック"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>うち仙台市：234人</a:t>
+            <a:t>うち仙台市：235人</a:t>
           </a:fld>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
@@ -17094,12 +17098,12 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EQ368"/>
+  <dimension ref="A1:EQ370"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A366" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="L346" sqref="L346"/>
-      <selection pane="bottomLeft" activeCell="N373" sqref="N373"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C375" sqref="C375"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
@@ -17123,7 +17127,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="4">
-        <v>44094</v>
+        <v>44095</v>
       </c>
     </row>
     <row r="3" spans="1:147" ht="42" customHeight="1" x14ac:dyDescent="0.4">
@@ -22940,7 +22944,7 @@
         <v>44082</v>
       </c>
       <c r="F254" s="8" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H254" s="1" t="s">
         <v>74</v>
@@ -23469,7 +23473,7 @@
         <v>44084</v>
       </c>
       <c r="F277" s="8" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H277" s="1" t="s">
         <v>74</v>
@@ -23538,7 +23542,7 @@
         <v>44085</v>
       </c>
       <c r="F280" s="8" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="H280" s="1" t="s">
         <v>70</v>
@@ -23630,7 +23634,7 @@
         <v>44084</v>
       </c>
       <c r="F284" s="8" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="H284" s="1" t="s">
         <v>74</v>
@@ -23676,7 +23680,7 @@
         <v>44085</v>
       </c>
       <c r="F286" s="8" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="H286" s="1" t="s">
         <v>74</v>
@@ -23791,7 +23795,7 @@
         <v>44085</v>
       </c>
       <c r="F291" s="8" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="H291" s="1" t="s">
         <v>74</v>
@@ -24067,7 +24071,7 @@
         <v>44086</v>
       </c>
       <c r="F303" s="8" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="H303" s="1" t="s">
         <v>74</v>
@@ -24320,7 +24324,7 @@
         <v>44088</v>
       </c>
       <c r="F314" s="8" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="H314" s="1" t="s">
         <v>74</v>
@@ -24343,7 +24347,7 @@
         <v>44088</v>
       </c>
       <c r="F315" s="8" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="H315" s="1" t="s">
         <v>70</v>
@@ -24458,7 +24462,7 @@
         <v>44089</v>
       </c>
       <c r="F320" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H320" s="1" t="s">
         <v>74</v>
@@ -24596,7 +24600,7 @@
         <v>44089</v>
       </c>
       <c r="F326" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H326" s="1" t="s">
         <v>74</v>
@@ -24734,7 +24738,7 @@
         <v>44089</v>
       </c>
       <c r="F332" s="8" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="H332" s="1" t="s">
         <v>74</v>
@@ -24803,7 +24807,7 @@
         <v>44089</v>
       </c>
       <c r="F335" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H335" s="1" t="s">
         <v>74</v>
@@ -24826,7 +24830,7 @@
         <v>44090</v>
       </c>
       <c r="F336" s="8" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H336" s="1" t="s">
         <v>74</v>
@@ -24918,7 +24922,7 @@
         <v>44090</v>
       </c>
       <c r="F340" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H340" s="1" t="s">
         <v>70</v>
@@ -24964,7 +24968,7 @@
         <v>44091</v>
       </c>
       <c r="F342" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H342" s="1" t="s">
         <v>70</v>
@@ -25102,7 +25106,7 @@
         <v>44091</v>
       </c>
       <c r="F348" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H348" s="1" t="s">
         <v>74</v>
@@ -25148,7 +25152,7 @@
         <v>44092</v>
       </c>
       <c r="F350" s="8" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="H350" s="1" t="s">
         <v>70</v>
@@ -25194,7 +25198,7 @@
         <v>44092</v>
       </c>
       <c r="F352" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H352" s="1" t="s">
         <v>74</v>
@@ -25217,7 +25221,7 @@
         <v>44092</v>
       </c>
       <c r="F353" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H353" s="1" t="s">
         <v>74</v>
@@ -25309,7 +25313,7 @@
         <v>44093</v>
       </c>
       <c r="F357" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H357" s="1" t="s">
         <v>74</v>
@@ -25332,7 +25336,7 @@
         <v>44093</v>
       </c>
       <c r="F358" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H358" s="1" t="s">
         <v>74</v>
@@ -25378,7 +25382,7 @@
         <v>44093</v>
       </c>
       <c r="F360" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H360" s="1" t="s">
         <v>74</v>
@@ -25401,7 +25405,7 @@
         <v>44093</v>
       </c>
       <c r="F361" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H361" s="1" t="s">
         <v>74</v>
@@ -25424,7 +25428,7 @@
         <v>44093</v>
       </c>
       <c r="F362" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H362" s="1" t="s">
         <v>74</v>
@@ -25565,6 +25569,52 @@
         <v>85</v>
       </c>
       <c r="H368" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A369" s="7">
+        <v>366</v>
+      </c>
+      <c r="B369" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C369" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D369" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E369" s="10">
+        <v>44093</v>
+      </c>
+      <c r="F369" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H369" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A370" s="7">
+        <v>367</v>
+      </c>
+      <c r="B370" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C370" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D370" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E370" s="10">
+        <v>44094</v>
+      </c>
+      <c r="F370" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H370" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -25595,10 +25645,10 @@
   </sheetPr>
   <dimension ref="A1:IQ105"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="GB1" activePane="topRight" state="frozen"/>
-      <selection activeCell="L346" sqref="L346"/>
-      <selection pane="topRight" activeCell="L346" sqref="L346"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection activeCell="C375" sqref="C375"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -25662,8 +25712,8 @@
     <col min="203" max="205" width="4.375" style="17" bestFit="1" customWidth="1"/>
     <col min="206" max="206" width="4.5" style="17" customWidth="1"/>
     <col min="207" max="207" width="4.625" style="17" customWidth="1"/>
-    <col min="208" max="209" width="4.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="210" max="251" width="2.625" style="17" customWidth="1"/>
+    <col min="208" max="210" width="4.375" style="17" bestFit="1" customWidth="1"/>
+    <col min="211" max="251" width="2.625" style="17" customWidth="1"/>
     <col min="252" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
@@ -25687,7 +25737,7 @@
       <c r="DA2" s="51"/>
       <c r="DB2" s="51"/>
       <c r="DN2" s="52">
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="DO2" s="52"/>
       <c r="DP2" s="52"/>
@@ -27062,133 +27112,133 @@
         <v>79</v>
       </c>
       <c r="HA4" s="21">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="HB4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="HC4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="HD4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="HE4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="HF4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="HG4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="HH4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="HI4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="HJ4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="HK4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="HL4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="HM4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="HN4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="HO4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="HP4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="HQ4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="HR4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="HS4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="HT4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="HU4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="HV4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="HW4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="HX4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="HY4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="HZ4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="IA4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="IB4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="IC4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="ID4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="IE4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="IF4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="IG4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="IH4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="II4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="IJ4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="IK4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="IL4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="IM4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="IN4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="IO4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="IP4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="IQ4" s="21">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:251" ht="24" x14ac:dyDescent="0.4">
@@ -27810,7 +27860,9 @@
       <c r="HA5" s="21">
         <v>16</v>
       </c>
-      <c r="HB5" s="21"/>
+      <c r="HB5" s="21">
+        <v>15</v>
+      </c>
       <c r="HC5" s="21"/>
       <c r="HD5" s="21"/>
       <c r="HE5" s="21"/>
@@ -28472,7 +28524,9 @@
       <c r="HA6" s="21">
         <v>21</v>
       </c>
-      <c r="HB6" s="21"/>
+      <c r="HB6" s="21">
+        <v>22</v>
+      </c>
       <c r="HC6" s="21"/>
       <c r="HD6" s="21"/>
       <c r="HE6" s="21"/>
@@ -29132,9 +29186,11 @@
         <v>16</v>
       </c>
       <c r="HA7" s="21">
-        <v>21</v>
-      </c>
-      <c r="HB7" s="21"/>
+        <v>23</v>
+      </c>
+      <c r="HB7" s="21">
+        <v>18</v>
+      </c>
       <c r="HC7" s="21"/>
       <c r="HD7" s="21"/>
       <c r="HE7" s="21"/>
@@ -29794,9 +29850,11 @@
         <v>30</v>
       </c>
       <c r="HA8" s="21">
-        <v>33</v>
-      </c>
-      <c r="HB8" s="21"/>
+        <v>30</v>
+      </c>
+      <c r="HB8" s="21">
+        <v>26</v>
+      </c>
       <c r="HC8" s="21"/>
       <c r="HD8" s="21"/>
       <c r="HE8" s="21"/>
@@ -30455,133 +30513,133 @@
         <v>351</v>
       </c>
       <c r="HA9" s="21">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="HB9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="HC9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="HD9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="HE9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="HF9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="HG9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="HH9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="HI9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="HJ9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="HK9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="HL9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="HM9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="HN9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="HO9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="HP9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="HQ9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="HR9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="HS9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="HT9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="HU9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="HV9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="HW9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="HX9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="HY9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="HZ9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="IA9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="IB9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="IC9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="ID9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="IE9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="IF9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="IG9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="IH9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="II9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="IJ9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="IK9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="IL9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="IM9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="IN9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="IO9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="IP9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="IQ9" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:251" ht="24" x14ac:dyDescent="0.4">
@@ -30589,7 +30647,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="21">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="54"/>
@@ -31206,10 +31264,10 @@
         <v>4</v>
       </c>
       <c r="HA10" s="21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="HB10" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HC10" s="21">
         <v>0</v>
@@ -31340,7 +31398,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="21">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="54"/>
@@ -31957,10 +32015,10 @@
         <v>5</v>
       </c>
       <c r="HA11" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="HB11" s="21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="HC11" s="21">
         <v>0</v>
@@ -34204,7 +34262,9 @@
       <c r="HA14" s="21">
         <v>0</v>
       </c>
-      <c r="HB14" s="21"/>
+      <c r="HB14" s="21">
+        <v>0</v>
+      </c>
       <c r="HC14" s="21"/>
       <c r="HD14" s="21"/>
       <c r="HE14" s="21"/>
@@ -34866,7 +34926,9 @@
       <c r="HA15" s="21">
         <v>0</v>
       </c>
-      <c r="HB15" s="21"/>
+      <c r="HB15" s="21">
+        <v>0</v>
+      </c>
       <c r="HC15" s="21"/>
       <c r="HD15" s="21"/>
       <c r="HE15" s="21"/>
@@ -35528,7 +35590,9 @@
       <c r="HA16" s="21">
         <v>0</v>
       </c>
-      <c r="HB16" s="21"/>
+      <c r="HB16" s="21">
+        <v>0</v>
+      </c>
       <c r="HC16" s="21"/>
       <c r="HD16" s="21"/>
       <c r="HE16" s="21"/>
@@ -36190,7 +36254,9 @@
       <c r="HA17" s="21">
         <v>0</v>
       </c>
-      <c r="HB17" s="21"/>
+      <c r="HB17" s="21">
+        <v>0</v>
+      </c>
       <c r="HC17" s="21"/>
       <c r="HD17" s="21"/>
       <c r="HE17" s="21"/>
@@ -39390,9 +39456,7 @@
   </sheetPr>
   <dimension ref="A1:EQ258"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="L7" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L346" sqref="L346"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="85" zoomScaleSheetLayoutView="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -39444,7 +39508,7 @@
       <c r="L2" s="33"/>
       <c r="M2" s="33"/>
       <c r="Q2" s="57">
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="R2" s="57"/>
     </row>
@@ -43618,16 +43682,16 @@
         <v>44093</v>
       </c>
       <c r="B247">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C247">
         <v>0</v>
       </c>
       <c r="D247">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E247">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.4">
@@ -43635,16 +43699,16 @@
         <v>44094</v>
       </c>
       <c r="B248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C248">
         <v>0</v>
       </c>
       <c r="D248">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E248">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.4">
@@ -43658,10 +43722,10 @@
         <v>0</v>
       </c>
       <c r="D249">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E249">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.4">
@@ -43675,10 +43739,10 @@
         <v>0</v>
       </c>
       <c r="D250">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E250">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.4">
@@ -43692,10 +43756,10 @@
         <v>0</v>
       </c>
       <c r="D251">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E251">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.4">
@@ -43709,10 +43773,10 @@
         <v>0</v>
       </c>
       <c r="D252">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E252">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.4">
@@ -43726,10 +43790,10 @@
         <v>0</v>
       </c>
       <c r="D253">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E253">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.4">
@@ -43743,10 +43807,10 @@
         <v>0</v>
       </c>
       <c r="D254">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E254">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.4">
@@ -43760,10 +43824,10 @@
         <v>0</v>
       </c>
       <c r="D255">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E255">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.4">
@@ -43777,10 +43841,10 @@
         <v>0</v>
       </c>
       <c r="D256">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E256">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.4">
@@ -43794,10 +43858,10 @@
         <v>0</v>
       </c>
       <c r="D257">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E257">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.4">
@@ -43811,10 +43875,10 @@
         <v>0</v>
       </c>
       <c r="D258">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E258">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -43836,8 +43900,8 @@
   </sheetPr>
   <dimension ref="A1:EQ30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L346" sqref="L346"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -43869,7 +43933,7 @@
     </row>
     <row r="2" spans="1:147" x14ac:dyDescent="0.4">
       <c r="H2" s="61">
-        <v>44094</v>
+        <v>44095</v>
       </c>
       <c r="I2" s="61"/>
       <c r="J2" s="61"/>
@@ -43906,20 +43970,20 @@
       </c>
       <c r="C6" s="62"/>
       <c r="D6" s="36">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E6" s="36">
         <v>8</v>
       </c>
       <c r="F6" s="36">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="P6" s="62" t="s">
         <v>37</v>
       </c>
       <c r="Q6" s="62"/>
       <c r="R6" s="37">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:147" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -43954,20 +44018,20 @@
         <v>40</v>
       </c>
       <c r="D8" s="36">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E8" s="36">
         <v>0</v>
       </c>
       <c r="F8" s="36">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="P8" s="58"/>
       <c r="Q8" s="38" t="s">
         <v>40</v>
       </c>
       <c r="R8" s="37">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:147" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -43976,20 +44040,20 @@
         <v>41</v>
       </c>
       <c r="D9" s="36">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E9" s="36">
         <v>0</v>
       </c>
       <c r="F9" s="36">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P9" s="58"/>
       <c r="Q9" s="39" t="s">
         <v>41</v>
       </c>
       <c r="R9" s="37">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:147" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -43998,20 +44062,20 @@
         <v>42</v>
       </c>
       <c r="D10" s="36">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10" s="36">
         <v>0</v>
       </c>
       <c r="F10" s="36">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P10" s="58"/>
       <c r="Q10" s="38" t="s">
         <v>42</v>
       </c>
       <c r="R10" s="37">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:147" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -44020,20 +44084,20 @@
         <v>43</v>
       </c>
       <c r="D11" s="36">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="E11" s="36">
         <v>8</v>
       </c>
       <c r="F11" s="36">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="P11" s="58"/>
       <c r="Q11" s="39" t="s">
         <v>43</v>
       </c>
       <c r="R11" s="37">
-        <v>280</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:147" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -44114,7 +44178,7 @@
         <v>59</v>
       </c>
       <c r="D21" s="36">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N21" s="39" t="s">
         <v>49</v>
@@ -44186,10 +44250,10 @@
         <v>55</v>
       </c>
       <c r="D27" s="36">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N27" s="48">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -44210,7 +44274,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="36">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="N29" t="s">
         <v>66</v>

--- a/work/04_miyagi.xlsx
+++ b/work/04_miyagi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\00_班共有\フォルダ（整理中）\008_感染症対策関係\000_感染症発生時の随時対応（全数，集団）\☆疾病別フォルダ\■武漢肺炎（新型コロナ）\70_医療体制整備\格納（古いデータ）\04 公表用グラフ等（秘書課送付用）\02_HP更新等\1012\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\00_班共有\フォルダ（整理中）\008_感染症対策関係\000_感染症発生時の随時対応（全数，集団）\☆疾病別フォルダ\■武漢肺炎（新型コロナ）\70_医療体制整備\格納（古いデータ）\04 公表用グラフ等（秘書課送付用）\02_HP更新等\1013\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18030" windowHeight="7185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="患者状況一覧（HP掲載）" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$A$3:$F$445</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'その他集計（HP掲載）'!$A$1:$M$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'患者状況一覧（HP掲載）'!$A$1:$F$489</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'その他集計（HP掲載）'!$A$1:$N$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'患者状況一覧（HP掲載）'!$A$1:$F$494</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'日別集計（HP掲載）'!$G$1:$V$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'累計グラフ（HP掲載）'!$D$1:$HW$114</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'累計グラフ（HP掲載）'!$D$1:$HX$76</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'患者状況一覧（HP掲載）'!$2:$3</definedName>
     <definedName name="Z_52D76B34_E0A5_4D8A_BB93_26BF349B7B6B_.wvu.FilterData" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$A$3:$F$343</definedName>
     <definedName name="Z_52D76B34_E0A5_4D8A_BB93_26BF349B7B6B_.wvu.PrintArea" localSheetId="3" hidden="1">'その他集計（HP掲載）'!$A$1:$M$30</definedName>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2559" uniqueCount="97">
   <si>
     <t>＜患者発生状況一覧＞</t>
     <rPh sb="1" eb="3">
@@ -761,7 +761,7 @@
     <t>うち塩釜：123人</t>
   </si>
   <si>
-    <t>うち仙台市：324人</t>
+    <t>うち仙台市：326人</t>
   </si>
   <si>
     <t>県外：4人</t>
@@ -2871,12 +2871,15 @@
                 <c:pt idx="225">
                   <c:v>5</c:v>
                 </c:pt>
+                <c:pt idx="226">
+                  <c:v>7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9F1E-4D52-BA1A-B3D6B8F380D9}"/>
+              <c16:uniqueId val="{00000000-6ADD-4892-BE0D-BDF8DB491096}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4394,12 +4397,15 @@
                 <c:pt idx="225">
                   <c:v>9</c:v>
                 </c:pt>
+                <c:pt idx="226">
+                  <c:v>8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9F1E-4D52-BA1A-B3D6B8F380D9}"/>
+              <c16:uniqueId val="{00000001-6ADD-4892-BE0D-BDF8DB491096}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5920,12 +5926,15 @@
                 <c:pt idx="225">
                   <c:v>17</c:v>
                 </c:pt>
+                <c:pt idx="226">
+                  <c:v>12</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9F1E-4D52-BA1A-B3D6B8F380D9}"/>
+              <c16:uniqueId val="{00000002-6ADD-4892-BE0D-BDF8DB491096}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7443,12 +7452,15 @@
                 <c:pt idx="225">
                   <c:v>26</c:v>
                 </c:pt>
+                <c:pt idx="226">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9F1E-4D52-BA1A-B3D6B8F380D9}"/>
+              <c16:uniqueId val="{00000003-6ADD-4892-BE0D-BDF8DB491096}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8967,71 +8979,71 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9F1E-4D52-BA1A-B3D6B8F380D9}"/>
+              <c16:uniqueId val="{00000004-6ADD-4892-BE0D-BDF8DB491096}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9811,7 +9823,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-9F1E-4D52-BA1A-B3D6B8F380D9}"/>
+              <c16:uniqueId val="{00000005-6ADD-4892-BE0D-BDF8DB491096}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10989,64 +11001,64 @@
                   <c:v>486</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>486</c:v>
+                  <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>486</c:v>
+                  <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>486</c:v>
+                  <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>486</c:v>
+                  <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>486</c:v>
+                  <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>486</c:v>
+                  <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>486</c:v>
+                  <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>486</c:v>
+                  <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>486</c:v>
+                  <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>486</c:v>
+                  <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>486</c:v>
+                  <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>486</c:v>
+                  <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>486</c:v>
+                  <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>486</c:v>
+                  <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>486</c:v>
+                  <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>486</c:v>
+                  <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>486</c:v>
+                  <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>486</c:v>
+                  <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>486</c:v>
+                  <c:v>491</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>486</c:v>
+                  <c:v>491</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11054,7 +11066,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-9F1E-4D52-BA1A-B3D6B8F380D9}"/>
+              <c16:uniqueId val="{00000006-6ADD-4892-BE0D-BDF8DB491096}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11075,7 +11087,7 @@
         <c:axId val="487015024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44115"/>
+          <c:max val="44116"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -13594,7 +13606,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="269">
                   <c:v>0</c:v>
@@ -14111,7 +14123,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4A0A-449B-80A2-E08C82A0E96F}"/>
+              <c16:uniqueId val="{00000000-BBB1-4D55-802D-C1C3417E688E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16104,7 +16116,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4A0A-449B-80A2-E08C82A0E96F}"/>
+              <c16:uniqueId val="{00000001-BBB1-4D55-802D-C1C3417E688E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17465,7 +17477,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4A0A-449B-80A2-E08C82A0E96F}"/>
+              <c16:uniqueId val="{00000002-BBB1-4D55-802D-C1C3417E688E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17486,7 +17498,7 @@
         <c:axId val="588931344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44115"/>
+          <c:max val="44116"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -17741,7 +17753,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-4DBE-44D3-A716-324093111904}"/>
+                <c16:uniqueId val="{00000001-B97B-4A45-8050-8D29F62FB2B5}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17787,7 +17799,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-4DBE-44D3-A716-324093111904}"/>
+                <c16:uniqueId val="{00000003-B97B-4A45-8050-8D29F62FB2B5}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17833,7 +17845,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-4DBE-44D3-A716-324093111904}"/>
+                <c16:uniqueId val="{00000005-B97B-4A45-8050-8D29F62FB2B5}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17879,7 +17891,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-4DBE-44D3-A716-324093111904}"/>
+                <c16:uniqueId val="{00000007-B97B-4A45-8050-8D29F62FB2B5}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17925,7 +17937,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-4DBE-44D3-A716-324093111904}"/>
+                <c16:uniqueId val="{00000009-B97B-4A45-8050-8D29F62FB2B5}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17971,7 +17983,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-4DBE-44D3-A716-324093111904}"/>
+                <c16:uniqueId val="{0000000B-B97B-4A45-8050-8D29F62FB2B5}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17998,7 +18010,7 @@
                   <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-4DBE-44D3-A716-324093111904}"/>
+                  <c16:uniqueId val="{00000001-B97B-4A45-8050-8D29F62FB2B5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -18029,7 +18041,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-4DBE-44D3-A716-324093111904}"/>
+                  <c16:uniqueId val="{00000003-B97B-4A45-8050-8D29F62FB2B5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -18089,7 +18101,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-4DBE-44D3-A716-324093111904}"/>
+                  <c16:uniqueId val="{00000005-B97B-4A45-8050-8D29F62FB2B5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -18120,7 +18132,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-4DBE-44D3-A716-324093111904}"/>
+                  <c16:uniqueId val="{00000007-B97B-4A45-8050-8D29F62FB2B5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -18151,7 +18163,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-4DBE-44D3-A716-324093111904}"/>
+                  <c16:uniqueId val="{00000009-B97B-4A45-8050-8D29F62FB2B5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -18177,7 +18189,7 @@
                   <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-4DBE-44D3-A716-324093111904}"/>
+                  <c16:uniqueId val="{0000000B-B97B-4A45-8050-8D29F62FB2B5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -18270,19 +18282,19 @@
                 <c:formatCode>0"人"</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>435</c:v>
+                  <c:v>451</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
@@ -18292,7 +18304,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-4DBE-44D3-A716-324093111904}"/>
+              <c16:uniqueId val="{0000000C-B97B-4A45-8050-8D29F62FB2B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -20038,8 +20050,8 @@
       <xdr:rowOff>201705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>229</xdr:col>
-      <xdr:colOff>257734</xdr:colOff>
+      <xdr:col>231</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>5845</xdr:rowOff>
     </xdr:to>
@@ -20360,7 +20372,7 @@
               <a:ea typeface="游ゴシック"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>447人</a:t>
+            <a:t>449人</a:t>
           </a:fld>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
@@ -20480,7 +20492,7 @@
               <a:ea typeface="游ゴシック"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>うち仙台市：324人</a:t>
+            <a:t>うち仙台市：326人</a:t>
           </a:fld>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
@@ -20540,7 +20552,7 @@
               <a:ea typeface="游ゴシック"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>17人</a:t>
+            <a:t>18人</a:t>
           </a:fld>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
@@ -20720,7 +20732,7 @@
               <a:ea typeface="游ゴシック"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>4人</a:t>
+            <a:t>6人</a:t>
           </a:fld>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -21201,12 +21213,12 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:HD489"/>
+  <dimension ref="A1:HD494"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A484" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="J16" sqref="J16"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <pane ySplit="3" topLeftCell="A490" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="J479" sqref="J479"/>
+      <selection pane="bottomLeft" activeCell="J490" sqref="J490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
@@ -21230,7 +21242,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="4">
-        <v>44116</v>
+        <v>44117</v>
       </c>
     </row>
     <row r="3" spans="1:212" ht="42" customHeight="1" x14ac:dyDescent="0.4">
@@ -30043,7 +30055,7 @@
         <v>44098</v>
       </c>
       <c r="F384" s="8" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H384" s="1" t="s">
         <v>79</v>
@@ -30066,7 +30078,7 @@
         <v>44098</v>
       </c>
       <c r="F385" s="8" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H385" s="1" t="s">
         <v>79</v>
@@ -30204,7 +30216,7 @@
         <v>44100</v>
       </c>
       <c r="F391" s="8" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H391" s="1" t="s">
         <v>83</v>
@@ -30296,7 +30308,7 @@
         <v>44101</v>
       </c>
       <c r="F395" s="8" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H395" s="1" t="s">
         <v>79</v>
@@ -30595,7 +30607,7 @@
         <v>44104</v>
       </c>
       <c r="F408" s="8" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H408" s="1" t="s">
         <v>79</v>
@@ -30733,7 +30745,7 @@
         <v>44105</v>
       </c>
       <c r="F414" s="8" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H414" s="1" t="s">
         <v>79</v>
@@ -30825,7 +30837,7 @@
         <v>44106</v>
       </c>
       <c r="F418" s="8" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H418" s="1" t="s">
         <v>79</v>
@@ -30871,7 +30883,7 @@
         <v>44106</v>
       </c>
       <c r="F420" s="8" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H420" s="1" t="s">
         <v>83</v>
@@ -31239,7 +31251,7 @@
         <v>44109</v>
       </c>
       <c r="F436" s="8" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H436" s="1" t="s">
         <v>79</v>
@@ -31515,7 +31527,7 @@
         <v>44110</v>
       </c>
       <c r="F448" s="8" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H448" s="1" t="s">
         <v>79</v>
@@ -31837,7 +31849,7 @@
         <v>44112</v>
       </c>
       <c r="F462" s="8" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H462" s="1" t="s">
         <v>79</v>
@@ -31929,7 +31941,7 @@
         <v>44113</v>
       </c>
       <c r="F466" s="8" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H466" s="1" t="s">
         <v>79</v>
@@ -31952,7 +31964,7 @@
         <v>44113</v>
       </c>
       <c r="F467" s="8" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H467" s="1" t="s">
         <v>79</v>
@@ -31998,7 +32010,7 @@
         <v>44113</v>
       </c>
       <c r="F469" s="8" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H469" s="1" t="s">
         <v>79</v>
@@ -32021,7 +32033,7 @@
         <v>44113</v>
       </c>
       <c r="F470" s="8" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H470" s="1" t="s">
         <v>79</v>
@@ -32136,7 +32148,7 @@
         <v>44113</v>
       </c>
       <c r="F475" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H475" s="1" t="s">
         <v>79</v>
@@ -32412,7 +32424,7 @@
         <v>44114</v>
       </c>
       <c r="F487" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H487" s="1" t="s">
         <v>79</v>
@@ -32462,6 +32474,121 @@
       </c>
       <c r="H489" s="1" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A490" s="7">
+        <v>487</v>
+      </c>
+      <c r="B490" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C490" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D490" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E490" s="10">
+        <v>44116</v>
+      </c>
+      <c r="F490" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H490" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A491" s="7">
+        <v>488</v>
+      </c>
+      <c r="B491" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C491" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D491" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E491" s="10">
+        <v>44116</v>
+      </c>
+      <c r="F491" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H491" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A492" s="7">
+        <v>489</v>
+      </c>
+      <c r="B492" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C492" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D492" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E492" s="10">
+        <v>44116</v>
+      </c>
+      <c r="F492" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H492" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A493" s="7">
+        <v>490</v>
+      </c>
+      <c r="B493" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C493" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D493" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E493" s="10">
+        <v>44116</v>
+      </c>
+      <c r="F493" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H493" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A494" s="7">
+        <v>491</v>
+      </c>
+      <c r="B494" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C494" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D494" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E494" s="10">
+        <v>44116</v>
+      </c>
+      <c r="F494" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H494" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -32494,10 +32621,10 @@
   </sheetPr>
   <dimension ref="A1:IQ114"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A22" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="GC1" activePane="topRight" state="frozen"/>
-      <selection activeCell="J16" sqref="J16"/>
-      <selection pane="topRight" activeCell="IO39" sqref="IO39"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="GT1" activePane="topRight" state="frozen"/>
+      <selection activeCell="D501" sqref="D501"/>
+      <selection pane="topRight" activeCell="D501" sqref="D501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -32516,7 +32643,8 @@
     <col min="227" max="228" width="4.25" style="17" customWidth="1"/>
     <col min="229" max="229" width="4.375" style="17" customWidth="1"/>
     <col min="230" max="231" width="4.375" style="17" bestFit="1" customWidth="1"/>
-    <col min="232" max="251" width="2.625" style="17" customWidth="1"/>
+    <col min="232" max="232" width="4" style="17" customWidth="1"/>
+    <col min="233" max="251" width="2.625" style="17" customWidth="1"/>
     <col min="252" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
@@ -32525,7 +32653,7 @@
         <v>7</v>
       </c>
       <c r="AA1" s="53">
-        <v>44116</v>
+        <v>44117</v>
       </c>
       <c r="AB1" s="53"/>
       <c r="AC1" s="53"/>
@@ -33980,79 +34108,79 @@
         <v>47</v>
       </c>
       <c r="HS4" s="21">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="HT4" s="21">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="HU4" s="21">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="HV4" s="21">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="HW4" s="21">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="HX4" s="21">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="HY4" s="21">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="HZ4" s="21">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="IA4" s="21">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="IB4" s="21">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="IC4" s="21">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="ID4" s="21">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="IE4" s="21">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="IF4" s="21">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="IG4" s="21">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="IH4" s="21">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="II4" s="21">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="IJ4" s="21">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="IK4" s="21">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="IL4" s="21">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="IM4" s="21">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="IN4" s="21">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="IO4" s="21">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="IP4" s="21">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="IQ4" s="21">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:251" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -34740,7 +34868,9 @@
       <c r="HW5" s="21">
         <v>5</v>
       </c>
-      <c r="HX5" s="21"/>
+      <c r="HX5" s="21">
+        <v>7</v>
+      </c>
       <c r="HY5" s="21"/>
       <c r="HZ5" s="21"/>
       <c r="IA5" s="21"/>
@@ -35446,7 +35576,9 @@
       <c r="HW6" s="21">
         <v>9</v>
       </c>
-      <c r="HX6" s="21"/>
+      <c r="HX6" s="21">
+        <v>8</v>
+      </c>
       <c r="HY6" s="21"/>
       <c r="HZ6" s="21"/>
       <c r="IA6" s="21"/>
@@ -36152,7 +36284,9 @@
       <c r="HW7" s="21">
         <v>17</v>
       </c>
-      <c r="HX7" s="21"/>
+      <c r="HX7" s="21">
+        <v>12</v>
+      </c>
       <c r="HY7" s="21"/>
       <c r="HZ7" s="21"/>
       <c r="IA7" s="21"/>
@@ -36858,7 +36992,9 @@
       <c r="HW8" s="21">
         <v>26</v>
       </c>
-      <c r="HX8" s="21"/>
+      <c r="HX8" s="21">
+        <v>20</v>
+      </c>
       <c r="HY8" s="21"/>
       <c r="HZ8" s="21"/>
       <c r="IA8" s="21"/>
@@ -37564,64 +37700,64 @@
         <v>486</v>
       </c>
       <c r="HX9" s="21">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="HY9" s="21">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="HZ9" s="21">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="IA9" s="21">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="IB9" s="21">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="IC9" s="21">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="ID9" s="21">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="IE9" s="21">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="IF9" s="21">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="IG9" s="21">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="IH9" s="21">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="II9" s="21">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="IJ9" s="21">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="IK9" s="21">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="IL9" s="21">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="IM9" s="21">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="IN9" s="21">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="IO9" s="21">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="IP9" s="21">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="IQ9" s="21">
-        <v>486</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="1:251" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -37629,7 +37765,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="21">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="50"/>
@@ -38315,7 +38451,7 @@
         <v>2</v>
       </c>
       <c r="HX10" s="21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="HY10" s="21">
         <v>0</v>
@@ -38380,7 +38516,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="21">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="50"/>
@@ -39051,13 +39187,13 @@
         <v>6</v>
       </c>
       <c r="HS11" s="21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="HT11" s="21">
         <v>10</v>
       </c>
       <c r="HU11" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="HV11" s="21">
         <v>7</v>
@@ -39066,7 +39202,7 @@
         <v>7</v>
       </c>
       <c r="HX11" s="21">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="HY11" s="21">
         <v>0</v>
@@ -41310,7 +41446,9 @@
       <c r="HW14" s="21">
         <v>0</v>
       </c>
-      <c r="HX14" s="21"/>
+      <c r="HX14" s="21">
+        <v>0</v>
+      </c>
       <c r="HY14" s="21"/>
       <c r="HZ14" s="21"/>
       <c r="IA14" s="21"/>
@@ -42016,7 +42154,9 @@
       <c r="HW15" s="21">
         <v>0</v>
       </c>
-      <c r="HX15" s="21"/>
+      <c r="HX15" s="21">
+        <v>0</v>
+      </c>
       <c r="HY15" s="21"/>
       <c r="HZ15" s="21"/>
       <c r="IA15" s="21"/>
@@ -42722,7 +42862,9 @@
       <c r="HW16" s="21">
         <v>0</v>
       </c>
-      <c r="HX16" s="21"/>
+      <c r="HX16" s="21">
+        <v>0</v>
+      </c>
       <c r="HY16" s="21"/>
       <c r="HZ16" s="21"/>
       <c r="IA16" s="21"/>
@@ -43428,7 +43570,9 @@
       <c r="HW17" s="21">
         <v>0</v>
       </c>
-      <c r="HX17" s="21"/>
+      <c r="HX17" s="21">
+        <v>0</v>
+      </c>
       <c r="HY17" s="21"/>
       <c r="HZ17" s="21"/>
       <c r="IA17" s="21"/>
@@ -47138,64 +47282,64 @@
         <v>2</v>
       </c>
       <c r="HX22" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="HY22" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="HZ22" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IA22" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IB22" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IC22" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="ID22" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IE22" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IF22" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IG22" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IH22" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="II22" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IJ22" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IK22" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IL22" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IM22" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IN22" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IO22" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IP22" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="IQ22" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:251" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -47883,7 +48027,9 @@
       <c r="HW23" s="21">
         <v>0</v>
       </c>
-      <c r="HX23" s="21"/>
+      <c r="HX23" s="21">
+        <v>0</v>
+      </c>
       <c r="HY23" s="21"/>
       <c r="HZ23" s="21"/>
       <c r="IA23" s="21"/>
@@ -48589,7 +48735,9 @@
       <c r="HW24" s="21">
         <v>0</v>
       </c>
-      <c r="HX24" s="21"/>
+      <c r="HX24" s="21">
+        <v>0</v>
+      </c>
       <c r="HY24" s="21"/>
       <c r="HZ24" s="21"/>
       <c r="IA24" s="21"/>
@@ -49295,7 +49443,9 @@
       <c r="HW25" s="21">
         <v>2</v>
       </c>
-      <c r="HX25" s="21"/>
+      <c r="HX25" s="21">
+        <v>1</v>
+      </c>
       <c r="HY25" s="21"/>
       <c r="HZ25" s="21"/>
       <c r="IA25" s="21"/>
@@ -50001,7 +50151,9 @@
       <c r="HW26" s="21">
         <v>0</v>
       </c>
-      <c r="HX26" s="21"/>
+      <c r="HX26" s="21">
+        <v>0</v>
+      </c>
       <c r="HY26" s="21"/>
       <c r="HZ26" s="21"/>
       <c r="IA26" s="21"/>
@@ -51523,7 +51675,7 @@
         <v>17</v>
       </c>
       <c r="B29" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="50"/>
@@ -52209,7 +52361,7 @@
         <v>0</v>
       </c>
       <c r="HX29" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY29" s="21">
         <v>0</v>
@@ -53182,8 +53334,8 @@
   </sheetPr>
   <dimension ref="A1:HE440"/>
   <sheetViews>
-    <sheetView showGridLines="0" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showGridLines="0" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D501" sqref="D501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -53242,7 +53394,7 @@
       <c r="M2" s="32"/>
       <c r="N2" s="32"/>
       <c r="R2" s="57">
-        <v>44116</v>
+        <v>44117</v>
       </c>
       <c r="S2" s="57"/>
     </row>
@@ -58617,7 +58769,7 @@
         <v>44116</v>
       </c>
       <c r="B270">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C270">
         <v>0</v>
@@ -58626,10 +58778,10 @@
         <v>0</v>
       </c>
       <c r="E270">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F270">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.4">
@@ -58646,10 +58798,10 @@
         <v>0</v>
       </c>
       <c r="E271">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F271">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.4">
@@ -58666,10 +58818,10 @@
         <v>0</v>
       </c>
       <c r="E272">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F272">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.4">
@@ -58686,10 +58838,10 @@
         <v>0</v>
       </c>
       <c r="E273">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F273">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.4">
@@ -58706,10 +58858,10 @@
         <v>0</v>
       </c>
       <c r="E274">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F274">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.4">
@@ -58726,10 +58878,10 @@
         <v>0</v>
       </c>
       <c r="E275">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F275">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.4">
@@ -58746,10 +58898,10 @@
         <v>0</v>
       </c>
       <c r="E276">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F276">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.4">
@@ -58766,10 +58918,10 @@
         <v>0</v>
       </c>
       <c r="E277">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F277">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.4">
@@ -58786,10 +58938,10 @@
         <v>0</v>
       </c>
       <c r="E278">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F278">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.4">
@@ -58806,10 +58958,10 @@
         <v>0</v>
       </c>
       <c r="E279">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F279">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.4">
@@ -58826,10 +58978,10 @@
         <v>0</v>
       </c>
       <c r="E280">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F280">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.4">
@@ -58846,10 +58998,10 @@
         <v>0</v>
       </c>
       <c r="E281">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F281">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.4">
@@ -58866,10 +59018,10 @@
         <v>0</v>
       </c>
       <c r="E282">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F282">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.4">
@@ -58886,10 +59038,10 @@
         <v>0</v>
       </c>
       <c r="E283">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F283">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.4">
@@ -58906,10 +59058,10 @@
         <v>0</v>
       </c>
       <c r="E284">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F284">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.4">
@@ -58926,10 +59078,10 @@
         <v>0</v>
       </c>
       <c r="E285">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F285">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.4">
@@ -58946,10 +59098,10 @@
         <v>0</v>
       </c>
       <c r="E286">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F286">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.4">
@@ -58966,10 +59118,10 @@
         <v>0</v>
       </c>
       <c r="E287">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F287">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.4">
@@ -58986,10 +59138,10 @@
         <v>0</v>
       </c>
       <c r="E288">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F288">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.4">
@@ -59006,10 +59158,10 @@
         <v>0</v>
       </c>
       <c r="E289">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F289">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.4">
@@ -59026,10 +59178,10 @@
         <v>0</v>
       </c>
       <c r="E290">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F290">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.4">
@@ -59046,10 +59198,10 @@
         <v>0</v>
       </c>
       <c r="E291">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F291">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.4">
@@ -59066,10 +59218,10 @@
         <v>0</v>
       </c>
       <c r="E292">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F292">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.4">
@@ -59086,10 +59238,10 @@
         <v>0</v>
       </c>
       <c r="E293">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F293">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.4">
@@ -59106,10 +59258,10 @@
         <v>0</v>
       </c>
       <c r="E294">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F294">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.4">
@@ -59126,10 +59278,10 @@
         <v>0</v>
       </c>
       <c r="E295">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F295">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.4">
@@ -59146,10 +59298,10 @@
         <v>0</v>
       </c>
       <c r="E296">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F296">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.4">
@@ -59166,10 +59318,10 @@
         <v>0</v>
       </c>
       <c r="E297">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F297">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.4">
@@ -59186,10 +59338,10 @@
         <v>0</v>
       </c>
       <c r="E298">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F298">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.4">
@@ -59206,10 +59358,10 @@
         <v>0</v>
       </c>
       <c r="E299">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F299">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.4">
@@ -59226,10 +59378,10 @@
         <v>0</v>
       </c>
       <c r="E300">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F300">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.4">
@@ -59246,10 +59398,10 @@
         <v>0</v>
       </c>
       <c r="E301">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F301">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.4">
@@ -59266,10 +59418,10 @@
         <v>0</v>
       </c>
       <c r="E302">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F302">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.4">
@@ -59286,10 +59438,10 @@
         <v>0</v>
       </c>
       <c r="E303">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F303">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.4">
@@ -59306,10 +59458,10 @@
         <v>0</v>
       </c>
       <c r="E304">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F304">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.4">
@@ -59326,10 +59478,10 @@
         <v>0</v>
       </c>
       <c r="E305">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F305">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.4">
@@ -59346,10 +59498,10 @@
         <v>0</v>
       </c>
       <c r="E306">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F306">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.4">
@@ -59366,10 +59518,10 @@
         <v>0</v>
       </c>
       <c r="E307">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F307">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.4">
@@ -59386,10 +59538,10 @@
         <v>0</v>
       </c>
       <c r="E308">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F308">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.4">
@@ -59406,10 +59558,10 @@
         <v>0</v>
       </c>
       <c r="E309">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F309">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.4">
@@ -59426,10 +59578,10 @@
         <v>0</v>
       </c>
       <c r="E310">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F310">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.4">
@@ -59446,10 +59598,10 @@
         <v>0</v>
       </c>
       <c r="E311">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F311">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.4">
@@ -59466,10 +59618,10 @@
         <v>0</v>
       </c>
       <c r="E312">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F312">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.4">
@@ -59486,10 +59638,10 @@
         <v>0</v>
       </c>
       <c r="E313">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F313">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.4">
@@ -59506,10 +59658,10 @@
         <v>0</v>
       </c>
       <c r="E314">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F314">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.4">
@@ -59526,10 +59678,10 @@
         <v>0</v>
       </c>
       <c r="E315">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F315">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.4">
@@ -59546,10 +59698,10 @@
         <v>0</v>
       </c>
       <c r="E316">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F316">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.4">
@@ -59566,10 +59718,10 @@
         <v>0</v>
       </c>
       <c r="E317">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F317">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.4">
@@ -59586,10 +59738,10 @@
         <v>0</v>
       </c>
       <c r="E318">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F318">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.4">
@@ -59606,10 +59758,10 @@
         <v>0</v>
       </c>
       <c r="E319">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F319">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.4">
@@ -59626,10 +59778,10 @@
         <v>0</v>
       </c>
       <c r="E320">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F320">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.4">
@@ -59646,10 +59798,10 @@
         <v>0</v>
       </c>
       <c r="E321">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F321">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.4">
@@ -59666,10 +59818,10 @@
         <v>0</v>
       </c>
       <c r="E322">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F322">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.4">
@@ -59686,10 +59838,10 @@
         <v>0</v>
       </c>
       <c r="E323">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F323">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.4">
@@ -59706,10 +59858,10 @@
         <v>0</v>
       </c>
       <c r="E324">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F324">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.4">
@@ -59726,10 +59878,10 @@
         <v>0</v>
       </c>
       <c r="E325">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F325">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.4">
@@ -59746,10 +59898,10 @@
         <v>0</v>
       </c>
       <c r="E326">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F326">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.4">
@@ -59766,10 +59918,10 @@
         <v>0</v>
       </c>
       <c r="E327">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F327">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.4">
@@ -59786,10 +59938,10 @@
         <v>0</v>
       </c>
       <c r="E328">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F328">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.4">
@@ -59806,10 +59958,10 @@
         <v>0</v>
       </c>
       <c r="E329">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F329">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.4">
@@ -59826,10 +59978,10 @@
         <v>0</v>
       </c>
       <c r="E330">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F330">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.4">
@@ -59846,10 +59998,10 @@
         <v>0</v>
       </c>
       <c r="E331">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F331">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.4">
@@ -59866,10 +60018,10 @@
         <v>0</v>
       </c>
       <c r="E332">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F332">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.4">
@@ -59886,10 +60038,10 @@
         <v>0</v>
       </c>
       <c r="E333">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F333">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.4">
@@ -59906,10 +60058,10 @@
         <v>0</v>
       </c>
       <c r="E334">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F334">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.4">
@@ -59926,10 +60078,10 @@
         <v>0</v>
       </c>
       <c r="E335">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F335">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.4">
@@ -59946,10 +60098,10 @@
         <v>0</v>
       </c>
       <c r="E336">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F336">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.4">
@@ -59966,10 +60118,10 @@
         <v>0</v>
       </c>
       <c r="E337">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F337">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.4">
@@ -59986,10 +60138,10 @@
         <v>0</v>
       </c>
       <c r="E338">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F338">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.4">
@@ -60006,10 +60158,10 @@
         <v>0</v>
       </c>
       <c r="E339">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F339">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.4">
@@ -60026,10 +60178,10 @@
         <v>0</v>
       </c>
       <c r="E340">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F340">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.4">
@@ -60046,10 +60198,10 @@
         <v>0</v>
       </c>
       <c r="E341">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F341">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.4">
@@ -60066,10 +60218,10 @@
         <v>0</v>
       </c>
       <c r="E342">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F342">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.4">
@@ -60086,10 +60238,10 @@
         <v>0</v>
       </c>
       <c r="E343">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F343">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.4">
@@ -60106,10 +60258,10 @@
         <v>0</v>
       </c>
       <c r="E344">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F344">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.4">
@@ -60126,10 +60278,10 @@
         <v>0</v>
       </c>
       <c r="E345">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F345">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.4">
@@ -60146,10 +60298,10 @@
         <v>0</v>
       </c>
       <c r="E346">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F346">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.4">
@@ -60166,10 +60318,10 @@
         <v>0</v>
       </c>
       <c r="E347">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F347">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.4">
@@ -60186,10 +60338,10 @@
         <v>0</v>
       </c>
       <c r="E348">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F348">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.4">
@@ -60206,10 +60358,10 @@
         <v>0</v>
       </c>
       <c r="E349">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F349">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.4">
@@ -60226,10 +60378,10 @@
         <v>0</v>
       </c>
       <c r="E350">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F350">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.4">
@@ -60246,10 +60398,10 @@
         <v>0</v>
       </c>
       <c r="E351">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F351">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.4">
@@ -60266,10 +60418,10 @@
         <v>0</v>
       </c>
       <c r="E352">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F352">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.4">
@@ -60286,10 +60438,10 @@
         <v>0</v>
       </c>
       <c r="E353">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F353">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.4">
@@ -60306,10 +60458,10 @@
         <v>0</v>
       </c>
       <c r="E354">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F354">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.4">
@@ -60326,10 +60478,10 @@
         <v>0</v>
       </c>
       <c r="E355">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F355">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.4">
@@ -60346,10 +60498,10 @@
         <v>0</v>
       </c>
       <c r="E356">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F356">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.4">
@@ -60366,10 +60518,10 @@
         <v>0</v>
       </c>
       <c r="E357">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F357">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.4">
@@ -60386,10 +60538,10 @@
         <v>0</v>
       </c>
       <c r="E358">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F358">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.4">
@@ -60406,10 +60558,10 @@
         <v>0</v>
       </c>
       <c r="E359">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F359">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.4">
@@ -60426,10 +60578,10 @@
         <v>0</v>
       </c>
       <c r="E360">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F360">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.4">
@@ -60446,10 +60598,10 @@
         <v>0</v>
       </c>
       <c r="E361">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F361">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.4">
@@ -60466,10 +60618,10 @@
         <v>0</v>
       </c>
       <c r="E362">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F362">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.4">
@@ -60486,10 +60638,10 @@
         <v>0</v>
       </c>
       <c r="E363">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F363">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.4">
@@ -60506,10 +60658,10 @@
         <v>0</v>
       </c>
       <c r="E364">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F364">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.4">
@@ -60526,10 +60678,10 @@
         <v>0</v>
       </c>
       <c r="E365">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F365">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.4">
@@ -60546,10 +60698,10 @@
         <v>0</v>
       </c>
       <c r="E366">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F366">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.4">
@@ -60566,10 +60718,10 @@
         <v>0</v>
       </c>
       <c r="E367">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F367">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.4">
@@ -60586,10 +60738,10 @@
         <v>0</v>
       </c>
       <c r="E368">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F368">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.4">
@@ -60606,10 +60758,10 @@
         <v>0</v>
       </c>
       <c r="E369">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F369">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.4">
@@ -60626,10 +60778,10 @@
         <v>0</v>
       </c>
       <c r="E370">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F370">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.4">
@@ -60646,10 +60798,10 @@
         <v>0</v>
       </c>
       <c r="E371">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F371">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.4">
@@ -60666,10 +60818,10 @@
         <v>0</v>
       </c>
       <c r="E372">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F372">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.4">
@@ -60686,10 +60838,10 @@
         <v>0</v>
       </c>
       <c r="E373">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F373">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.4">
@@ -60706,10 +60858,10 @@
         <v>0</v>
       </c>
       <c r="E374">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F374">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.4">
@@ -60726,10 +60878,10 @@
         <v>0</v>
       </c>
       <c r="E375">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F375">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.4">
@@ -60746,10 +60898,10 @@
         <v>0</v>
       </c>
       <c r="E376">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F376">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.4">
@@ -60766,10 +60918,10 @@
         <v>0</v>
       </c>
       <c r="E377">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F377">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.4">
@@ -60786,10 +60938,10 @@
         <v>0</v>
       </c>
       <c r="E378">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F378">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.4">
@@ -60806,10 +60958,10 @@
         <v>0</v>
       </c>
       <c r="E379">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F379">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.4">
@@ -60826,10 +60978,10 @@
         <v>0</v>
       </c>
       <c r="E380">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F380">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.4">
@@ -60846,10 +60998,10 @@
         <v>0</v>
       </c>
       <c r="E381">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F381">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.4">
@@ -60866,10 +61018,10 @@
         <v>0</v>
       </c>
       <c r="E382">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F382">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.4">
@@ -60886,10 +61038,10 @@
         <v>0</v>
       </c>
       <c r="E383">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F383">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.4">
@@ -60906,10 +61058,10 @@
         <v>0</v>
       </c>
       <c r="E384">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F384">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.4">
@@ -60926,10 +61078,10 @@
         <v>0</v>
       </c>
       <c r="E385">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F385">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.4">
@@ -60946,10 +61098,10 @@
         <v>0</v>
       </c>
       <c r="E386">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F386">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.4">
@@ -60966,10 +61118,10 @@
         <v>0</v>
       </c>
       <c r="E387">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F387">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.4">
@@ -60986,10 +61138,10 @@
         <v>0</v>
       </c>
       <c r="E388">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F388">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.4">
@@ -61006,10 +61158,10 @@
         <v>0</v>
       </c>
       <c r="E389">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F389">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.4">
@@ -61026,10 +61178,10 @@
         <v>0</v>
       </c>
       <c r="E390">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F390">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.4">
@@ -61046,10 +61198,10 @@
         <v>0</v>
       </c>
       <c r="E391">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F391">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.4">
@@ -61066,10 +61218,10 @@
         <v>0</v>
       </c>
       <c r="E392">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F392">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.4">
@@ -61086,10 +61238,10 @@
         <v>0</v>
       </c>
       <c r="E393">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F393">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.4">
@@ -61106,10 +61258,10 @@
         <v>0</v>
       </c>
       <c r="E394">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F394">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.4">
@@ -61126,10 +61278,10 @@
         <v>0</v>
       </c>
       <c r="E395">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F395">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.4">
@@ -61146,10 +61298,10 @@
         <v>0</v>
       </c>
       <c r="E396">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F396">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.4">
@@ -61166,10 +61318,10 @@
         <v>0</v>
       </c>
       <c r="E397">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F397">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.4">
@@ -61186,10 +61338,10 @@
         <v>0</v>
       </c>
       <c r="E398">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F398">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.4">
@@ -61206,10 +61358,10 @@
         <v>0</v>
       </c>
       <c r="E399">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F399">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.4">
@@ -61226,10 +61378,10 @@
         <v>0</v>
       </c>
       <c r="E400">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F400">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.4">
@@ -61246,10 +61398,10 @@
         <v>0</v>
       </c>
       <c r="E401">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F401">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.4">
@@ -61266,10 +61418,10 @@
         <v>0</v>
       </c>
       <c r="E402">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F402">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.4">
@@ -61286,10 +61438,10 @@
         <v>0</v>
       </c>
       <c r="E403">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F403">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.4">
@@ -61306,10 +61458,10 @@
         <v>0</v>
       </c>
       <c r="E404">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F404">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.4">
@@ -61326,10 +61478,10 @@
         <v>0</v>
       </c>
       <c r="E405">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F405">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.4">
@@ -61346,10 +61498,10 @@
         <v>0</v>
       </c>
       <c r="E406">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F406">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.4">
@@ -61366,10 +61518,10 @@
         <v>0</v>
       </c>
       <c r="E407">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F407">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.4">
@@ -61386,10 +61538,10 @@
         <v>0</v>
       </c>
       <c r="E408">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F408">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.4">
@@ -61406,10 +61558,10 @@
         <v>0</v>
       </c>
       <c r="E409">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F409">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.4">
@@ -61426,10 +61578,10 @@
         <v>0</v>
       </c>
       <c r="E410">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F410">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.4">
@@ -61446,10 +61598,10 @@
         <v>0</v>
       </c>
       <c r="E411">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F411">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.4">
@@ -61466,10 +61618,10 @@
         <v>0</v>
       </c>
       <c r="E412">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F412">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.4">
@@ -61486,10 +61638,10 @@
         <v>0</v>
       </c>
       <c r="E413">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F413">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.4">
@@ -61506,10 +61658,10 @@
         <v>0</v>
       </c>
       <c r="E414">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F414">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.4">
@@ -61526,10 +61678,10 @@
         <v>0</v>
       </c>
       <c r="E415">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F415">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.4">
@@ -61546,10 +61698,10 @@
         <v>0</v>
       </c>
       <c r="E416">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F416">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.4">
@@ -61566,10 +61718,10 @@
         <v>0</v>
       </c>
       <c r="E417">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F417">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.4">
@@ -61586,10 +61738,10 @@
         <v>0</v>
       </c>
       <c r="E418">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F418">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.4">
@@ -61606,10 +61758,10 @@
         <v>0</v>
       </c>
       <c r="E419">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F419">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.4">
@@ -61626,10 +61778,10 @@
         <v>0</v>
       </c>
       <c r="E420">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F420">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.4">
@@ -61646,10 +61798,10 @@
         <v>0</v>
       </c>
       <c r="E421">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F421">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.4">
@@ -61666,10 +61818,10 @@
         <v>0</v>
       </c>
       <c r="E422">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F422">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.4">
@@ -61686,10 +61838,10 @@
         <v>0</v>
       </c>
       <c r="E423">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F423">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.4">
@@ -61706,10 +61858,10 @@
         <v>0</v>
       </c>
       <c r="E424">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F424">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.4">
@@ -61726,10 +61878,10 @@
         <v>0</v>
       </c>
       <c r="E425">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F425">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.4">
@@ -61746,10 +61898,10 @@
         <v>0</v>
       </c>
       <c r="E426">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F426">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.4">
@@ -61766,10 +61918,10 @@
         <v>0</v>
       </c>
       <c r="E427">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F427">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.4">
@@ -61786,10 +61938,10 @@
         <v>0</v>
       </c>
       <c r="E428">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F428">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.4">
@@ -61806,10 +61958,10 @@
         <v>0</v>
       </c>
       <c r="E429">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F429">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.4">
@@ -61826,10 +61978,10 @@
         <v>0</v>
       </c>
       <c r="E430">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F430">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.4">
@@ -61846,10 +61998,10 @@
         <v>0</v>
       </c>
       <c r="E431">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F431">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.4">
@@ -61866,10 +62018,10 @@
         <v>0</v>
       </c>
       <c r="E432">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F432">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.4">
@@ -61886,10 +62038,10 @@
         <v>0</v>
       </c>
       <c r="E433">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F433">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.4">
@@ -61906,10 +62058,10 @@
         <v>0</v>
       </c>
       <c r="E434">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F434">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.4">
@@ -61926,10 +62078,10 @@
         <v>0</v>
       </c>
       <c r="E435">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F435">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.4">
@@ -61946,10 +62098,10 @@
         <v>0</v>
       </c>
       <c r="E436">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F436">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.4">
@@ -61966,10 +62118,10 @@
         <v>0</v>
       </c>
       <c r="E437">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F437">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.4">
@@ -61986,10 +62138,10 @@
         <v>0</v>
       </c>
       <c r="E438">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F438">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.4">
@@ -62006,10 +62158,10 @@
         <v>0</v>
       </c>
       <c r="E439">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F439">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.4">
@@ -62026,10 +62178,10 @@
         <v>0</v>
       </c>
       <c r="E440">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F440">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -62056,8 +62208,8 @@
   </sheetPr>
   <dimension ref="A1:HE30"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -62092,7 +62244,7 @@
     </row>
     <row r="2" spans="1:213" x14ac:dyDescent="0.4">
       <c r="I2" s="60">
-        <v>44116</v>
+        <v>44117</v>
       </c>
       <c r="J2" s="60"/>
       <c r="K2" s="60"/>
@@ -62132,7 +62284,7 @@
       </c>
       <c r="C6" s="61"/>
       <c r="D6" s="35">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="E6" s="35">
         <v>8</v>
@@ -62141,14 +62293,14 @@
         <v>2</v>
       </c>
       <c r="G6" s="35">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="Q6" s="61" t="s">
         <v>46</v>
       </c>
       <c r="R6" s="61"/>
       <c r="S6" s="36">
-        <v>496</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:213" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -62159,7 +62311,7 @@
         <v>48</v>
       </c>
       <c r="D7" s="35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="35">
         <v>0</v>
@@ -62168,7 +62320,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="58" t="s">
         <v>47</v>
@@ -62177,7 +62329,7 @@
         <v>48</v>
       </c>
       <c r="S7" s="36">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:213" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -62186,7 +62338,7 @@
         <v>49</v>
       </c>
       <c r="D8" s="35">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8" s="35">
         <v>0</v>
@@ -62195,14 +62347,14 @@
         <v>0</v>
       </c>
       <c r="G8" s="35">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="58"/>
       <c r="R8" s="37" t="s">
         <v>49</v>
       </c>
       <c r="S8" s="36">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="HD8">
         <v>19</v>
@@ -62217,23 +62369,23 @@
         <v>50</v>
       </c>
       <c r="D9" s="35">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E9" s="35">
         <v>0</v>
       </c>
       <c r="F9" s="35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="35">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="58"/>
       <c r="R9" s="38" t="s">
         <v>50</v>
       </c>
       <c r="S9" s="36">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:213" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -62242,7 +62394,7 @@
         <v>51</v>
       </c>
       <c r="D10" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="35">
         <v>0</v>
@@ -62251,14 +62403,14 @@
         <v>0</v>
       </c>
       <c r="G10" s="35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="58"/>
       <c r="R10" s="37" t="s">
         <v>51</v>
       </c>
       <c r="S10" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:213" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -62267,23 +62419,23 @@
         <v>52</v>
       </c>
       <c r="D11" s="35">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="E11" s="35">
         <v>8</v>
       </c>
       <c r="F11" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="35">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="Q11" s="58"/>
       <c r="R11" s="38" t="s">
         <v>52</v>
       </c>
       <c r="S11" s="36">
-        <v>435</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:213" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -62380,7 +62532,7 @@
         <v>69</v>
       </c>
       <c r="D22" s="35">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O22" s="38" t="s">
         <v>59</v>
@@ -62416,7 +62568,7 @@
         <v>72</v>
       </c>
       <c r="D25" s="35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O25" s="38" t="s">
         <v>62</v>
@@ -62440,10 +62592,10 @@
         <v>64</v>
       </c>
       <c r="D27" s="35">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="O27" s="47">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -62464,7 +62616,7 @@
         <v>66</v>
       </c>
       <c r="D29" s="35">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="O29" t="s">
         <v>75</v>
@@ -62490,7 +62642,7 @@
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="1.3385826771653544" header="0.31496062992125984" footer="0.59055118110236227"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;L&amp;"ＭＳ Ｐゴシック,標準"&amp;10
 </oddFooter>

--- a/work/04_miyagi.xlsx
+++ b/work/04_miyagi.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\00_班共有\フォルダ（整理中）\008_感染症対策関係\000_感染症発生時の随時対応（全数，集団）\☆疾病別フォルダ\■武漢肺炎（新型コロナ）\70_医療体制整備\格納（古いデータ）\04 公表用グラフ等\1017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2014833ic\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="患者状況一覧（HP掲載）" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$A$3:$F$445</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'その他集計（HP掲載）'!$A$1:$M$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'患者状況一覧（HP掲載）'!$A$1:$F$525</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'患者状況一覧（HP掲載）'!$A$1:$F$527</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'日別集計（HP掲載）'!$G$1:$V$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'累計グラフ（HP掲載）'!$D$1:$IB$76</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'累計グラフ（HP掲載）'!$A$1:$IC$114</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'患者状況一覧（HP掲載）'!$2:$3</definedName>
     <definedName name="Z_52D76B34_E0A5_4D8A_BB93_26BF349B7B6B_.wvu.FilterData" localSheetId="0" hidden="1">'患者状況一覧（HP掲載）'!$A$3:$F$343</definedName>
     <definedName name="Z_52D76B34_E0A5_4D8A_BB93_26BF349B7B6B_.wvu.PrintArea" localSheetId="3" hidden="1">'その他集計（HP掲載）'!$A$1:$M$30</definedName>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2714" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2724" uniqueCount="97">
   <si>
     <t>＜患者発生状況一覧＞</t>
     <rPh sb="1" eb="3">
@@ -761,10 +761,10 @@
     <t>気仙沼保健所管内</t>
   </si>
   <si>
-    <t>うち塩釜：135人</t>
+    <t>うち塩釜：136人</t>
   </si>
   <si>
-    <t>うち仙台市：341人</t>
+    <t>うち仙台市：342人</t>
   </si>
   <si>
     <t>県外：4人</t>
@@ -1072,7 +1072,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1193,6 +1193,12 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1206,6 +1212,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1213,6 +1222,9 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1246,27 +1258,6 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2898,12 +2889,15 @@
                 <c:pt idx="230">
                   <c:v>12</c:v>
                 </c:pt>
+                <c:pt idx="231">
+                  <c:v>12</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4CDE-44BF-8776-5AFEB697371E}"/>
+              <c16:uniqueId val="{00000000-9C14-45EE-899B-25A207C6C4C2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4436,12 +4430,15 @@
                 <c:pt idx="230">
                   <c:v>11</c:v>
                 </c:pt>
+                <c:pt idx="231">
+                  <c:v>11</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4CDE-44BF-8776-5AFEB697371E}"/>
+              <c16:uniqueId val="{00000001-9C14-45EE-899B-25A207C6C4C2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5977,12 +5974,15 @@
                 <c:pt idx="230">
                   <c:v>12</c:v>
                 </c:pt>
+                <c:pt idx="231">
+                  <c:v>10</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4CDE-44BF-8776-5AFEB697371E}"/>
+              <c16:uniqueId val="{00000002-9C14-45EE-899B-25A207C6C4C2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7515,12 +7515,15 @@
                 <c:pt idx="230">
                   <c:v>15</c:v>
                 </c:pt>
+                <c:pt idx="231">
+                  <c:v>10</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4CDE-44BF-8776-5AFEB697371E}"/>
+              <c16:uniqueId val="{00000003-9C14-45EE-899B-25A207C6C4C2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9103,7 +9106,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4CDE-44BF-8776-5AFEB697371E}"/>
+              <c16:uniqueId val="{00000004-9C14-45EE-899B-25A207C6C4C2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9804,86 +9807,86 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-4CDE-44BF-8776-5AFEB697371E}"/>
+              <c16:uniqueId val="{00000005-9C14-45EE-899B-25A207C6C4C2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10671,364 +10674,364 @@
                   <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>88</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>88</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>88</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>88</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>88</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>88</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>88</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>88</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>88</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>88</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>88</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>88</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>88</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>88</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>89</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>89</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>89</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>89</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>90</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>90</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>91</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>91</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>92</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>92</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>94</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>94</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>94</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>95</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>95</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>97</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>98</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>98</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>98</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>98</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>99</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>100</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>100</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>105</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>106</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>108</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>110</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>112</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>126</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>129</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>132</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>132</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>136</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>136</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>138</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>140</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>140</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>142</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>142</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>147</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>149</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>153</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>158</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>160</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>165</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>168</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>174</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>176</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>177</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>181</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>181</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>182</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>182</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>182</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>183</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>184</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>184</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>184</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>184</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>184</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>185</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>186</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>187</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>189</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>191</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>191</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>192</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>192</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>192</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>193</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>194</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>200</c:v>
+                  <c:v>201</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>203</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>204</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>208</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>211</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>215</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>227</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>231</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>239</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>242</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>251</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>258</c:v>
+                  <c:v>259</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>268</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>276</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>292</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>304</c:v>
+                  <c:v>305</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>310</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>313</c:v>
+                  <c:v>314</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>332</c:v>
+                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>338</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>347</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>351</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>366</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>367</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>369</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>372</c:v>
+                  <c:v>373</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>376</c:v>
+                  <c:v>377</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>383</c:v>
+                  <c:v>384</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>386</c:v>
+                  <c:v>387</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>389</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>393</c:v>
+                  <c:v>394</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>398</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>402</c:v>
+                  <c:v>403</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>407</c:v>
+                  <c:v>408</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>413</c:v>
+                  <c:v>414</c:v>
                 </c:pt>
                 <c:pt idx="216">
                   <c:v>418</c:v>
@@ -11046,79 +11049,79 @@
                   <c:v>443</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>455</c:v>
+                  <c:v>454</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>461</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>474</c:v>
+                  <c:v>473</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>484</c:v>
+                  <c:v>483</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>486</c:v>
+                  <c:v>485</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>494</c:v>
+                  <c:v>493</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>499</c:v>
+                  <c:v>498</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>504</c:v>
+                  <c:v>503</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>509</c:v>
+                  <c:v>508</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>522</c:v>
+                  <c:v>521</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>522</c:v>
+                  <c:v>523</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>522</c:v>
+                  <c:v>523</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>522</c:v>
+                  <c:v>523</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>522</c:v>
+                  <c:v>523</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>522</c:v>
+                  <c:v>523</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>522</c:v>
+                  <c:v>523</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>522</c:v>
+                  <c:v>523</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>522</c:v>
+                  <c:v>523</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>522</c:v>
+                  <c:v>523</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>522</c:v>
+                  <c:v>523</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>522</c:v>
+                  <c:v>523</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>522</c:v>
+                  <c:v>523</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>522</c:v>
+                  <c:v>523</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>522</c:v>
+                  <c:v>523</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>522</c:v>
+                  <c:v>523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11126,7 +11129,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-4CDE-44BF-8776-5AFEB697371E}"/>
+              <c16:uniqueId val="{00000006-9C14-45EE-899B-25A207C6C4C2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11147,7 +11150,7 @@
         <c:axId val="487015024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44120"/>
+          <c:max val="44121"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -13681,7 +13684,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="274">
                   <c:v>0</c:v>
@@ -14183,7 +14186,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A69E-4773-B4DA-81BD75B25A79}"/>
+              <c16:uniqueId val="{00000000-22A3-4F7E-BF85-4059F748BD60}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16176,7 +16179,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A69E-4773-B4DA-81BD75B25A79}"/>
+              <c16:uniqueId val="{00000001-22A3-4F7E-BF85-4059F748BD60}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17537,7 +17540,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A69E-4773-B4DA-81BD75B25A79}"/>
+              <c16:uniqueId val="{00000002-22A3-4F7E-BF85-4059F748BD60}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17558,7 +17561,7 @@
         <c:axId val="588931344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44120"/>
+          <c:max val="44121"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -17813,7 +17816,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-CEC2-4988-A064-86750E68E21D}"/>
+                <c16:uniqueId val="{00000001-EED0-4405-91D1-4BD4161E4A7C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17859,7 +17862,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-CEC2-4988-A064-86750E68E21D}"/>
+                <c16:uniqueId val="{00000003-EED0-4405-91D1-4BD4161E4A7C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17905,7 +17908,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-CEC2-4988-A064-86750E68E21D}"/>
+                <c16:uniqueId val="{00000005-EED0-4405-91D1-4BD4161E4A7C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17951,7 +17954,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-CEC2-4988-A064-86750E68E21D}"/>
+                <c16:uniqueId val="{00000007-EED0-4405-91D1-4BD4161E4A7C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -17997,7 +18000,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-CEC2-4988-A064-86750E68E21D}"/>
+                <c16:uniqueId val="{00000009-EED0-4405-91D1-4BD4161E4A7C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18043,7 +18046,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-CEC2-4988-A064-86750E68E21D}"/>
+                <c16:uniqueId val="{0000000B-EED0-4405-91D1-4BD4161E4A7C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -18070,7 +18073,7 @@
                   <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-CEC2-4988-A064-86750E68E21D}"/>
+                  <c16:uniqueId val="{00000001-EED0-4405-91D1-4BD4161E4A7C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -18101,7 +18104,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-CEC2-4988-A064-86750E68E21D}"/>
+                  <c16:uniqueId val="{00000003-EED0-4405-91D1-4BD4161E4A7C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -18161,7 +18164,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-CEC2-4988-A064-86750E68E21D}"/>
+                  <c16:uniqueId val="{00000005-EED0-4405-91D1-4BD4161E4A7C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -18192,7 +18195,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-CEC2-4988-A064-86750E68E21D}"/>
+                  <c16:uniqueId val="{00000007-EED0-4405-91D1-4BD4161E4A7C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -18223,7 +18226,7 @@
                   </c15:layout>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-CEC2-4988-A064-86750E68E21D}"/>
+                  <c16:uniqueId val="{00000009-EED0-4405-91D1-4BD4161E4A7C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -18249,7 +18252,7 @@
                   <c15:layout/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-CEC2-4988-A064-86750E68E21D}"/>
+                  <c16:uniqueId val="{0000000B-EED0-4405-91D1-4BD4161E4A7C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -18345,16 +18348,16 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>480</c:v>
+                  <c:v>489</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
@@ -18364,7 +18367,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-CEC2-4988-A064-86750E68E21D}"/>
+              <c16:uniqueId val="{0000000C-EED0-4405-91D1-4BD4161E4A7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -20110,8 +20113,8 @@
       <xdr:rowOff>201705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>235</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
+      <xdr:col>236</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
       <xdr:row>75</xdr:row>
       <xdr:rowOff>5845</xdr:rowOff>
     </xdr:to>
@@ -20432,7 +20435,7 @@
               <a:ea typeface="游ゴシック"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>476人</a:t>
+            <a:t>478人</a:t>
           </a:fld>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
@@ -20492,7 +20495,7 @@
               <a:ea typeface="游ゴシック"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>うち塩釜：135人</a:t>
+            <a:t>うち塩釜：136人</a:t>
           </a:fld>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
@@ -20552,7 +20555,7 @@
               <a:ea typeface="游ゴシック"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>うち仙台市：341人</a:t>
+            <a:t>うち仙台市：342人</a:t>
           </a:fld>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
@@ -22463,6 +22466,9 @@
           <cell r="IB5">
             <v>12</v>
           </cell>
+          <cell r="IC5">
+            <v>12</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="E6" t="str">
@@ -23161,6 +23167,9 @@
           <cell r="IB6">
             <v>11</v>
           </cell>
+          <cell r="IC6">
+            <v>11</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="E7" t="str">
@@ -23859,6 +23868,9 @@
           <cell r="IB7">
             <v>12</v>
           </cell>
+          <cell r="IC7">
+            <v>10</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="E8" t="str">
@@ -24556,6 +24568,9 @@
           </cell>
           <cell r="IB8">
             <v>15</v>
+          </cell>
+          <cell r="IC8">
+            <v>10</v>
           </cell>
         </row>
         <row r="9">
@@ -24852,364 +24867,364 @@
             <v>88</v>
           </cell>
           <cell r="CX9">
-            <v>88</v>
+            <v>89</v>
           </cell>
           <cell r="CY9">
-            <v>88</v>
+            <v>89</v>
           </cell>
           <cell r="CZ9">
-            <v>88</v>
+            <v>89</v>
           </cell>
           <cell r="DA9">
-            <v>88</v>
+            <v>89</v>
           </cell>
           <cell r="DB9">
-            <v>88</v>
+            <v>89</v>
           </cell>
           <cell r="DC9">
-            <v>88</v>
+            <v>89</v>
           </cell>
           <cell r="DD9">
-            <v>88</v>
+            <v>89</v>
           </cell>
           <cell r="DE9">
-            <v>88</v>
+            <v>89</v>
           </cell>
           <cell r="DF9">
-            <v>88</v>
+            <v>89</v>
           </cell>
           <cell r="DG9">
-            <v>88</v>
+            <v>89</v>
           </cell>
           <cell r="DH9">
-            <v>88</v>
+            <v>89</v>
           </cell>
           <cell r="DI9">
-            <v>88</v>
+            <v>89</v>
           </cell>
           <cell r="DJ9">
-            <v>88</v>
+            <v>89</v>
           </cell>
           <cell r="DK9">
-            <v>88</v>
+            <v>89</v>
           </cell>
           <cell r="DL9">
-            <v>89</v>
+            <v>90</v>
           </cell>
           <cell r="DM9">
-            <v>89</v>
+            <v>90</v>
           </cell>
           <cell r="DN9">
-            <v>89</v>
+            <v>90</v>
           </cell>
           <cell r="DO9">
-            <v>89</v>
+            <v>90</v>
           </cell>
           <cell r="DP9">
-            <v>90</v>
+            <v>91</v>
           </cell>
           <cell r="DQ9">
-            <v>90</v>
+            <v>91</v>
           </cell>
           <cell r="DR9">
-            <v>91</v>
+            <v>92</v>
           </cell>
           <cell r="DS9">
-            <v>91</v>
+            <v>92</v>
           </cell>
           <cell r="DT9">
-            <v>92</v>
+            <v>93</v>
           </cell>
           <cell r="DU9">
-            <v>92</v>
+            <v>93</v>
           </cell>
           <cell r="DV9">
-            <v>94</v>
+            <v>95</v>
           </cell>
           <cell r="DW9">
-            <v>94</v>
+            <v>95</v>
           </cell>
           <cell r="DX9">
-            <v>94</v>
+            <v>95</v>
           </cell>
           <cell r="DY9">
-            <v>95</v>
+            <v>96</v>
           </cell>
           <cell r="DZ9">
-            <v>95</v>
+            <v>96</v>
           </cell>
           <cell r="EA9">
-            <v>97</v>
+            <v>98</v>
           </cell>
           <cell r="EB9">
-            <v>98</v>
+            <v>99</v>
           </cell>
           <cell r="EC9">
-            <v>98</v>
+            <v>99</v>
           </cell>
           <cell r="ED9">
-            <v>98</v>
+            <v>99</v>
           </cell>
           <cell r="EE9">
-            <v>98</v>
+            <v>99</v>
           </cell>
           <cell r="EF9">
-            <v>99</v>
+            <v>100</v>
           </cell>
           <cell r="EG9">
-            <v>100</v>
+            <v>101</v>
           </cell>
           <cell r="EH9">
-            <v>100</v>
+            <v>101</v>
           </cell>
           <cell r="EI9">
-            <v>105</v>
+            <v>106</v>
           </cell>
           <cell r="EJ9">
-            <v>106</v>
+            <v>107</v>
           </cell>
           <cell r="EK9">
-            <v>108</v>
+            <v>109</v>
           </cell>
           <cell r="EL9">
-            <v>110</v>
+            <v>111</v>
           </cell>
           <cell r="EM9">
-            <v>112</v>
+            <v>113</v>
           </cell>
           <cell r="EN9">
-            <v>126</v>
+            <v>127</v>
           </cell>
           <cell r="EO9">
-            <v>129</v>
+            <v>130</v>
           </cell>
           <cell r="EP9">
-            <v>132</v>
+            <v>133</v>
           </cell>
           <cell r="EQ9">
-            <v>132</v>
+            <v>133</v>
           </cell>
           <cell r="ER9">
-            <v>136</v>
+            <v>137</v>
           </cell>
           <cell r="ES9">
-            <v>136</v>
+            <v>137</v>
           </cell>
           <cell r="ET9">
-            <v>138</v>
+            <v>139</v>
           </cell>
           <cell r="EU9">
-            <v>140</v>
+            <v>141</v>
           </cell>
           <cell r="EV9">
-            <v>140</v>
+            <v>141</v>
           </cell>
           <cell r="EW9">
-            <v>142</v>
+            <v>143</v>
           </cell>
           <cell r="EX9">
-            <v>142</v>
+            <v>143</v>
           </cell>
           <cell r="EY9">
-            <v>147</v>
+            <v>148</v>
           </cell>
           <cell r="EZ9">
-            <v>149</v>
+            <v>150</v>
           </cell>
           <cell r="FA9">
-            <v>153</v>
+            <v>154</v>
           </cell>
           <cell r="FB9">
-            <v>158</v>
+            <v>159</v>
           </cell>
           <cell r="FC9">
-            <v>160</v>
+            <v>161</v>
           </cell>
           <cell r="FD9">
-            <v>165</v>
+            <v>166</v>
           </cell>
           <cell r="FE9">
-            <v>168</v>
+            <v>169</v>
           </cell>
           <cell r="FF9">
-            <v>174</v>
+            <v>175</v>
           </cell>
           <cell r="FG9">
-            <v>176</v>
+            <v>177</v>
           </cell>
           <cell r="FH9">
-            <v>177</v>
+            <v>178</v>
           </cell>
           <cell r="FI9">
-            <v>181</v>
+            <v>182</v>
           </cell>
           <cell r="FJ9">
-            <v>181</v>
+            <v>182</v>
           </cell>
           <cell r="FK9">
-            <v>182</v>
+            <v>183</v>
           </cell>
           <cell r="FL9">
-            <v>182</v>
+            <v>183</v>
           </cell>
           <cell r="FM9">
-            <v>182</v>
+            <v>183</v>
           </cell>
           <cell r="FN9">
-            <v>183</v>
+            <v>184</v>
           </cell>
           <cell r="FO9">
-            <v>184</v>
+            <v>185</v>
           </cell>
           <cell r="FP9">
-            <v>184</v>
+            <v>185</v>
           </cell>
           <cell r="FQ9">
-            <v>184</v>
+            <v>185</v>
           </cell>
           <cell r="FR9">
-            <v>184</v>
+            <v>185</v>
           </cell>
           <cell r="FS9">
-            <v>184</v>
+            <v>185</v>
           </cell>
           <cell r="FT9">
-            <v>185</v>
+            <v>186</v>
           </cell>
           <cell r="FU9">
-            <v>186</v>
+            <v>187</v>
           </cell>
           <cell r="FV9">
-            <v>187</v>
+            <v>188</v>
           </cell>
           <cell r="FW9">
-            <v>189</v>
+            <v>190</v>
           </cell>
           <cell r="FX9">
-            <v>191</v>
+            <v>192</v>
           </cell>
           <cell r="FY9">
-            <v>191</v>
+            <v>192</v>
           </cell>
           <cell r="FZ9">
-            <v>192</v>
+            <v>193</v>
           </cell>
           <cell r="GA9">
-            <v>192</v>
+            <v>193</v>
           </cell>
           <cell r="GB9">
-            <v>192</v>
+            <v>193</v>
           </cell>
           <cell r="GC9">
-            <v>193</v>
+            <v>194</v>
           </cell>
           <cell r="GD9">
-            <v>194</v>
+            <v>195</v>
           </cell>
           <cell r="GE9">
-            <v>200</v>
+            <v>201</v>
           </cell>
           <cell r="GF9">
-            <v>203</v>
+            <v>204</v>
           </cell>
           <cell r="GG9">
-            <v>204</v>
+            <v>205</v>
           </cell>
           <cell r="GH9">
-            <v>208</v>
+            <v>209</v>
           </cell>
           <cell r="GI9">
-            <v>211</v>
+            <v>212</v>
           </cell>
           <cell r="GJ9">
-            <v>215</v>
+            <v>216</v>
           </cell>
           <cell r="GK9">
-            <v>227</v>
+            <v>228</v>
           </cell>
           <cell r="GL9">
-            <v>231</v>
+            <v>232</v>
           </cell>
           <cell r="GM9">
-            <v>239</v>
+            <v>240</v>
           </cell>
           <cell r="GN9">
-            <v>242</v>
+            <v>243</v>
           </cell>
           <cell r="GO9">
-            <v>251</v>
+            <v>252</v>
           </cell>
           <cell r="GP9">
-            <v>258</v>
+            <v>259</v>
           </cell>
           <cell r="GQ9">
-            <v>268</v>
+            <v>269</v>
           </cell>
           <cell r="GR9">
-            <v>276</v>
+            <v>277</v>
           </cell>
           <cell r="GS9">
-            <v>292</v>
+            <v>293</v>
           </cell>
           <cell r="GT9">
-            <v>304</v>
+            <v>305</v>
           </cell>
           <cell r="GU9">
-            <v>310</v>
+            <v>311</v>
           </cell>
           <cell r="GV9">
-            <v>313</v>
+            <v>314</v>
           </cell>
           <cell r="GW9">
-            <v>332</v>
+            <v>333</v>
           </cell>
           <cell r="GX9">
-            <v>338</v>
+            <v>339</v>
           </cell>
           <cell r="GY9">
-            <v>347</v>
+            <v>348</v>
           </cell>
           <cell r="GZ9">
-            <v>351</v>
+            <v>352</v>
           </cell>
           <cell r="HA9">
-            <v>366</v>
+            <v>367</v>
           </cell>
           <cell r="HB9">
-            <v>367</v>
+            <v>368</v>
           </cell>
           <cell r="HC9">
-            <v>369</v>
+            <v>370</v>
           </cell>
           <cell r="HD9">
-            <v>372</v>
+            <v>373</v>
           </cell>
           <cell r="HE9">
-            <v>376</v>
+            <v>377</v>
           </cell>
           <cell r="HF9">
-            <v>383</v>
+            <v>384</v>
           </cell>
           <cell r="HG9">
-            <v>386</v>
+            <v>387</v>
           </cell>
           <cell r="HH9">
-            <v>389</v>
+            <v>390</v>
           </cell>
           <cell r="HI9">
-            <v>393</v>
+            <v>394</v>
           </cell>
           <cell r="HJ9">
-            <v>398</v>
+            <v>399</v>
           </cell>
           <cell r="HK9">
-            <v>402</v>
+            <v>403</v>
           </cell>
           <cell r="HL9">
-            <v>407</v>
+            <v>408</v>
           </cell>
           <cell r="HM9">
-            <v>413</v>
+            <v>414</v>
           </cell>
           <cell r="HN9">
             <v>418</v>
@@ -25227,79 +25242,79 @@
             <v>443</v>
           </cell>
           <cell r="HS9">
-            <v>455</v>
+            <v>454</v>
           </cell>
           <cell r="HT9">
-            <v>461</v>
+            <v>460</v>
           </cell>
           <cell r="HU9">
-            <v>474</v>
+            <v>473</v>
           </cell>
           <cell r="HV9">
-            <v>484</v>
+            <v>483</v>
           </cell>
           <cell r="HW9">
-            <v>486</v>
+            <v>485</v>
           </cell>
           <cell r="HX9">
-            <v>494</v>
+            <v>493</v>
           </cell>
           <cell r="HY9">
-            <v>499</v>
+            <v>498</v>
           </cell>
           <cell r="HZ9">
-            <v>504</v>
+            <v>503</v>
           </cell>
           <cell r="IA9">
-            <v>509</v>
+            <v>508</v>
           </cell>
           <cell r="IB9">
-            <v>522</v>
+            <v>521</v>
           </cell>
           <cell r="IC9">
-            <v>522</v>
+            <v>523</v>
           </cell>
           <cell r="ID9">
-            <v>522</v>
+            <v>523</v>
           </cell>
           <cell r="IE9">
-            <v>522</v>
+            <v>523</v>
           </cell>
           <cell r="IF9">
-            <v>522</v>
+            <v>523</v>
           </cell>
           <cell r="IG9">
-            <v>522</v>
+            <v>523</v>
           </cell>
           <cell r="IH9">
-            <v>522</v>
+            <v>523</v>
           </cell>
           <cell r="II9">
-            <v>522</v>
+            <v>523</v>
           </cell>
           <cell r="IJ9">
-            <v>522</v>
+            <v>523</v>
           </cell>
           <cell r="IK9">
-            <v>522</v>
+            <v>523</v>
           </cell>
           <cell r="IL9">
-            <v>522</v>
+            <v>523</v>
           </cell>
           <cell r="IM9">
-            <v>522</v>
+            <v>523</v>
           </cell>
           <cell r="IN9">
-            <v>522</v>
+            <v>523</v>
           </cell>
           <cell r="IO9">
-            <v>522</v>
+            <v>523</v>
           </cell>
           <cell r="IP9">
-            <v>522</v>
+            <v>523</v>
           </cell>
           <cell r="IQ9">
-            <v>522</v>
+            <v>523</v>
           </cell>
         </row>
         <row r="13">
@@ -25970,79 +25985,79 @@
             <v>0</v>
           </cell>
           <cell r="HS13">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="HT13">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="HU13">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="HV13">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="HW13">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="HX13">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="HY13">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="HZ13">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="IA13">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="IB13">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="IC13">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="ID13">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="IE13">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="IF13">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="IG13">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="IH13">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="II13">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="IJ13">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="IK13">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="IL13">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="IM13">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="IN13">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="IO13">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="IP13">
-            <v>0</v>
+            <v>1</v>
           </cell>
           <cell r="IQ13">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="22">
@@ -30407,7 +30422,7 @@
             <v>44121</v>
           </cell>
           <cell r="B275">
-            <v>0</v>
+            <v>2</v>
           </cell>
           <cell r="D275">
             <v>0</v>
@@ -32243,7 +32258,7 @@
             <v>入院調整中</v>
           </cell>
           <cell r="S8">
-            <v>15</v>
+            <v>9</v>
           </cell>
         </row>
         <row r="9">
@@ -32251,7 +32266,7 @@
             <v>宿泊療養中</v>
           </cell>
           <cell r="S9">
-            <v>12</v>
+            <v>10</v>
           </cell>
         </row>
         <row r="10">
@@ -32259,7 +32274,7 @@
             <v>自宅療養中</v>
           </cell>
           <cell r="S10">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="11">
@@ -32267,7 +32282,7 @@
             <v>退院・療養解除</v>
           </cell>
           <cell r="S11">
-            <v>480</v>
+            <v>489</v>
           </cell>
         </row>
         <row r="12">
@@ -32551,12 +32566,12 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:HD525"/>
+  <dimension ref="A1:HD527"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A524" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G512" sqref="G512"/>
-      <selection pane="bottomLeft" activeCell="G528" sqref="G528"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
@@ -32580,7 +32595,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="5">
-        <v>44121</v>
+        <v>44122</v>
       </c>
     </row>
     <row r="3" spans="1:212" ht="42" customHeight="1" x14ac:dyDescent="0.4">
@@ -41991,7 +42006,7 @@
         <v>44104</v>
       </c>
       <c r="F410" s="9" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="H410" s="1" t="s">
         <v>83</v>
@@ -42796,7 +42811,7 @@
         <v>44111</v>
       </c>
       <c r="F445" s="9" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H445" s="1" t="s">
         <v>83</v>
@@ -43003,7 +43018,7 @@
         <v>44111</v>
       </c>
       <c r="F454" s="9" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H454" s="1" t="s">
         <v>79</v>
@@ -43141,7 +43156,7 @@
         <v>44111</v>
       </c>
       <c r="F460" s="9" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H460" s="1" t="s">
         <v>79</v>
@@ -43233,7 +43248,7 @@
         <v>44112</v>
       </c>
       <c r="F464" s="9" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H464" s="1" t="s">
         <v>79</v>
@@ -43509,7 +43524,7 @@
         <v>44113</v>
       </c>
       <c r="F476" s="9" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H476" s="1" t="s">
         <v>79</v>
@@ -43532,7 +43547,7 @@
         <v>44113</v>
       </c>
       <c r="F477" s="9" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H477" s="1" t="s">
         <v>79</v>
@@ -43785,7 +43800,7 @@
         <v>44115</v>
       </c>
       <c r="F488" s="9" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H488" s="1" t="s">
         <v>79</v>
@@ -44291,7 +44306,7 @@
         <v>44119</v>
       </c>
       <c r="F510" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H510" s="1" t="s">
         <v>79</v>
@@ -44314,7 +44329,7 @@
         <v>44119</v>
       </c>
       <c r="F511" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H511" s="1" t="s">
         <v>79</v>
@@ -44406,7 +44421,7 @@
         <v>44120</v>
       </c>
       <c r="F515" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H515" s="1" t="s">
         <v>83</v>
@@ -44475,7 +44490,7 @@
         <v>44120</v>
       </c>
       <c r="F518" s="9" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H518" s="1" t="s">
         <v>79</v>
@@ -44544,7 +44559,7 @@
         <v>44120</v>
       </c>
       <c r="F521" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H521" s="1" t="s">
         <v>79</v>
@@ -44640,6 +44655,52 @@
       </c>
       <c r="H525" s="1" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A526" s="8">
+        <v>523</v>
+      </c>
+      <c r="B526" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C526" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D526" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E526" s="11">
+        <v>44121</v>
+      </c>
+      <c r="F526" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H526" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A527" s="8">
+        <v>524</v>
+      </c>
+      <c r="B527" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C527" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D527" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E527" s="11">
+        <v>44121</v>
+      </c>
+      <c r="F527" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H527" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -44674,8 +44735,8 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="5" topLeftCell="HF1" activePane="topRight" state="frozen"/>
-      <selection activeCell="G512" sqref="G512"/>
-      <selection pane="topRight" activeCell="IF37" sqref="IF37"/>
+      <selection activeCell="J532" sqref="J532"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -44694,7 +44755,7 @@
         <v>7</v>
       </c>
       <c r="AA1" s="13">
-        <v>44121</v>
+        <v>44122</v>
       </c>
       <c r="AB1" s="13"/>
       <c r="AC1" s="13"/>
@@ -45774,364 +45835,364 @@
         <v>0</v>
       </c>
       <c r="CX4" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY4" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ4" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA4" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB4" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC4" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD4" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DE4" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF4" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DG4" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DH4" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DI4" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DJ4" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DK4" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL4" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DM4" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DN4" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DO4" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DP4" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DQ4" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DR4" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DS4" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DT4" s="27">
+        <v>5</v>
+      </c>
+      <c r="DU4" s="27">
         <v>4</v>
       </c>
-      <c r="DU4" s="27">
-        <v>3</v>
-      </c>
       <c r="DV4" s="27">
+        <v>6</v>
+      </c>
+      <c r="DW4" s="27">
+        <v>6</v>
+      </c>
+      <c r="DX4" s="27">
+        <v>6</v>
+      </c>
+      <c r="DY4" s="27">
         <v>5</v>
       </c>
-      <c r="DW4" s="27">
+      <c r="DZ4" s="27">
         <v>5</v>
       </c>
-      <c r="DX4" s="27">
-        <v>5</v>
-      </c>
-      <c r="DY4" s="27">
-        <v>4</v>
-      </c>
-      <c r="DZ4" s="27">
-        <v>4</v>
-      </c>
       <c r="EA4" s="27">
+        <v>7</v>
+      </c>
+      <c r="EB4" s="27">
+        <v>8</v>
+      </c>
+      <c r="EC4" s="27">
+        <v>8</v>
+      </c>
+      <c r="ED4" s="27">
+        <v>8</v>
+      </c>
+      <c r="EE4" s="27">
+        <v>7</v>
+      </c>
+      <c r="EF4" s="27">
+        <v>8</v>
+      </c>
+      <c r="EG4" s="27">
+        <v>8</v>
+      </c>
+      <c r="EH4" s="27">
+        <v>7</v>
+      </c>
+      <c r="EI4" s="27">
+        <v>11</v>
+      </c>
+      <c r="EJ4" s="27">
+        <v>12</v>
+      </c>
+      <c r="EK4" s="27">
+        <v>13</v>
+      </c>
+      <c r="EL4" s="27">
+        <v>10</v>
+      </c>
+      <c r="EM4" s="27">
+        <v>11</v>
+      </c>
+      <c r="EN4" s="27">
+        <v>24</v>
+      </c>
+      <c r="EO4" s="27">
+        <v>27</v>
+      </c>
+      <c r="EP4" s="27">
+        <v>29</v>
+      </c>
+      <c r="EQ4" s="27">
+        <v>27</v>
+      </c>
+      <c r="ER4" s="27">
+        <v>27</v>
+      </c>
+      <c r="ES4" s="27">
+        <v>23</v>
+      </c>
+      <c r="ET4" s="27">
+        <v>18</v>
+      </c>
+      <c r="EU4" s="27">
+        <v>17</v>
+      </c>
+      <c r="EV4" s="27">
+        <v>13</v>
+      </c>
+      <c r="EW4" s="27">
+        <v>13</v>
+      </c>
+      <c r="EX4" s="27">
+        <v>10</v>
+      </c>
+      <c r="EY4" s="27">
+        <v>9</v>
+      </c>
+      <c r="EZ4" s="27">
+        <v>11</v>
+      </c>
+      <c r="FA4" s="27">
+        <v>15</v>
+      </c>
+      <c r="FB4" s="27">
+        <v>18</v>
+      </c>
+      <c r="FC4" s="27">
+        <v>17</v>
+      </c>
+      <c r="FD4" s="27">
+        <v>22</v>
+      </c>
+      <c r="FE4" s="27">
+        <v>24</v>
+      </c>
+      <c r="FF4" s="27">
+        <v>28</v>
+      </c>
+      <c r="FG4" s="27">
+        <v>27</v>
+      </c>
+      <c r="FH4" s="27">
+        <v>25</v>
+      </c>
+      <c r="FI4" s="27">
+        <v>28</v>
+      </c>
+      <c r="FJ4" s="27">
+        <v>26</v>
+      </c>
+      <c r="FK4" s="27">
+        <v>25</v>
+      </c>
+      <c r="FL4" s="27">
+        <v>25</v>
+      </c>
+      <c r="FM4" s="27">
+        <v>24</v>
+      </c>
+      <c r="FN4" s="27">
+        <v>21</v>
+      </c>
+      <c r="FO4" s="27">
+        <v>17</v>
+      </c>
+      <c r="FP4" s="27">
+        <v>16</v>
+      </c>
+      <c r="FQ4" s="27">
+        <v>13</v>
+      </c>
+      <c r="FR4" s="27">
+        <v>11</v>
+      </c>
+      <c r="FS4" s="27">
+        <v>11</v>
+      </c>
+      <c r="FT4" s="27">
+        <v>8</v>
+      </c>
+      <c r="FU4" s="27">
+        <v>8</v>
+      </c>
+      <c r="FV4" s="27">
+        <v>7</v>
+      </c>
+      <c r="FW4" s="27">
+        <v>9</v>
+      </c>
+      <c r="FX4" s="27">
+        <v>10</v>
+      </c>
+      <c r="FY4" s="27">
+        <v>10</v>
+      </c>
+      <c r="FZ4" s="27">
+        <v>11</v>
+      </c>
+      <c r="GA4" s="27">
+        <v>9</v>
+      </c>
+      <c r="GB4" s="27">
+        <v>7</v>
+      </c>
+      <c r="GC4" s="27">
         <v>6</v>
       </c>
-      <c r="EB4" s="27">
-        <v>7</v>
-      </c>
-      <c r="EC4" s="27">
-        <v>7</v>
-      </c>
-      <c r="ED4" s="27">
-        <v>7</v>
-      </c>
-      <c r="EE4" s="27">
+      <c r="GD4" s="27">
         <v>6</v>
       </c>
-      <c r="EF4" s="27">
-        <v>7</v>
-      </c>
-      <c r="EG4" s="27">
-        <v>7</v>
-      </c>
-      <c r="EH4" s="27">
-        <v>6</v>
-      </c>
-      <c r="EI4" s="27">
+      <c r="GE4" s="27">
         <v>10</v>
       </c>
-      <c r="EJ4" s="27">
-        <v>11</v>
-      </c>
-      <c r="EK4" s="27">
-        <v>12</v>
-      </c>
-      <c r="EL4" s="27">
-        <v>9</v>
-      </c>
-      <c r="EM4" s="27">
-        <v>10</v>
-      </c>
-      <c r="EN4" s="27">
-        <v>23</v>
-      </c>
-      <c r="EO4" s="27">
-        <v>26</v>
-      </c>
-      <c r="EP4" s="27">
-        <v>28</v>
-      </c>
-      <c r="EQ4" s="27">
-        <v>26</v>
-      </c>
-      <c r="ER4" s="27">
-        <v>26</v>
-      </c>
-      <c r="ES4" s="27">
-        <v>22</v>
-      </c>
-      <c r="ET4" s="27">
+      <c r="GF4" s="27">
+        <v>13</v>
+      </c>
+      <c r="GG4" s="27">
+        <v>13</v>
+      </c>
+      <c r="GH4" s="27">
         <v>17</v>
       </c>
-      <c r="EU4" s="27">
-        <v>16</v>
-      </c>
-      <c r="EV4" s="27">
-        <v>12</v>
-      </c>
-      <c r="EW4" s="27">
-        <v>12</v>
-      </c>
-      <c r="EX4" s="27">
-        <v>9</v>
-      </c>
-      <c r="EY4" s="27">
-        <v>8</v>
-      </c>
-      <c r="EZ4" s="27">
-        <v>10</v>
-      </c>
-      <c r="FA4" s="27">
-        <v>14</v>
-      </c>
-      <c r="FB4" s="27">
-        <v>17</v>
-      </c>
-      <c r="FC4" s="27">
-        <v>16</v>
-      </c>
-      <c r="FD4" s="27">
-        <v>21</v>
-      </c>
-      <c r="FE4" s="27">
-        <v>23</v>
-      </c>
-      <c r="FF4" s="27">
-        <v>27</v>
-      </c>
-      <c r="FG4" s="27">
-        <v>26</v>
-      </c>
-      <c r="FH4" s="27">
+      <c r="GI4" s="27">
+        <v>20</v>
+      </c>
+      <c r="GJ4" s="27">
         <v>24</v>
       </c>
-      <c r="FI4" s="27">
-        <v>27</v>
-      </c>
-      <c r="FJ4" s="27">
-        <v>25</v>
-      </c>
-      <c r="FK4" s="27">
-        <v>24</v>
-      </c>
-      <c r="FL4" s="27">
-        <v>24</v>
-      </c>
-      <c r="FM4" s="27">
-        <v>23</v>
-      </c>
-      <c r="FN4" s="27">
-        <v>20</v>
-      </c>
-      <c r="FO4" s="27">
-        <v>16</v>
-      </c>
-      <c r="FP4" s="27">
-        <v>15</v>
-      </c>
-      <c r="FQ4" s="27">
-        <v>12</v>
-      </c>
-      <c r="FR4" s="27">
-        <v>10</v>
-      </c>
-      <c r="FS4" s="27">
-        <v>10</v>
-      </c>
-      <c r="FT4" s="27">
-        <v>7</v>
-      </c>
-      <c r="FU4" s="27">
-        <v>7</v>
-      </c>
-      <c r="FV4" s="27">
-        <v>6</v>
-      </c>
-      <c r="FW4" s="27">
-        <v>8</v>
-      </c>
-      <c r="FX4" s="27">
-        <v>9</v>
-      </c>
-      <c r="FY4" s="27">
-        <v>9</v>
-      </c>
-      <c r="FZ4" s="27">
-        <v>10</v>
-      </c>
-      <c r="GA4" s="27">
-        <v>8</v>
-      </c>
-      <c r="GB4" s="27">
-        <v>6</v>
-      </c>
-      <c r="GC4" s="27">
-        <v>5</v>
-      </c>
-      <c r="GD4" s="27">
-        <v>5</v>
-      </c>
-      <c r="GE4" s="27">
-        <v>9</v>
-      </c>
-      <c r="GF4" s="27">
-        <v>12</v>
-      </c>
-      <c r="GG4" s="27">
-        <v>12</v>
-      </c>
-      <c r="GH4" s="27">
-        <v>16</v>
-      </c>
-      <c r="GI4" s="27">
-        <v>19</v>
-      </c>
-      <c r="GJ4" s="27">
-        <v>23</v>
-      </c>
       <c r="GK4" s="27">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="GL4" s="27">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="GM4" s="27">
+        <v>46</v>
+      </c>
+      <c r="GN4" s="27">
+        <v>46</v>
+      </c>
+      <c r="GO4" s="27">
         <v>45</v>
       </c>
-      <c r="GN4" s="27">
-        <v>45</v>
-      </c>
-      <c r="GO4" s="27">
-        <v>44</v>
-      </c>
       <c r="GP4" s="27">
+        <v>50</v>
+      </c>
+      <c r="GQ4" s="27">
+        <v>57</v>
+      </c>
+      <c r="GR4" s="27">
+        <v>64</v>
+      </c>
+      <c r="GS4" s="27">
+        <v>74</v>
+      </c>
+      <c r="GT4" s="27">
+        <v>76</v>
+      </c>
+      <c r="GU4" s="27">
+        <v>79</v>
+      </c>
+      <c r="GV4" s="27">
+        <v>71</v>
+      </c>
+      <c r="GW4" s="27">
+        <v>82</v>
+      </c>
+      <c r="GX4" s="27">
+        <v>84</v>
+      </c>
+      <c r="GY4" s="27">
+        <v>82</v>
+      </c>
+      <c r="GZ4" s="27">
+        <v>81</v>
+      </c>
+      <c r="HA4" s="27">
+        <v>91</v>
+      </c>
+      <c r="HB4" s="27">
+        <v>77</v>
+      </c>
+      <c r="HC4" s="27">
+        <v>71</v>
+      </c>
+      <c r="HD4" s="27">
+        <v>73</v>
+      </c>
+      <c r="HE4" s="27">
+        <v>65</v>
+      </c>
+      <c r="HF4" s="27">
+        <v>60</v>
+      </c>
+      <c r="HG4" s="27">
+        <v>57</v>
+      </c>
+      <c r="HH4" s="27">
+        <v>55</v>
+      </c>
+      <c r="HI4" s="27">
+        <v>56</v>
+      </c>
+      <c r="HJ4" s="27">
         <v>49</v>
       </c>
-      <c r="GQ4" s="27">
-        <v>56</v>
-      </c>
-      <c r="GR4" s="27">
-        <v>63</v>
-      </c>
-      <c r="GS4" s="27">
-        <v>73</v>
-      </c>
-      <c r="GT4" s="27">
-        <v>75</v>
-      </c>
-      <c r="GU4" s="27">
-        <v>78</v>
-      </c>
-      <c r="GV4" s="27">
-        <v>70</v>
-      </c>
-      <c r="GW4" s="27">
-        <v>81</v>
-      </c>
-      <c r="GX4" s="27">
-        <v>83</v>
-      </c>
-      <c r="GY4" s="27">
-        <v>81</v>
-      </c>
-      <c r="GZ4" s="27">
-        <v>80</v>
-      </c>
-      <c r="HA4" s="27">
-        <v>90</v>
-      </c>
-      <c r="HB4" s="27">
-        <v>76</v>
-      </c>
-      <c r="HC4" s="27">
-        <v>70</v>
-      </c>
-      <c r="HD4" s="27">
-        <v>72</v>
-      </c>
-      <c r="HE4" s="27">
-        <v>64</v>
-      </c>
-      <c r="HF4" s="27">
-        <v>59</v>
-      </c>
-      <c r="HG4" s="27">
-        <v>56</v>
-      </c>
-      <c r="HH4" s="27">
-        <v>54</v>
-      </c>
-      <c r="HI4" s="27">
-        <v>55</v>
-      </c>
-      <c r="HJ4" s="27">
-        <v>48</v>
-      </c>
       <c r="HK4" s="27">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="HL4" s="27">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="HM4" s="27">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="HN4" s="27">
         <v>43</v>
@@ -46149,79 +46210,79 @@
         <v>47</v>
       </c>
       <c r="HS4" s="27">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="HT4" s="27">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="HU4" s="27">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="HV4" s="27">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="HW4" s="27">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="HX4" s="27">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="HY4" s="27">
+        <v>42</v>
+      </c>
+      <c r="HZ4" s="27">
+        <v>40</v>
+      </c>
+      <c r="IA4" s="27">
         <v>43</v>
       </c>
-      <c r="HZ4" s="27">
-        <v>41</v>
-      </c>
-      <c r="IA4" s="27">
-        <v>44</v>
-      </c>
       <c r="IB4" s="27">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="IC4" s="27">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="ID4" s="27">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="IE4" s="27">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="IF4" s="27">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="IG4" s="27">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="IH4" s="27">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="II4" s="27">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="IJ4" s="27">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="IK4" s="27">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="IL4" s="27">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="IM4" s="27">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="IN4" s="27">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="IO4" s="27">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="IP4" s="27">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="IQ4" s="27">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:251" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -46924,7 +46985,9 @@
       <c r="IB5" s="27">
         <v>12</v>
       </c>
-      <c r="IC5" s="27"/>
+      <c r="IC5" s="27">
+        <v>12</v>
+      </c>
       <c r="ID5" s="27"/>
       <c r="IE5" s="27"/>
       <c r="IF5" s="27"/>
@@ -47640,7 +47703,9 @@
       <c r="IB6" s="27">
         <v>11</v>
       </c>
-      <c r="IC6" s="27"/>
+      <c r="IC6" s="27">
+        <v>11</v>
+      </c>
       <c r="ID6" s="27"/>
       <c r="IE6" s="27"/>
       <c r="IF6" s="27"/>
@@ -48356,7 +48421,9 @@
       <c r="IB7" s="27">
         <v>12</v>
       </c>
-      <c r="IC7" s="27"/>
+      <c r="IC7" s="27">
+        <v>10</v>
+      </c>
       <c r="ID7" s="27"/>
       <c r="IE7" s="27"/>
       <c r="IF7" s="27"/>
@@ -49072,7 +49139,9 @@
       <c r="IB8" s="27">
         <v>15</v>
       </c>
-      <c r="IC8" s="27"/>
+      <c r="IC8" s="27">
+        <v>10</v>
+      </c>
       <c r="ID8" s="27"/>
       <c r="IE8" s="27"/>
       <c r="IF8" s="27"/>
@@ -49383,364 +49452,364 @@
         <v>88</v>
       </c>
       <c r="CX9" s="27">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="CY9" s="27">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="CZ9" s="27">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="DA9" s="27">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="DB9" s="27">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="DC9" s="27">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="DD9" s="27">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="DE9" s="27">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="DF9" s="27">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="DG9" s="27">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="DH9" s="27">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="DI9" s="27">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="DJ9" s="27">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="DK9" s="27">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="DL9" s="27">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="DM9" s="27">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="DN9" s="27">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="DO9" s="27">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="DP9" s="27">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="DQ9" s="27">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="DR9" s="27">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="DS9" s="27">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="DT9" s="27">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="DU9" s="27">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="DV9" s="27">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="DW9" s="27">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="DX9" s="27">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="DY9" s="27">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="DZ9" s="27">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="EA9" s="27">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="EB9" s="27">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="EC9" s="27">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="ED9" s="27">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="EE9" s="27">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="EF9" s="27">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="EG9" s="27">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="EH9" s="27">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="EI9" s="27">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="EJ9" s="27">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="EK9" s="27">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="EL9" s="27">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="EM9" s="27">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="EN9" s="27">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="EO9" s="27">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="EP9" s="27">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="EQ9" s="27">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="ER9" s="27">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="ES9" s="27">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="ET9" s="27">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="EU9" s="27">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="EV9" s="27">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="EW9" s="27">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="EX9" s="27">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="EY9" s="27">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="EZ9" s="27">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="FA9" s="27">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="FB9" s="27">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="FC9" s="27">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="FD9" s="27">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="FE9" s="27">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="FF9" s="27">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="FG9" s="27">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="FH9" s="27">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="FI9" s="27">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="FJ9" s="27">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="FK9" s="27">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="FL9" s="27">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="FM9" s="27">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="FN9" s="27">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="FO9" s="27">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="FP9" s="27">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="FQ9" s="27">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="FR9" s="27">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="FS9" s="27">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="FT9" s="27">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="FU9" s="27">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="FV9" s="27">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="FW9" s="27">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="FX9" s="27">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="FY9" s="27">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="FZ9" s="27">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="GA9" s="27">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="GB9" s="27">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="GC9" s="27">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="GD9" s="27">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="GE9" s="27">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="GF9" s="27">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="GG9" s="27">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="GH9" s="27">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="GI9" s="27">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="GJ9" s="27">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="GK9" s="27">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="GL9" s="27">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="GM9" s="27">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="GN9" s="27">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="GO9" s="27">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="GP9" s="27">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="GQ9" s="27">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="GR9" s="27">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="GS9" s="27">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="GT9" s="27">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="GU9" s="27">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="GV9" s="27">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="GW9" s="27">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="GX9" s="27">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="GY9" s="27">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="GZ9" s="27">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="HA9" s="27">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="HB9" s="27">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="HC9" s="27">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="HD9" s="27">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="HE9" s="27">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="HF9" s="27">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="HG9" s="27">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="HH9" s="27">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="HI9" s="27">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="HJ9" s="27">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="HK9" s="27">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="HL9" s="27">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="HM9" s="27">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="HN9" s="27">
         <v>418</v>
@@ -49758,79 +49827,79 @@
         <v>443</v>
       </c>
       <c r="HS9" s="27">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="HT9" s="27">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="HU9" s="27">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="HV9" s="27">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="HW9" s="27">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="HX9" s="27">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="HY9" s="27">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="HZ9" s="27">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="IA9" s="27">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="IB9" s="27">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="IC9" s="27">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="ID9" s="27">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="IE9" s="27">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="IF9" s="27">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="IG9" s="27">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="IH9" s="27">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="II9" s="27">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="IJ9" s="27">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="IK9" s="27">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="IL9" s="27">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="IM9" s="27">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="IN9" s="27">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="IO9" s="27">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="IP9" s="27">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="IQ9" s="27">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="10" spans="1:251" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -49838,7 +49907,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="27">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C10" s="24"/>
       <c r="D10" s="28"/>
@@ -50134,7 +50203,7 @@
         <v>0</v>
       </c>
       <c r="CX10" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY10" s="27">
         <v>0</v>
@@ -50494,7 +50563,7 @@
         <v>6</v>
       </c>
       <c r="HN10" s="27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="HO10" s="27">
         <v>7</v>
@@ -50509,7 +50578,7 @@
         <v>8</v>
       </c>
       <c r="HS10" s="27">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="HT10" s="27">
         <v>6</v>
@@ -50539,7 +50608,7 @@
         <v>13</v>
       </c>
       <c r="IC10" s="27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="ID10" s="27">
         <v>0</v>
@@ -50589,7 +50658,7 @@
         <v>17</v>
       </c>
       <c r="B11" s="27">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="C11" s="24"/>
       <c r="D11" s="28"/>
@@ -51290,7 +51359,7 @@
         <v>7</v>
       </c>
       <c r="IC11" s="27">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="ID11" s="27">
         <v>0</v>
@@ -52759,79 +52828,79 @@
         <v>0</v>
       </c>
       <c r="HS13" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HT13" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HU13" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HV13" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HW13" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HX13" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HY13" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HZ13" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IA13" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IB13" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IC13" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="ID13" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IE13" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IF13" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IG13" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IH13" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="II13" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IJ13" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IK13" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IL13" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IM13" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IN13" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IO13" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IP13" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="IQ13" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:251" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -53534,7 +53603,9 @@
       <c r="IB14" s="27">
         <v>0</v>
       </c>
-      <c r="IC14" s="27"/>
+      <c r="IC14" s="27">
+        <v>0</v>
+      </c>
       <c r="ID14" s="27"/>
       <c r="IE14" s="27"/>
       <c r="IF14" s="27"/>
@@ -54250,7 +54321,9 @@
       <c r="IB15" s="27">
         <v>0</v>
       </c>
-      <c r="IC15" s="27"/>
+      <c r="IC15" s="27">
+        <v>0</v>
+      </c>
       <c r="ID15" s="27"/>
       <c r="IE15" s="27"/>
       <c r="IF15" s="27"/>
@@ -54966,7 +55039,9 @@
       <c r="IB16" s="27">
         <v>0</v>
       </c>
-      <c r="IC16" s="27"/>
+      <c r="IC16" s="27">
+        <v>0</v>
+      </c>
       <c r="ID16" s="27"/>
       <c r="IE16" s="27"/>
       <c r="IF16" s="27"/>
@@ -55682,7 +55757,9 @@
       <c r="IB17" s="27">
         <v>0</v>
       </c>
-      <c r="IC17" s="27"/>
+      <c r="IC17" s="27">
+        <v>0</v>
+      </c>
       <c r="ID17" s="27"/>
       <c r="IE17" s="27"/>
       <c r="IF17" s="27"/>
@@ -55996,364 +56073,364 @@
         <v>1</v>
       </c>
       <c r="CX18" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CY18" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CZ18" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DA18" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DB18" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DC18" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DD18" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DE18" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DF18" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DG18" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DH18" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DI18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DJ18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DK18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DL18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DM18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DN18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DO18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DP18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DQ18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DR18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DS18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DT18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DU18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DV18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DW18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DX18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DY18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="DZ18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EA18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EB18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EC18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="ED18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EE18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EF18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EG18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EH18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EI18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EJ18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EK18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EL18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EM18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EN18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EO18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EP18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EQ18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="ER18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="ES18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="ET18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EU18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EV18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EW18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EX18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EY18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="EZ18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FA18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FB18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FC18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FD18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FE18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FF18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FG18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FH18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FI18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FJ18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FK18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FL18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FM18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FN18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FO18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FP18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FQ18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FR18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FS18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FT18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FU18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FV18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FW18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FX18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FY18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="FZ18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GA18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GB18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GC18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GD18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GE18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GF18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GG18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GH18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GI18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GJ18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GK18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GL18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GM18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GN18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GO18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GP18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GQ18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GR18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GS18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GT18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GU18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GV18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GW18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GX18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GY18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="GZ18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HA18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HB18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HC18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HD18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HE18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HF18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HG18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HH18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HI18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HJ18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HK18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HL18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HM18" s="27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="HN18" s="27">
         <v>8</v>
@@ -56371,79 +56448,79 @@
         <v>8</v>
       </c>
       <c r="HS18" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="HT18" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="HU18" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="HV18" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="HW18" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="HX18" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="HY18" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="HZ18" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="IA18" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="IB18" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="IC18" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="ID18" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="IE18" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="IF18" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="IG18" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="IH18" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="II18" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="IJ18" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="IK18" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="IL18" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="IM18" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="IN18" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="IO18" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="IP18" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="IQ18" s="27">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:251" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -56451,7 +56528,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="28"/>
@@ -56747,7 +56824,7 @@
         <v>0</v>
       </c>
       <c r="CX19" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CY19" s="27">
         <v>0</v>
@@ -57107,7 +57184,7 @@
         <v>0</v>
       </c>
       <c r="HN19" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HO19" s="27">
         <v>0</v>
@@ -57122,7 +57199,7 @@
         <v>0</v>
       </c>
       <c r="HS19" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HT19" s="27">
         <v>0</v>
@@ -60147,7 +60224,9 @@
       <c r="IB23" s="27">
         <v>0</v>
       </c>
-      <c r="IC23" s="27"/>
+      <c r="IC23" s="27">
+        <v>0</v>
+      </c>
       <c r="ID23" s="27"/>
       <c r="IE23" s="27"/>
       <c r="IF23" s="27"/>
@@ -60863,7 +60942,9 @@
       <c r="IB24" s="27">
         <v>0</v>
       </c>
-      <c r="IC24" s="27"/>
+      <c r="IC24" s="27">
+        <v>0</v>
+      </c>
       <c r="ID24" s="27"/>
       <c r="IE24" s="27"/>
       <c r="IF24" s="27"/>
@@ -61579,7 +61660,9 @@
       <c r="IB25" s="27">
         <v>0</v>
       </c>
-      <c r="IC25" s="27"/>
+      <c r="IC25" s="27">
+        <v>0</v>
+      </c>
       <c r="ID25" s="27"/>
       <c r="IE25" s="27"/>
       <c r="IF25" s="27"/>
@@ -62295,7 +62378,9 @@
       <c r="IB26" s="27">
         <v>0</v>
       </c>
-      <c r="IC26" s="27"/>
+      <c r="IC26" s="27">
+        <v>0</v>
+      </c>
       <c r="ID26" s="27"/>
       <c r="IE26" s="27"/>
       <c r="IF26" s="27"/>
@@ -65471,9 +65556,7 @@
   </sheetPr>
   <dimension ref="A1:HE440"/>
   <sheetViews>
-    <sheetView showGridLines="0" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I1" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView showGridLines="0" showWhiteSpace="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -65522,18 +65605,18 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="R2" s="40">
-        <v>44121</v>
-      </c>
-      <c r="S2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="R2" s="42">
+        <v>44122</v>
+      </c>
+      <c r="S2" s="42"/>
     </row>
     <row r="3" spans="1:213" ht="24" x14ac:dyDescent="0.4">
       <c r="A3" s="39">
@@ -65554,14 +65637,14 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
       <c r="W3" t="s">
         <v>38</v>
       </c>
@@ -71006,7 +71089,7 @@
         <v>44121</v>
       </c>
       <c r="B275">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -71015,10 +71098,10 @@
         <v>0</v>
       </c>
       <c r="E275">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F275">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.4">
@@ -71035,10 +71118,10 @@
         <v>0</v>
       </c>
       <c r="E276">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F276">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.4">
@@ -71055,10 +71138,10 @@
         <v>0</v>
       </c>
       <c r="E277">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F277">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.4">
@@ -71075,10 +71158,10 @@
         <v>0</v>
       </c>
       <c r="E278">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F278">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.4">
@@ -71095,10 +71178,10 @@
         <v>0</v>
       </c>
       <c r="E279">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F279">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.4">
@@ -71115,10 +71198,10 @@
         <v>0</v>
       </c>
       <c r="E280">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F280">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.4">
@@ -71135,10 +71218,10 @@
         <v>0</v>
       </c>
       <c r="E281">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F281">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.4">
@@ -71155,10 +71238,10 @@
         <v>0</v>
       </c>
       <c r="E282">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F282">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.4">
@@ -71175,10 +71258,10 @@
         <v>0</v>
       </c>
       <c r="E283">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F283">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.4">
@@ -71195,10 +71278,10 @@
         <v>0</v>
       </c>
       <c r="E284">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F284">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.4">
@@ -71215,10 +71298,10 @@
         <v>0</v>
       </c>
       <c r="E285">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F285">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.4">
@@ -71235,10 +71318,10 @@
         <v>0</v>
       </c>
       <c r="E286">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F286">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.4">
@@ -71255,10 +71338,10 @@
         <v>0</v>
       </c>
       <c r="E287">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F287">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.4">
@@ -71275,10 +71358,10 @@
         <v>0</v>
       </c>
       <c r="E288">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F288">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.4">
@@ -71295,10 +71378,10 @@
         <v>0</v>
       </c>
       <c r="E289">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F289">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.4">
@@ -71315,10 +71398,10 @@
         <v>0</v>
       </c>
       <c r="E290">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F290">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.4">
@@ -71335,10 +71418,10 @@
         <v>0</v>
       </c>
       <c r="E291">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F291">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.4">
@@ -71355,10 +71438,10 @@
         <v>0</v>
       </c>
       <c r="E292">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F292">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.4">
@@ -71375,10 +71458,10 @@
         <v>0</v>
       </c>
       <c r="E293">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F293">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.4">
@@ -71395,10 +71478,10 @@
         <v>0</v>
       </c>
       <c r="E294">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F294">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.4">
@@ -71415,10 +71498,10 @@
         <v>0</v>
       </c>
       <c r="E295">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F295">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.4">
@@ -71435,10 +71518,10 @@
         <v>0</v>
       </c>
       <c r="E296">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F296">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.4">
@@ -71455,10 +71538,10 @@
         <v>0</v>
       </c>
       <c r="E297">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F297">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.4">
@@ -71475,10 +71558,10 @@
         <v>0</v>
       </c>
       <c r="E298">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F298">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.4">
@@ -71495,10 +71578,10 @@
         <v>0</v>
       </c>
       <c r="E299">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F299">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.4">
@@ -71515,10 +71598,10 @@
         <v>0</v>
       </c>
       <c r="E300">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F300">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.4">
@@ -71535,10 +71618,10 @@
         <v>0</v>
       </c>
       <c r="E301">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F301">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.4">
@@ -71555,10 +71638,10 @@
         <v>0</v>
       </c>
       <c r="E302">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F302">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.4">
@@ -71575,10 +71658,10 @@
         <v>0</v>
       </c>
       <c r="E303">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F303">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.4">
@@ -71595,10 +71678,10 @@
         <v>0</v>
       </c>
       <c r="E304">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F304">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.4">
@@ -71615,10 +71698,10 @@
         <v>0</v>
       </c>
       <c r="E305">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F305">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.4">
@@ -71635,10 +71718,10 @@
         <v>0</v>
       </c>
       <c r="E306">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F306">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.4">
@@ -71655,10 +71738,10 @@
         <v>0</v>
       </c>
       <c r="E307">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F307">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.4">
@@ -71675,10 +71758,10 @@
         <v>0</v>
       </c>
       <c r="E308">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F308">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.4">
@@ -71695,10 +71778,10 @@
         <v>0</v>
       </c>
       <c r="E309">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F309">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.4">
@@ -71715,10 +71798,10 @@
         <v>0</v>
       </c>
       <c r="E310">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F310">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.4">
@@ -71735,10 +71818,10 @@
         <v>0</v>
       </c>
       <c r="E311">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F311">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.4">
@@ -71755,10 +71838,10 @@
         <v>0</v>
       </c>
       <c r="E312">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F312">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.4">
@@ -71775,10 +71858,10 @@
         <v>0</v>
       </c>
       <c r="E313">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F313">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.4">
@@ -71795,10 +71878,10 @@
         <v>0</v>
       </c>
       <c r="E314">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F314">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.4">
@@ -71815,10 +71898,10 @@
         <v>0</v>
       </c>
       <c r="E315">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F315">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.4">
@@ -71835,10 +71918,10 @@
         <v>0</v>
       </c>
       <c r="E316">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F316">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.4">
@@ -71855,10 +71938,10 @@
         <v>0</v>
       </c>
       <c r="E317">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F317">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.4">
@@ -71875,10 +71958,10 @@
         <v>0</v>
       </c>
       <c r="E318">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F318">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.4">
@@ -71895,10 +71978,10 @@
         <v>0</v>
       </c>
       <c r="E319">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F319">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.4">
@@ -71915,10 +71998,10 @@
         <v>0</v>
       </c>
       <c r="E320">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F320">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.4">
@@ -71935,10 +72018,10 @@
         <v>0</v>
       </c>
       <c r="E321">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F321">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.4">
@@ -71955,10 +72038,10 @@
         <v>0</v>
       </c>
       <c r="E322">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F322">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.4">
@@ -71975,10 +72058,10 @@
         <v>0</v>
       </c>
       <c r="E323">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F323">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.4">
@@ -71995,10 +72078,10 @@
         <v>0</v>
       </c>
       <c r="E324">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F324">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.4">
@@ -72015,10 +72098,10 @@
         <v>0</v>
       </c>
       <c r="E325">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F325">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.4">
@@ -72035,10 +72118,10 @@
         <v>0</v>
       </c>
       <c r="E326">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F326">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.4">
@@ -72055,10 +72138,10 @@
         <v>0</v>
       </c>
       <c r="E327">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F327">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.4">
@@ -72075,10 +72158,10 @@
         <v>0</v>
       </c>
       <c r="E328">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F328">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.4">
@@ -72095,10 +72178,10 @@
         <v>0</v>
       </c>
       <c r="E329">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F329">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.4">
@@ -72115,10 +72198,10 @@
         <v>0</v>
       </c>
       <c r="E330">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F330">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.4">
@@ -72135,10 +72218,10 @@
         <v>0</v>
       </c>
       <c r="E331">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F331">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.4">
@@ -72155,10 +72238,10 @@
         <v>0</v>
       </c>
       <c r="E332">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F332">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.4">
@@ -72175,10 +72258,10 @@
         <v>0</v>
       </c>
       <c r="E333">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F333">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.4">
@@ -72195,10 +72278,10 @@
         <v>0</v>
       </c>
       <c r="E334">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F334">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.4">
@@ -72215,10 +72298,10 @@
         <v>0</v>
       </c>
       <c r="E335">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F335">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.4">
@@ -72235,10 +72318,10 @@
         <v>0</v>
       </c>
       <c r="E336">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F336">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.4">
@@ -72255,10 +72338,10 @@
         <v>0</v>
       </c>
       <c r="E337">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F337">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.4">
@@ -72275,10 +72358,10 @@
         <v>0</v>
       </c>
       <c r="E338">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F338">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.4">
@@ -72295,10 +72378,10 @@
         <v>0</v>
       </c>
       <c r="E339">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F339">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.4">
@@ -72315,10 +72398,10 @@
         <v>0</v>
       </c>
       <c r="E340">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F340">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.4">
@@ -72335,10 +72418,10 @@
         <v>0</v>
       </c>
       <c r="E341">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F341">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.4">
@@ -72355,10 +72438,10 @@
         <v>0</v>
       </c>
       <c r="E342">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F342">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.4">
@@ -72375,10 +72458,10 @@
         <v>0</v>
       </c>
       <c r="E343">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F343">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.4">
@@ -72395,10 +72478,10 @@
         <v>0</v>
       </c>
       <c r="E344">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F344">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.4">
@@ -72415,10 +72498,10 @@
         <v>0</v>
       </c>
       <c r="E345">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F345">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.4">
@@ -72435,10 +72518,10 @@
         <v>0</v>
       </c>
       <c r="E346">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F346">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.4">
@@ -72455,10 +72538,10 @@
         <v>0</v>
       </c>
       <c r="E347">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F347">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.4">
@@ -72475,10 +72558,10 @@
         <v>0</v>
       </c>
       <c r="E348">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F348">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.4">
@@ -72495,10 +72578,10 @@
         <v>0</v>
       </c>
       <c r="E349">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F349">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.4">
@@ -72515,10 +72598,10 @@
         <v>0</v>
       </c>
       <c r="E350">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F350">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.4">
@@ -72535,10 +72618,10 @@
         <v>0</v>
       </c>
       <c r="E351">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F351">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.4">
@@ -72555,10 +72638,10 @@
         <v>0</v>
       </c>
       <c r="E352">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F352">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.4">
@@ -72575,10 +72658,10 @@
         <v>0</v>
       </c>
       <c r="E353">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F353">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.4">
@@ -72595,10 +72678,10 @@
         <v>0</v>
       </c>
       <c r="E354">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F354">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.4">
@@ -72615,10 +72698,10 @@
         <v>0</v>
       </c>
       <c r="E355">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F355">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.4">
@@ -72635,10 +72718,10 @@
         <v>0</v>
       </c>
       <c r="E356">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F356">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.4">
@@ -72655,10 +72738,10 @@
         <v>0</v>
       </c>
       <c r="E357">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F357">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.4">
@@ -72675,10 +72758,10 @@
         <v>0</v>
       </c>
       <c r="E358">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F358">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.4">
@@ -72695,10 +72778,10 @@
         <v>0</v>
       </c>
       <c r="E359">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F359">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.4">
@@ -72715,10 +72798,10 @@
         <v>0</v>
       </c>
       <c r="E360">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F360">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.4">
@@ -72735,10 +72818,10 @@
         <v>0</v>
       </c>
       <c r="E361">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F361">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.4">
@@ -72755,10 +72838,10 @@
         <v>0</v>
       </c>
       <c r="E362">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F362">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.4">
@@ -72775,10 +72858,10 @@
         <v>0</v>
       </c>
       <c r="E363">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F363">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.4">
@@ -72795,10 +72878,10 @@
         <v>0</v>
       </c>
       <c r="E364">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F364">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.4">
@@ -72815,10 +72898,10 @@
         <v>0</v>
       </c>
       <c r="E365">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F365">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.4">
@@ -72835,10 +72918,10 @@
         <v>0</v>
       </c>
       <c r="E366">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F366">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.4">
@@ -72855,10 +72938,10 @@
         <v>0</v>
       </c>
       <c r="E367">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F367">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.4">
@@ -72875,10 +72958,10 @@
         <v>0</v>
       </c>
       <c r="E368">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F368">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.4">
@@ -72895,10 +72978,10 @@
         <v>0</v>
       </c>
       <c r="E369">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F369">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.4">
@@ -72915,10 +72998,10 @@
         <v>0</v>
       </c>
       <c r="E370">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F370">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.4">
@@ -72935,10 +73018,10 @@
         <v>0</v>
       </c>
       <c r="E371">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F371">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.4">
@@ -72955,10 +73038,10 @@
         <v>0</v>
       </c>
       <c r="E372">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F372">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.4">
@@ -72975,10 +73058,10 @@
         <v>0</v>
       </c>
       <c r="E373">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F373">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.4">
@@ -72995,10 +73078,10 @@
         <v>0</v>
       </c>
       <c r="E374">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F374">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.4">
@@ -73015,10 +73098,10 @@
         <v>0</v>
       </c>
       <c r="E375">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F375">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.4">
@@ -73035,10 +73118,10 @@
         <v>0</v>
       </c>
       <c r="E376">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F376">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.4">
@@ -73055,10 +73138,10 @@
         <v>0</v>
       </c>
       <c r="E377">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F377">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.4">
@@ -73075,10 +73158,10 @@
         <v>0</v>
       </c>
       <c r="E378">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F378">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.4">
@@ -73095,10 +73178,10 @@
         <v>0</v>
       </c>
       <c r="E379">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F379">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.4">
@@ -73115,10 +73198,10 @@
         <v>0</v>
       </c>
       <c r="E380">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F380">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.4">
@@ -73135,10 +73218,10 @@
         <v>0</v>
       </c>
       <c r="E381">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F381">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.4">
@@ -73155,10 +73238,10 @@
         <v>0</v>
       </c>
       <c r="E382">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F382">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.4">
@@ -73175,10 +73258,10 @@
         <v>0</v>
       </c>
       <c r="E383">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F383">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.4">
@@ -73195,10 +73278,10 @@
         <v>0</v>
       </c>
       <c r="E384">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F384">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.4">
@@ -73215,10 +73298,10 @@
         <v>0</v>
       </c>
       <c r="E385">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F385">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.4">
@@ -73235,10 +73318,10 @@
         <v>0</v>
       </c>
       <c r="E386">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F386">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.4">
@@ -73255,10 +73338,10 @@
         <v>0</v>
       </c>
       <c r="E387">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F387">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.4">
@@ -73275,10 +73358,10 @@
         <v>0</v>
       </c>
       <c r="E388">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F388">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.4">
@@ -73295,10 +73378,10 @@
         <v>0</v>
       </c>
       <c r="E389">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F389">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.4">
@@ -73315,10 +73398,10 @@
         <v>0</v>
       </c>
       <c r="E390">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F390">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.4">
@@ -73335,10 +73418,10 @@
         <v>0</v>
       </c>
       <c r="E391">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F391">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.4">
@@ -73355,10 +73438,10 @@
         <v>0</v>
       </c>
       <c r="E392">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F392">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.4">
@@ -73375,10 +73458,10 @@
         <v>0</v>
       </c>
       <c r="E393">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F393">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.4">
@@ -73395,10 +73478,10 @@
         <v>0</v>
       </c>
       <c r="E394">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F394">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.4">
@@ -73415,10 +73498,10 @@
         <v>0</v>
       </c>
       <c r="E395">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F395">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.4">
@@ -73435,10 +73518,10 @@
         <v>0</v>
       </c>
       <c r="E396">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F396">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.4">
@@ -73455,10 +73538,10 @@
         <v>0</v>
       </c>
       <c r="E397">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F397">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.4">
@@ -73475,10 +73558,10 @@
         <v>0</v>
       </c>
       <c r="E398">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F398">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.4">
@@ -73495,10 +73578,10 @@
         <v>0</v>
       </c>
       <c r="E399">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F399">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.4">
@@ -73515,10 +73598,10 @@
         <v>0</v>
       </c>
       <c r="E400">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F400">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.4">
@@ -73535,10 +73618,10 @@
         <v>0</v>
       </c>
       <c r="E401">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F401">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.4">
@@ -73555,10 +73638,10 @@
         <v>0</v>
       </c>
       <c r="E402">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F402">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.4">
@@ -73575,10 +73658,10 @@
         <v>0</v>
       </c>
       <c r="E403">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F403">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.4">
@@ -73595,10 +73678,10 @@
         <v>0</v>
       </c>
       <c r="E404">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F404">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.4">
@@ -73615,10 +73698,10 @@
         <v>0</v>
       </c>
       <c r="E405">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F405">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.4">
@@ -73635,10 +73718,10 @@
         <v>0</v>
       </c>
       <c r="E406">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F406">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.4">
@@ -73655,10 +73738,10 @@
         <v>0</v>
       </c>
       <c r="E407">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F407">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.4">
@@ -73675,10 +73758,10 @@
         <v>0</v>
       </c>
       <c r="E408">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F408">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.4">
@@ -73695,10 +73778,10 @@
         <v>0</v>
       </c>
       <c r="E409">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F409">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.4">
@@ -73715,10 +73798,10 @@
         <v>0</v>
       </c>
       <c r="E410">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F410">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.4">
@@ -73735,10 +73818,10 @@
         <v>0</v>
       </c>
       <c r="E411">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F411">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.4">
@@ -73755,10 +73838,10 @@
         <v>0</v>
       </c>
       <c r="E412">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F412">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.4">
@@ -73775,10 +73858,10 @@
         <v>0</v>
       </c>
       <c r="E413">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F413">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.4">
@@ -73795,10 +73878,10 @@
         <v>0</v>
       </c>
       <c r="E414">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F414">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.4">
@@ -73815,10 +73898,10 @@
         <v>0</v>
       </c>
       <c r="E415">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F415">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.4">
@@ -73835,10 +73918,10 @@
         <v>0</v>
       </c>
       <c r="E416">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F416">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.4">
@@ -73855,10 +73938,10 @@
         <v>0</v>
       </c>
       <c r="E417">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F417">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.4">
@@ -73875,10 +73958,10 @@
         <v>0</v>
       </c>
       <c r="E418">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F418">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.4">
@@ -73895,10 +73978,10 @@
         <v>0</v>
       </c>
       <c r="E419">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F419">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.4">
@@ -73915,10 +73998,10 @@
         <v>0</v>
       </c>
       <c r="E420">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F420">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.4">
@@ -73935,10 +74018,10 @@
         <v>0</v>
       </c>
       <c r="E421">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F421">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.4">
@@ -73955,10 +74038,10 @@
         <v>0</v>
       </c>
       <c r="E422">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F422">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.4">
@@ -73975,10 +74058,10 @@
         <v>0</v>
       </c>
       <c r="E423">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F423">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.4">
@@ -73995,10 +74078,10 @@
         <v>0</v>
       </c>
       <c r="E424">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F424">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.4">
@@ -74015,10 +74098,10 @@
         <v>0</v>
       </c>
       <c r="E425">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F425">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.4">
@@ -74035,10 +74118,10 @@
         <v>0</v>
       </c>
       <c r="E426">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F426">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.4">
@@ -74055,10 +74138,10 @@
         <v>0</v>
       </c>
       <c r="E427">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F427">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.4">
@@ -74075,10 +74158,10 @@
         <v>0</v>
       </c>
       <c r="E428">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F428">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.4">
@@ -74095,10 +74178,10 @@
         <v>0</v>
       </c>
       <c r="E429">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F429">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.4">
@@ -74115,10 +74198,10 @@
         <v>0</v>
       </c>
       <c r="E430">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F430">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.4">
@@ -74135,10 +74218,10 @@
         <v>0</v>
       </c>
       <c r="E431">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F431">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.4">
@@ -74155,10 +74238,10 @@
         <v>0</v>
       </c>
       <c r="E432">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F432">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.4">
@@ -74175,10 +74258,10 @@
         <v>0</v>
       </c>
       <c r="E433">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F433">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.4">
@@ -74195,10 +74278,10 @@
         <v>0</v>
       </c>
       <c r="E434">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F434">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.4">
@@ -74215,10 +74298,10 @@
         <v>0</v>
       </c>
       <c r="E435">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F435">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.4">
@@ -74235,10 +74318,10 @@
         <v>0</v>
       </c>
       <c r="E436">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F436">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.4">
@@ -74255,10 +74338,10 @@
         <v>0</v>
       </c>
       <c r="E437">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F437">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.4">
@@ -74275,10 +74358,10 @@
         <v>0</v>
       </c>
       <c r="E438">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F438">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.4">
@@ -74295,10 +74378,10 @@
         <v>0</v>
       </c>
       <c r="E439">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F439">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.4">
@@ -74315,10 +74398,10 @@
         <v>0</v>
       </c>
       <c r="E440">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F440">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -74328,7 +74411,7 @@
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1.1023622047244095" right="1.1023622047244095" top="0.74803149606299213" bottom="1.3385826771653544" header="0.31496062992125984" footer="0.59055118110236227"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;L&amp;"ＭＳ Ｐゴシック,標準"&amp;10
 </oddFooter>
@@ -74346,7 +74429,7 @@
   <dimension ref="A1:HE30"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -74363,28 +74446,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:213" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
     </row>
     <row r="2" spans="1:213" x14ac:dyDescent="0.4">
-      <c r="I2" s="42">
-        <v>44121</v>
-      </c>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
+      <c r="I2" s="44">
+        <v>44122</v>
+      </c>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
     </row>
     <row r="4" spans="1:213" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -74395,103 +74478,103 @@
       </c>
     </row>
     <row r="5" spans="1:213" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="43" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="43" t="s">
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="46" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:213" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="45">
-        <v>522</v>
-      </c>
-      <c r="E6" s="45">
+      <c r="C6" s="45"/>
+      <c r="D6" s="48">
+        <v>524</v>
+      </c>
+      <c r="E6" s="48">
         <v>8</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="48">
         <v>2</v>
       </c>
-      <c r="G6" s="45">
-        <v>532</v>
-      </c>
-      <c r="Q6" s="59" t="s">
+      <c r="G6" s="48">
+        <v>534</v>
+      </c>
+      <c r="Q6" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="R6" s="60"/>
-      <c r="S6" s="46">
-        <v>532</v>
+      <c r="R6" s="45"/>
+      <c r="S6" s="49">
+        <v>534</v>
       </c>
     </row>
     <row r="7" spans="1:213" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="48">
         <v>23</v>
       </c>
-      <c r="E7" s="45">
-        <v>0</v>
-      </c>
-      <c r="F7" s="45">
-        <v>0</v>
-      </c>
-      <c r="G7" s="45">
+      <c r="E7" s="48">
+        <v>0</v>
+      </c>
+      <c r="F7" s="48">
+        <v>0</v>
+      </c>
+      <c r="G7" s="48">
         <v>23</v>
       </c>
-      <c r="Q7" s="61" t="s">
+      <c r="Q7" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="R7" s="47" t="s">
+      <c r="R7" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="S7" s="46">
+      <c r="S7" s="49">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:213" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="62"/>
-      <c r="C8" s="47" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="45">
-        <v>15</v>
-      </c>
-      <c r="E8" s="45">
-        <v>0</v>
-      </c>
-      <c r="F8" s="45">
-        <v>0</v>
-      </c>
-      <c r="G8" s="45">
-        <v>15</v>
-      </c>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="47" t="s">
+      <c r="D8" s="48">
+        <v>9</v>
+      </c>
+      <c r="E8" s="48">
+        <v>0</v>
+      </c>
+      <c r="F8" s="48">
+        <v>0</v>
+      </c>
+      <c r="G8" s="48">
+        <v>9</v>
+      </c>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="S8" s="46">
-        <v>15</v>
+      <c r="S8" s="49">
+        <v>9</v>
       </c>
       <c r="HD8">
         <v>19</v>
@@ -74501,129 +74584,129 @@
       </c>
     </row>
     <row r="9" spans="1:213" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="62"/>
-      <c r="C9" s="48" t="s">
+      <c r="B9" s="50"/>
+      <c r="C9" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="45">
-        <v>12</v>
-      </c>
-      <c r="E9" s="45">
-        <v>0</v>
-      </c>
-      <c r="F9" s="45">
-        <v>0</v>
-      </c>
-      <c r="G9" s="45">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="48" t="s">
+      <c r="D9" s="48">
+        <v>10</v>
+      </c>
+      <c r="E9" s="48">
+        <v>0</v>
+      </c>
+      <c r="F9" s="48">
+        <v>0</v>
+      </c>
+      <c r="G9" s="48">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="S9" s="46">
-        <v>12</v>
+      <c r="S9" s="49">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:213" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="62"/>
-      <c r="C10" s="47" t="s">
+      <c r="B10" s="50"/>
+      <c r="C10" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="45">
-        <v>0</v>
-      </c>
-      <c r="E10" s="45">
-        <v>0</v>
-      </c>
-      <c r="F10" s="45">
-        <v>0</v>
-      </c>
-      <c r="G10" s="45">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="47" t="s">
+      <c r="D10" s="48">
+        <v>1</v>
+      </c>
+      <c r="E10" s="48">
+        <v>0</v>
+      </c>
+      <c r="F10" s="48">
+        <v>0</v>
+      </c>
+      <c r="G10" s="48">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="S10" s="46">
-        <v>0</v>
+      <c r="S10" s="49">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:213" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="62"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="50"/>
+      <c r="C11" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="45">
-        <v>470</v>
-      </c>
-      <c r="E11" s="45">
+      <c r="D11" s="48">
+        <v>479</v>
+      </c>
+      <c r="E11" s="48">
         <v>8</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="48">
         <v>2</v>
       </c>
-      <c r="G11" s="45">
-        <v>480</v>
-      </c>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="48" t="s">
+      <c r="G11" s="48">
+        <v>489</v>
+      </c>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="S11" s="46">
-        <v>480</v>
+      <c r="S11" s="49">
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:213" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="63"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="50"/>
+      <c r="C12" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="48">
         <v>2</v>
       </c>
-      <c r="E12" s="45">
-        <v>0</v>
-      </c>
-      <c r="F12" s="45">
-        <v>0</v>
-      </c>
-      <c r="G12" s="45">
+      <c r="E12" s="48">
+        <v>0</v>
+      </c>
+      <c r="F12" s="48">
+        <v>0</v>
+      </c>
+      <c r="G12" s="48">
         <v>2</v>
       </c>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="48" t="s">
+      <c r="Q12" s="50"/>
+      <c r="R12" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="S12" s="46">
+      <c r="S12" s="49">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:213" x14ac:dyDescent="0.4">
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
-      <c r="G13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="G13" s="56"/>
     </row>
     <row r="14" spans="1:213" x14ac:dyDescent="0.4">
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
     </row>
     <row r="15" spans="1:213" x14ac:dyDescent="0.4">
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="51"/>
-      <c r="G15" s="51"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="55"/>
+      <c r="G15" s="55"/>
     </row>
     <row r="16" spans="1:213" x14ac:dyDescent="0.4">
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="51"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="55"/>
     </row>
     <row r="18" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
@@ -74631,116 +74714,116 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="43" t="s">
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="46" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="48">
         <v>6</v>
       </c>
-      <c r="O20" s="48" t="s">
+      <c r="O20" s="52" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="62"/>
-      <c r="C21" s="48" t="s">
+      <c r="B21" s="50"/>
+      <c r="C21" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="45">
-        <v>135</v>
-      </c>
-      <c r="O21" s="48" t="s">
+      <c r="D21" s="48">
+        <v>136</v>
+      </c>
+      <c r="O21" s="52" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="62"/>
-      <c r="C22" s="48" t="s">
+      <c r="B22" s="50"/>
+      <c r="C22" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="48">
         <v>18</v>
       </c>
-      <c r="O22" s="48" t="s">
+      <c r="O22" s="52" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="62"/>
-      <c r="C23" s="48" t="s">
+      <c r="B23" s="50"/>
+      <c r="C23" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="45">
+      <c r="D23" s="48">
         <v>3</v>
       </c>
-      <c r="O23" s="48" t="s">
+      <c r="O23" s="52" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="62"/>
-      <c r="C24" s="48" t="s">
+      <c r="B24" s="50"/>
+      <c r="C24" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24" s="48">
         <v>1</v>
       </c>
-      <c r="O24" s="48" t="s">
+      <c r="O24" s="52" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="62"/>
-      <c r="C25" s="48" t="s">
+      <c r="B25" s="50"/>
+      <c r="C25" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D25" s="48">
         <v>10</v>
       </c>
-      <c r="O25" s="48" t="s">
+      <c r="O25" s="52" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="63"/>
-      <c r="C26" s="48" t="s">
+      <c r="B26" s="50"/>
+      <c r="C26" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="48">
         <v>4</v>
       </c>
-      <c r="O26" s="48" t="s">
+      <c r="O26" s="52" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="55"/>
-      <c r="C27" s="56" t="s">
+      <c r="B27" s="59"/>
+      <c r="C27" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="45">
-        <v>341</v>
-      </c>
-      <c r="O27" s="57">
-        <v>476</v>
+      <c r="D27" s="48">
+        <v>342</v>
+      </c>
+      <c r="O27" s="61">
+        <v>478</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="55"/>
-      <c r="C28" s="56" t="s">
+      <c r="B28" s="59"/>
+      <c r="C28" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="D28" s="45">
+      <c r="D28" s="48">
         <v>4</v>
       </c>
       <c r="O28" t="s">
@@ -74748,12 +74831,12 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="B29" s="55"/>
-      <c r="C29" s="56" t="s">
+      <c r="B29" s="59"/>
+      <c r="C29" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="45">
-        <v>522</v>
+      <c r="D29" s="48">
+        <v>524</v>
       </c>
       <c r="O29" t="s">
         <v>75</v>
@@ -74779,7 +74862,7 @@
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="1.3385826771653544" header="0.31496062992125984" footer="0.59055118110236227"/>
-  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;L&amp;"ＭＳ Ｐゴシック,標準"&amp;10
 </oddFooter>

--- a/work/04_miyagi.xlsx
+++ b/work/04_miyagi.xlsx
@@ -19,11 +19,11 @@
     <sheet name="その他集計（HP掲載）" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'患者状況一覧（HP掲載）'!$A$3:$F$941</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'患者状況一覧（HP掲載）'!$A$3:$F$1065</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'その他集計（HP掲載）'!$A$1:$M$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'患者状況一覧（HP掲載）'!$A$2:$F$1065</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'日別集計（HP掲載）'!$G$1:$X$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'累計グラフ（HP掲載）'!$A$1:$JJ$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'累計グラフ（HP掲載）'!$A$1:$JJ$77</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'患者状況一覧（HP掲載）'!$2:$3</definedName>
     <definedName name="Z_52D76B34_E0A5_4D8A_BB93_26BF349B7B6B_.wvu.FilterData" localSheetId="1" hidden="1">'患者状況一覧（HP掲載）'!$A$3:$F$343</definedName>
     <definedName name="Z_52D76B34_E0A5_4D8A_BB93_26BF349B7B6B_.wvu.PrintArea" localSheetId="4" hidden="1">'その他集計（HP掲載）'!$A$1:$M$32</definedName>
@@ -41,10 +41,10 @@
     <definedName name="協力ホテル">#REF!</definedName>
     <definedName name="協力医療機関">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <customWorkbookViews>
+    <customWorkbookView name="admin - 個人用ビュー" guid="{52D76B34-E0A5-4D8A-BB93-26BF349B7B6B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" tabRatio="694" activeSheetId="2"/>
     <customWorkbookView name="宮城県 - 個人用ビュー" guid="{DF1194B1-EBAB-4941-A075-CF0AED6A020A}" mergeInterval="0" personalView="1" xWindow="-1" windowWidth="1184" windowHeight="738" tabRatio="739" activeSheetId="2"/>
-    <customWorkbookView name="admin - 個人用ビュー" guid="{52D76B34-E0A5-4D8A-BB93-26BF349B7B6B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" tabRatio="694" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -865,7 +865,7 @@
     <t>うち塩釜：208人</t>
   </si>
   <si>
-    <t>うち仙台市：715人</t>
+    <t>うち仙台市：724人</t>
   </si>
   <si>
     <t>県外：5人</t>
@@ -1367,6 +1367,9 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1375,9 +1378,6 @@
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -14393,403 +14393,403 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15583,907 +15583,907 @@
                   <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>86</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>86</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>86</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>86</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>86</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>86</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>86</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>86</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>86</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>86</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>86</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>83</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>83</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>83</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>84</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>84</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>84</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>84</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>85</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>85</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>86</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>86</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>87</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>87</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>89</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>89</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>89</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>90</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>90</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>92</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>93</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>93</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>93</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>93</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>94</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>95</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>95</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>100</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>101</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>103</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>105</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>107</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>121</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>124</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>127</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>127</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>131</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>131</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>133</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>135</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>135</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>137</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>137</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>142</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>144</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>148</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>153</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>155</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>160</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>163</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>169</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>171</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>172</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>176</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>176</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>177</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>177</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>177</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>178</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>179</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>179</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>179</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>179</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>179</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>180</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>181</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>182</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>184</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>186</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>186</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>187</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>187</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>187</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>188</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>189</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>195</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>198</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>199</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>203</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>206</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>210</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>222</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>226</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>234</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>237</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>246</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>253</c:v>
+                  <c:v>258</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>263</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>271</c:v>
+                  <c:v>276</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>287</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>299</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>305</c:v>
+                  <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>308</c:v>
+                  <c:v>313</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>327</c:v>
+                  <c:v>332</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>333</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>342</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>346</c:v>
+                  <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>361</c:v>
+                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>362</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>364</c:v>
+                  <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>367</c:v>
+                  <c:v>372</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>371</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>378</c:v>
+                  <c:v>383</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>381</c:v>
+                  <c:v>386</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>384</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>388</c:v>
+                  <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>393</c:v>
+                  <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>397</c:v>
+                  <c:v>402</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>402</c:v>
+                  <c:v>407</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>408</c:v>
+                  <c:v>413</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>413</c:v>
+                  <c:v>418</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>420</c:v>
+                  <c:v>425</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>423</c:v>
+                  <c:v>428</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>430</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>438</c:v>
+                  <c:v>443</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>450</c:v>
+                  <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>456</c:v>
+                  <c:v>461</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>469</c:v>
+                  <c:v>474</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>479</c:v>
+                  <c:v>484</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>481</c:v>
+                  <c:v>486</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>489</c:v>
+                  <c:v>494</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>494</c:v>
+                  <c:v>499</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>499</c:v>
+                  <c:v>504</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>504</c:v>
+                  <c:v>509</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>517</c:v>
+                  <c:v>522</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>521</c:v>
+                  <c:v>526</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>521</c:v>
+                  <c:v>526</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>525</c:v>
+                  <c:v>530</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>534</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>539</c:v>
+                  <c:v>544</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>541</c:v>
+                  <c:v>546</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>560</c:v>
+                  <c:v>565</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>567</c:v>
+                  <c:v>572</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>599</c:v>
+                  <c:v>604</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>606</c:v>
+                  <c:v>611</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>652</c:v>
+                  <c:v>657</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>676</c:v>
+                  <c:v>681</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>686</c:v>
+                  <c:v>691</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>698</c:v>
+                  <c:v>703</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>722</c:v>
+                  <c:v>727</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>737</c:v>
+                  <c:v>742</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>770</c:v>
+                  <c:v>775</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>789</c:v>
+                  <c:v>794</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>802</c:v>
+                  <c:v>807</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>819</c:v>
+                  <c:v>824</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>829</c:v>
+                  <c:v>834</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>855</c:v>
+                  <c:v>860</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>861</c:v>
+                  <c:v>866</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>873</c:v>
+                  <c:v>878</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>891</c:v>
+                  <c:v>896</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>924</c:v>
+                  <c:v>929</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>943</c:v>
+                  <c:v>948</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>971</c:v>
+                  <c:v>976</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>979</c:v>
+                  <c:v>984</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>984</c:v>
+                  <c:v>989</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>992</c:v>
+                  <c:v>997</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>1031</c:v>
+                  <c:v>1036</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>1045</c:v>
+                  <c:v>1050</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>1054</c:v>
+                  <c:v>1061</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16793,6 +16793,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -21036,7 +21037,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
@@ -21348,7 +21349,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="139">
                   <c:v>0</c:v>
@@ -21381,7 +21382,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="150">
                   <c:v>0</c:v>
@@ -24362,14 +24363,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>145675</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>6603</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>275543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>186018</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24560,7 +24561,7 @@
               <a:ea typeface="游ゴシック"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>923人</a:t>
+            <a:t>932人</a:t>
           </a:fld>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
@@ -24680,7 +24681,7 @@
               <a:ea typeface="游ゴシック"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>うち仙台市：715人</a:t>
+            <a:t>うち仙台市：724人</a:t>
           </a:fld>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
         </a:p>
@@ -25389,7 +25390,7 @@
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H1031" sqref="H1031"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.4"/>
@@ -46710,13 +46711,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:F941">
+  <autoFilter ref="A3:F1065">
     <sortState ref="A4:F1065">
-      <sortCondition descending="1" ref="A3:A941"/>
+      <sortCondition descending="1" ref="A3:A1065"/>
     </sortState>
   </autoFilter>
   <customSheetViews>
-    <customSheetView guid="{DF1194B1-EBAB-4941-A075-CF0AED6A020A}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" view="pageBreakPreview">
+    <customSheetView guid="{52D76B34-E0A5-4D8A-BB93-26BF349B7B6B}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" view="pageBreakPreview">
       <pane ySplit="3" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
       <rowBreaks count="1" manualBreakCount="1">
@@ -46729,9 +46730,9 @@
         <oddFooter>&amp;L&amp;"ＭＳ Ｐゴシック,標準"&amp;10※現状欄の「療養中」は「宿泊療養」と「自宅療養」，「退院等」は「退院」「療養解除」「死亡」をそれぞれ含みます。
 ※検疫所確認患者は含んでおりません。</oddFooter>
       </headerFooter>
-      <autoFilter ref="A3:F348"/>
+      <autoFilter ref="A3:F343"/>
     </customSheetView>
-    <customSheetView guid="{52D76B34-E0A5-4D8A-BB93-26BF349B7B6B}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" view="pageBreakPreview">
+    <customSheetView guid="{DF1194B1-EBAB-4941-A075-CF0AED6A020A}" showPageBreaks="1" fitToPage="1" printArea="1" showAutoFilter="1" view="pageBreakPreview">
       <pane ySplit="3" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
       <rowBreaks count="1" manualBreakCount="1">
@@ -46744,7 +46745,7 @@
         <oddFooter>&amp;L&amp;"ＭＳ Ｐゴシック,標準"&amp;10※現状欄の「療養中」は「宿泊療養」と「自宅療養」，「退院等」は「退院」「療養解除」「死亡」をそれぞれ含みます。
 ※検疫所確認患者は含んでおりません。</oddFooter>
       </headerFooter>
-      <autoFilter ref="A3:F343"/>
+      <autoFilter ref="A3:F348"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="1">
@@ -46778,10 +46779,10 @@
   </sheetPr>
   <dimension ref="A1:OL791"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="80" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="BA1" activePane="topRight" state="frozen"/>
-      <selection activeCell="C5" sqref="C5"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="5" topLeftCell="IN1" activePane="topRight" state="frozen"/>
+      <selection activeCell="G5" sqref="G5"/>
+      <selection pane="topRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
@@ -48336,907 +48337,907 @@
         <v>0</v>
       </c>
       <c r="CX4" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="CY4" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="CZ4" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="DA4" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="DB4" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="DC4" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="DD4" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="DE4" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="DF4" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="DG4" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="DH4" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="DI4" s="22">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="DJ4" s="22">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="DK4" s="22">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="DL4" s="22">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="DM4" s="22">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="DN4" s="22">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="DO4" s="22">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="DP4" s="22">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="DQ4" s="22">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="DR4" s="22">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="DS4" s="22">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="DT4" s="22">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="DU4" s="22">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="DV4" s="22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="DW4" s="22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="DX4" s="22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="DY4" s="22">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="DZ4" s="22">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="EA4" s="22">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="EB4" s="22">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="EC4" s="22">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="ED4" s="22">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="EE4" s="22">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="EF4" s="22">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="EG4" s="22">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="EH4" s="22">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="EI4" s="22">
+        <v>10</v>
+      </c>
+      <c r="EJ4" s="22">
+        <v>11</v>
+      </c>
+      <c r="EK4" s="22">
+        <v>12</v>
+      </c>
+      <c r="EL4" s="22">
+        <v>9</v>
+      </c>
+      <c r="EM4" s="22">
+        <v>10</v>
+      </c>
+      <c r="EN4" s="22">
+        <v>23</v>
+      </c>
+      <c r="EO4" s="22">
+        <v>26</v>
+      </c>
+      <c r="EP4" s="22">
+        <v>28</v>
+      </c>
+      <c r="EQ4" s="22">
+        <v>26</v>
+      </c>
+      <c r="ER4" s="22">
+        <v>26</v>
+      </c>
+      <c r="ES4" s="22">
+        <v>22</v>
+      </c>
+      <c r="ET4" s="22">
+        <v>17</v>
+      </c>
+      <c r="EU4" s="22">
+        <v>16</v>
+      </c>
+      <c r="EV4" s="22">
+        <v>12</v>
+      </c>
+      <c r="EW4" s="22">
+        <v>12</v>
+      </c>
+      <c r="EX4" s="22">
+        <v>9</v>
+      </c>
+      <c r="EY4" s="22">
+        <v>8</v>
+      </c>
+      <c r="EZ4" s="22">
+        <v>10</v>
+      </c>
+      <c r="FA4" s="22">
+        <v>14</v>
+      </c>
+      <c r="FB4" s="22">
+        <v>17</v>
+      </c>
+      <c r="FC4" s="22">
+        <v>16</v>
+      </c>
+      <c r="FD4" s="22">
+        <v>21</v>
+      </c>
+      <c r="FE4" s="22">
+        <v>23</v>
+      </c>
+      <c r="FF4" s="22">
+        <v>27</v>
+      </c>
+      <c r="FG4" s="22">
+        <v>26</v>
+      </c>
+      <c r="FH4" s="22">
+        <v>24</v>
+      </c>
+      <c r="FI4" s="22">
+        <v>27</v>
+      </c>
+      <c r="FJ4" s="22">
+        <v>25</v>
+      </c>
+      <c r="FK4" s="22">
+        <v>24</v>
+      </c>
+      <c r="FL4" s="22">
+        <v>24</v>
+      </c>
+      <c r="FM4" s="22">
+        <v>23</v>
+      </c>
+      <c r="FN4" s="22">
+        <v>20</v>
+      </c>
+      <c r="FO4" s="22">
+        <v>16</v>
+      </c>
+      <c r="FP4" s="22">
+        <v>15</v>
+      </c>
+      <c r="FQ4" s="22">
+        <v>12</v>
+      </c>
+      <c r="FR4" s="22">
+        <v>10</v>
+      </c>
+      <c r="FS4" s="22">
+        <v>10</v>
+      </c>
+      <c r="FT4" s="22">
+        <v>7</v>
+      </c>
+      <c r="FU4" s="22">
+        <v>7</v>
+      </c>
+      <c r="FV4" s="22">
+        <v>6</v>
+      </c>
+      <c r="FW4" s="22">
+        <v>8</v>
+      </c>
+      <c r="FX4" s="22">
+        <v>9</v>
+      </c>
+      <c r="FY4" s="22">
+        <v>9</v>
+      </c>
+      <c r="FZ4" s="22">
+        <v>10</v>
+      </c>
+      <c r="GA4" s="22">
+        <v>8</v>
+      </c>
+      <c r="GB4" s="22">
+        <v>6</v>
+      </c>
+      <c r="GC4" s="22">
         <v>5</v>
       </c>
-      <c r="EJ4" s="22">
-        <v>6</v>
-      </c>
-      <c r="EK4" s="22">
-        <v>7</v>
-      </c>
-      <c r="EL4" s="22">
-        <v>4</v>
-      </c>
-      <c r="EM4" s="22">
+      <c r="GD4" s="22">
         <v>5</v>
       </c>
-      <c r="EN4" s="22">
-        <v>18</v>
-      </c>
-      <c r="EO4" s="22">
-        <v>21</v>
-      </c>
-      <c r="EP4" s="22">
+      <c r="GE4" s="22">
+        <v>9</v>
+      </c>
+      <c r="GF4" s="22">
+        <v>12</v>
+      </c>
+      <c r="GG4" s="22">
+        <v>12</v>
+      </c>
+      <c r="GH4" s="22">
+        <v>16</v>
+      </c>
+      <c r="GI4" s="22">
+        <v>19</v>
+      </c>
+      <c r="GJ4" s="22">
         <v>23</v>
       </c>
-      <c r="EQ4" s="22">
-        <v>21</v>
-      </c>
-      <c r="ER4" s="22">
-        <v>21</v>
-      </c>
-      <c r="ES4" s="22">
-        <v>17</v>
-      </c>
-      <c r="ET4" s="22">
-        <v>12</v>
-      </c>
-      <c r="EU4" s="22">
-        <v>11</v>
-      </c>
-      <c r="EV4" s="22">
-        <v>7</v>
-      </c>
-      <c r="EW4" s="22">
-        <v>7</v>
-      </c>
-      <c r="EX4" s="22">
-        <v>4</v>
-      </c>
-      <c r="EY4" s="22">
-        <v>3</v>
-      </c>
-      <c r="EZ4" s="22">
-        <v>5</v>
-      </c>
-      <c r="FA4" s="22">
-        <v>9</v>
-      </c>
-      <c r="FB4" s="22">
-        <v>12</v>
-      </c>
-      <c r="FC4" s="22">
-        <v>11</v>
-      </c>
-      <c r="FD4" s="22">
-        <v>16</v>
-      </c>
-      <c r="FE4" s="22">
-        <v>18</v>
-      </c>
-      <c r="FF4" s="22">
-        <v>22</v>
-      </c>
-      <c r="FG4" s="22">
-        <v>21</v>
-      </c>
-      <c r="FH4" s="22">
-        <v>19</v>
-      </c>
-      <c r="FI4" s="22">
-        <v>22</v>
-      </c>
-      <c r="FJ4" s="22">
-        <v>20</v>
-      </c>
-      <c r="FK4" s="22">
-        <v>19</v>
-      </c>
-      <c r="FL4" s="22">
-        <v>19</v>
-      </c>
-      <c r="FM4" s="22">
-        <v>18</v>
-      </c>
-      <c r="FN4" s="22">
-        <v>15</v>
-      </c>
-      <c r="FO4" s="22">
-        <v>11</v>
-      </c>
-      <c r="FP4" s="22">
-        <v>10</v>
-      </c>
-      <c r="FQ4" s="22">
-        <v>7</v>
-      </c>
-      <c r="FR4" s="22">
-        <v>5</v>
-      </c>
-      <c r="FS4" s="22">
-        <v>5</v>
-      </c>
-      <c r="FT4" s="22">
-        <v>2</v>
-      </c>
-      <c r="FU4" s="22">
-        <v>2</v>
-      </c>
-      <c r="FV4" s="22">
-        <v>1</v>
-      </c>
-      <c r="FW4" s="22">
-        <v>3</v>
-      </c>
-      <c r="FX4" s="22">
-        <v>4</v>
-      </c>
-      <c r="FY4" s="22">
-        <v>4</v>
-      </c>
-      <c r="FZ4" s="22">
-        <v>5</v>
-      </c>
-      <c r="GA4" s="22">
-        <v>3</v>
-      </c>
-      <c r="GB4" s="22">
-        <v>1</v>
-      </c>
-      <c r="GC4" s="22">
-        <v>0</v>
-      </c>
-      <c r="GD4" s="22">
-        <v>0</v>
-      </c>
-      <c r="GE4" s="22">
-        <v>4</v>
-      </c>
-      <c r="GF4" s="22">
-        <v>7</v>
-      </c>
-      <c r="GG4" s="22">
-        <v>7</v>
-      </c>
-      <c r="GH4" s="22">
-        <v>11</v>
-      </c>
-      <c r="GI4" s="22">
-        <v>14</v>
-      </c>
-      <c r="GJ4" s="22">
-        <v>18</v>
-      </c>
       <c r="GK4" s="22">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="GL4" s="22">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="GM4" s="22">
+        <v>45</v>
+      </c>
+      <c r="GN4" s="22">
+        <v>45</v>
+      </c>
+      <c r="GO4" s="22">
+        <v>44</v>
+      </c>
+      <c r="GP4" s="22">
+        <v>49</v>
+      </c>
+      <c r="GQ4" s="22">
+        <v>56</v>
+      </c>
+      <c r="GR4" s="22">
+        <v>63</v>
+      </c>
+      <c r="GS4" s="22">
+        <v>73</v>
+      </c>
+      <c r="GT4" s="22">
+        <v>75</v>
+      </c>
+      <c r="GU4" s="22">
+        <v>78</v>
+      </c>
+      <c r="GV4" s="22">
+        <v>70</v>
+      </c>
+      <c r="GW4" s="22">
+        <v>81</v>
+      </c>
+      <c r="GX4" s="22">
+        <v>82</v>
+      </c>
+      <c r="GY4" s="22">
+        <v>80</v>
+      </c>
+      <c r="GZ4" s="22">
+        <v>80</v>
+      </c>
+      <c r="HA4" s="22">
+        <v>90</v>
+      </c>
+      <c r="HB4" s="22">
+        <v>76</v>
+      </c>
+      <c r="HC4" s="22">
+        <v>70</v>
+      </c>
+      <c r="HD4" s="22">
+        <v>72</v>
+      </c>
+      <c r="HE4" s="22">
+        <v>64</v>
+      </c>
+      <c r="HF4" s="22">
+        <v>59</v>
+      </c>
+      <c r="HG4" s="22">
+        <v>56</v>
+      </c>
+      <c r="HH4" s="22">
+        <v>54</v>
+      </c>
+      <c r="HI4" s="22">
+        <v>55</v>
+      </c>
+      <c r="HJ4" s="22">
+        <v>48</v>
+      </c>
+      <c r="HK4" s="22">
         <v>40</v>
       </c>
-      <c r="GN4" s="22">
+      <c r="HL4" s="22">
+        <v>37</v>
+      </c>
+      <c r="HM4" s="22">
         <v>40</v>
       </c>
-      <c r="GO4" s="22">
-        <v>39</v>
-      </c>
-      <c r="GP4" s="22">
+      <c r="HN4" s="22">
+        <v>43</v>
+      </c>
+      <c r="HO4" s="41">
+        <v>45</v>
+      </c>
+      <c r="HP4" s="41">
+        <v>48</v>
+      </c>
+      <c r="HQ4" s="41">
+        <v>45</v>
+      </c>
+      <c r="HR4" s="41">
+        <v>47</v>
+      </c>
+      <c r="HS4" s="41">
+        <v>51</v>
+      </c>
+      <c r="HT4" s="41">
+        <v>47</v>
+      </c>
+      <c r="HU4" s="41">
+        <v>57</v>
+      </c>
+      <c r="HV4" s="41">
+        <v>60</v>
+      </c>
+      <c r="HW4" s="41">
+        <v>55</v>
+      </c>
+      <c r="HX4" s="41">
+        <v>50</v>
+      </c>
+      <c r="HY4" s="41">
+        <v>43</v>
+      </c>
+      <c r="HZ4" s="41">
+        <v>41</v>
+      </c>
+      <c r="IA4" s="41">
         <v>44</v>
       </c>
-      <c r="GQ4" s="22">
-        <v>51</v>
-      </c>
-      <c r="GR4" s="22">
-        <v>58</v>
-      </c>
-      <c r="GS4" s="22">
-        <v>68</v>
-      </c>
-      <c r="GT4" s="22">
-        <v>70</v>
-      </c>
-      <c r="GU4" s="22">
-        <v>73</v>
-      </c>
-      <c r="GV4" s="22">
-        <v>65</v>
-      </c>
-      <c r="GW4" s="22">
-        <v>76</v>
-      </c>
-      <c r="GX4" s="22">
-        <v>77</v>
-      </c>
-      <c r="GY4" s="22">
-        <v>75</v>
-      </c>
-      <c r="GZ4" s="22">
-        <v>75</v>
-      </c>
-      <c r="HA4" s="22">
+      <c r="IB4" s="41">
+        <v>49</v>
+      </c>
+      <c r="IC4" s="41">
+        <v>44</v>
+      </c>
+      <c r="ID4" s="41">
+        <v>40</v>
+      </c>
+      <c r="IE4" s="41">
+        <v>40</v>
+      </c>
+      <c r="IF4" s="41">
+        <v>46</v>
+      </c>
+      <c r="IG4" s="22">
+        <v>45</v>
+      </c>
+      <c r="IH4" s="22">
+        <v>44</v>
+      </c>
+      <c r="II4" s="22">
+        <v>56</v>
+      </c>
+      <c r="IJ4" s="22">
+        <v>59</v>
+      </c>
+      <c r="IK4" s="22">
         <v>85</v>
       </c>
-      <c r="HB4" s="22">
-        <v>71</v>
-      </c>
-      <c r="HC4" s="22">
-        <v>65</v>
-      </c>
-      <c r="HD4" s="22">
-        <v>67</v>
-      </c>
-      <c r="HE4" s="22">
-        <v>59</v>
-      </c>
-      <c r="HF4" s="22">
-        <v>54</v>
-      </c>
-      <c r="HG4" s="22">
-        <v>51</v>
-      </c>
-      <c r="HH4" s="22">
-        <v>49</v>
-      </c>
-      <c r="HI4" s="22">
-        <v>50</v>
-      </c>
-      <c r="HJ4" s="22">
-        <v>43</v>
-      </c>
-      <c r="HK4" s="22">
-        <v>35</v>
-      </c>
-      <c r="HL4" s="22">
-        <v>32</v>
-      </c>
-      <c r="HM4" s="22">
-        <v>35</v>
-      </c>
-      <c r="HN4" s="22">
-        <v>38</v>
-      </c>
-      <c r="HO4" s="41">
-        <v>40</v>
-      </c>
-      <c r="HP4" s="41">
-        <v>43</v>
-      </c>
-      <c r="HQ4" s="41">
-        <v>40</v>
-      </c>
-      <c r="HR4" s="41">
-        <v>42</v>
-      </c>
-      <c r="HS4" s="41">
-        <v>46</v>
-      </c>
-      <c r="HT4" s="41">
-        <v>42</v>
-      </c>
-      <c r="HU4" s="41">
-        <v>52</v>
-      </c>
-      <c r="HV4" s="41">
-        <v>55</v>
-      </c>
-      <c r="HW4" s="41">
-        <v>50</v>
-      </c>
-      <c r="HX4" s="41">
-        <v>45</v>
-      </c>
-      <c r="HY4" s="41">
-        <v>38</v>
-      </c>
-      <c r="HZ4" s="41">
-        <v>36</v>
-      </c>
-      <c r="IA4" s="41">
-        <v>39</v>
-      </c>
-      <c r="IB4" s="41">
-        <v>44</v>
-      </c>
-      <c r="IC4" s="41">
-        <v>39</v>
-      </c>
-      <c r="ID4" s="41">
-        <v>35</v>
-      </c>
-      <c r="IE4" s="41">
-        <v>35</v>
-      </c>
-      <c r="IF4" s="41">
-        <v>41</v>
-      </c>
-      <c r="IG4" s="22">
-        <v>40</v>
-      </c>
-      <c r="IH4" s="22">
-        <v>39</v>
-      </c>
-      <c r="II4" s="22">
-        <v>51</v>
-      </c>
-      <c r="IJ4" s="22">
-        <v>54</v>
-      </c>
-      <c r="IK4" s="22">
-        <v>80</v>
-      </c>
       <c r="IL4" s="22">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="IM4" s="22">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="IN4" s="22">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="IO4" s="22">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="IP4" s="22">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="IQ4" s="22">
+        <v>175</v>
+      </c>
+      <c r="IR4" s="22">
+        <v>185</v>
+      </c>
+      <c r="IS4" s="22">
+        <v>214</v>
+      </c>
+      <c r="IT4" s="22">
+        <v>223</v>
+      </c>
+      <c r="IU4" s="22">
+        <v>227</v>
+      </c>
+      <c r="IV4" s="22">
+        <v>218</v>
+      </c>
+      <c r="IW4" s="22">
+        <v>201</v>
+      </c>
+      <c r="IX4" s="22">
+        <v>205</v>
+      </c>
+      <c r="IY4" s="22">
+        <v>194</v>
+      </c>
+      <c r="IZ4" s="22">
+        <v>182</v>
+      </c>
+      <c r="JA4" s="22">
+        <v>174</v>
+      </c>
+      <c r="JB4" s="22">
+        <v>177</v>
+      </c>
+      <c r="JC4" s="22">
+        <v>176</v>
+      </c>
+      <c r="JD4" s="22">
+        <v>182</v>
+      </c>
+      <c r="JE4" s="22">
+        <v>180</v>
+      </c>
+      <c r="JF4" s="22">
         <v>170</v>
       </c>
-      <c r="IR4" s="22">
-        <v>180</v>
-      </c>
-      <c r="IS4" s="22">
-        <v>209</v>
-      </c>
-      <c r="IT4" s="22">
-        <v>218</v>
-      </c>
-      <c r="IU4" s="22">
-        <v>222</v>
-      </c>
-      <c r="IV4" s="22">
-        <v>213</v>
-      </c>
-      <c r="IW4" s="22">
-        <v>196</v>
-      </c>
-      <c r="IX4" s="22">
-        <v>200</v>
-      </c>
-      <c r="IY4" s="22">
+      <c r="JG4" s="22">
+        <v>163</v>
+      </c>
+      <c r="JH4" s="22">
+        <v>187</v>
+      </c>
+      <c r="JI4" s="22">
         <v>189</v>
       </c>
-      <c r="IZ4" s="22">
-        <v>177</v>
-      </c>
-      <c r="JA4" s="22">
-        <v>169</v>
-      </c>
-      <c r="JB4" s="22">
-        <v>172</v>
-      </c>
-      <c r="JC4" s="22">
-        <v>171</v>
-      </c>
-      <c r="JD4" s="22">
-        <v>177</v>
-      </c>
-      <c r="JE4" s="22">
-        <v>175</v>
-      </c>
-      <c r="JF4" s="22">
-        <v>165</v>
-      </c>
-      <c r="JG4" s="22">
-        <v>158</v>
-      </c>
-      <c r="JH4" s="22">
-        <v>182</v>
-      </c>
-      <c r="JI4" s="22">
-        <v>184</v>
-      </c>
       <c r="JJ4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="JK4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="JL4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="JM4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="JN4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="JO4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="JP4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="JQ4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="JR4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="JS4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="JT4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="JU4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="JV4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="JW4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="JX4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="JY4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="JZ4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="KA4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="KB4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="KC4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="KD4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="KE4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="KF4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="KG4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="KH4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="KI4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="KJ4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="KK4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="KL4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="KM4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="KN4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="KO4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="KP4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="KQ4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="KR4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="KS4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="KT4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="KU4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="KV4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="KW4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="KX4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="KY4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="KZ4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="LA4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="LB4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="LC4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="LD4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="LE4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="LF4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="LG4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="LH4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="LI4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="LJ4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="LK4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="LL4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="LM4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="LN4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="LO4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="LP4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="LQ4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="LR4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="LS4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="LT4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="LU4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="LV4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="LW4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="LX4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="LY4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="LZ4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="MA4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="MB4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="MC4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="MD4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="ME4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="MF4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="MG4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="MH4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="MI4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="MJ4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="MK4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="ML4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="MM4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="MN4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="MO4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="MP4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="MQ4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="MR4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="MS4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="MT4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="MU4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="MV4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="MW4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="MX4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="MY4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="MZ4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="NA4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="NB4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="NC4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="ND4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="NE4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="NF4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="NG4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="NH4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="NI4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="NJ4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="NK4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="NL4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="NM4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="NN4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="NO4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="NP4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="NQ4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="NR4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="NS4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="NT4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="NU4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="NV4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="NW4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="NX4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="NY4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="NZ4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="OA4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="OB4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="OC4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="OD4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="OE4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="OF4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="OG4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="OH4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="OI4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="OJ4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="OK4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="OL4" s="22">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:402" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -53274,907 +53275,907 @@
         <v>88</v>
       </c>
       <c r="CX9" s="22">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="CY9" s="22">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="CZ9" s="22">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="DA9" s="22">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="DB9" s="22">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="DC9" s="22">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="DD9" s="22">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="DE9" s="22">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="DF9" s="22">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="DG9" s="22">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="DH9" s="22">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="DI9" s="22">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="DJ9" s="22">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="DK9" s="22">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="DL9" s="22">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="DM9" s="22">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="DN9" s="22">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="DO9" s="22">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="DP9" s="22">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="DQ9" s="22">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="DR9" s="22">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="DS9" s="22">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="DT9" s="22">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="DU9" s="22">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="DV9" s="22">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="DW9" s="22">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="DX9" s="22">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="DY9" s="22">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="DZ9" s="22">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="EA9" s="22">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="EB9" s="22">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="EC9" s="22">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="ED9" s="22">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="EE9" s="22">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="EF9" s="22">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="EG9" s="22">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="EH9" s="22">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="EI9" s="22">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="EJ9" s="22">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="EK9" s="22">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="EL9" s="22">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="EM9" s="22">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="EN9" s="22">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="EO9" s="22">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="EP9" s="22">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="EQ9" s="22">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="ER9" s="22">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="ES9" s="22">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="ET9" s="22">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="EU9" s="22">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="EV9" s="22">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="EW9" s="22">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="EX9" s="22">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="EY9" s="22">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="EZ9" s="22">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="FA9" s="22">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="FB9" s="22">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="FC9" s="22">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="FD9" s="22">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="FE9" s="22">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="FF9" s="22">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="FG9" s="22">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="FH9" s="22">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="FI9" s="22">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="FJ9" s="22">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="FK9" s="22">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="FL9" s="22">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="FM9" s="22">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="FN9" s="22">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="FO9" s="22">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="FP9" s="22">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="FQ9" s="22">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="FR9" s="22">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="FS9" s="22">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="FT9" s="22">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="FU9" s="22">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="FV9" s="22">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="FW9" s="22">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="FX9" s="22">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="FY9" s="22">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="FZ9" s="22">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="GA9" s="22">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="GB9" s="22">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="GC9" s="22">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="GD9" s="22">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="GE9" s="22">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="GF9" s="22">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="GG9" s="22">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="GH9" s="22">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="GI9" s="22">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="GJ9" s="22">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="GK9" s="22">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="GL9" s="22">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="GM9" s="22">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="GN9" s="22">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="GO9" s="22">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="GP9" s="22">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="GQ9" s="22">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="GR9" s="22">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="GS9" s="22">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="GT9" s="22">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="GU9" s="22">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="GV9" s="22">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="GW9" s="22">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="GX9" s="22">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="GY9" s="22">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="GZ9" s="22">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="HA9" s="22">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="HB9" s="22">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="HC9" s="22">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="HD9" s="22">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="HE9" s="22">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="HF9" s="22">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="HG9" s="22">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="HH9" s="22">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="HI9" s="22">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="HJ9" s="22">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="HK9" s="22">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="HL9" s="22">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="HM9" s="22">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="HN9" s="22">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="HO9" s="22">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="HP9" s="22">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="HQ9" s="22">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="HR9" s="22">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="HS9" s="22">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="HT9" s="22">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="HU9" s="22">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="HV9" s="22">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="HW9" s="22">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="HX9" s="22">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="HY9" s="22">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="HZ9" s="22">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="IA9" s="22">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="IB9" s="22">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="IC9" s="22">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="ID9" s="22">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="IE9" s="22">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="IF9" s="22">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="IG9" s="22">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="IH9" s="22">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="II9" s="22">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="IJ9" s="22">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="IK9" s="22">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="IL9" s="22">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="IM9" s="22">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="IN9" s="22">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="IO9" s="22">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="IP9" s="22">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="IQ9" s="22">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="IR9" s="22">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="IS9" s="22">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="IT9" s="22">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="IU9" s="22">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="IV9" s="22">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="IW9" s="22">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="IX9" s="22">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="IY9" s="22">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="IZ9" s="22">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="JA9" s="22">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="JB9" s="22">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="JC9" s="22">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="JD9" s="22">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="JE9" s="22">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="JF9" s="22">
-        <v>984</v>
+        <v>989</v>
       </c>
       <c r="JG9" s="22">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="JH9" s="22">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="JI9" s="22">
-        <v>1045</v>
+        <v>1050</v>
       </c>
       <c r="JJ9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="JK9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="JL9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="JM9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="JN9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="JO9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="JP9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="JQ9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="JR9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="JS9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="JT9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="JU9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="JV9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="JW9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="JX9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="JY9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="JZ9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="KA9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="KB9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="KC9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="KD9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="KE9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="KF9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="KG9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="KH9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="KI9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="KJ9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="KK9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="KL9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="KM9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="KN9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="KO9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="KP9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="KQ9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="KR9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="KS9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="KT9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="KU9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="KV9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="KW9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="KX9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="KY9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="KZ9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="LA9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="LB9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="LC9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="LD9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="LE9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="LF9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="LG9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="LH9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="LI9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="LJ9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="LK9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="LL9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="LM9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="LN9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="LO9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="LP9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="LQ9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="LR9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="LS9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="LT9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="LU9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="LV9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="LW9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="LX9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="LY9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="LZ9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="MA9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="MB9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="MC9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="MD9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="ME9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="MF9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="MG9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="MH9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="MI9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="MJ9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="MK9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="ML9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="MM9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="MN9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="MO9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="MP9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="MQ9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="MR9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="MS9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="MT9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="MU9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="MV9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="MW9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="MX9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="MY9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="MZ9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="NA9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="NB9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="NC9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="ND9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="NE9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="NF9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="NG9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="NH9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="NI9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="NJ9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="NK9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="NL9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="NM9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="NN9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="NO9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="NP9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="NQ9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="NR9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="NS9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="NT9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="NU9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="NV9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="NW9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="NX9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="NY9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="NZ9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="OA9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="OB9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="OC9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="OD9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="OE9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="OF9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="OG9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="OH9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="OI9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="OJ9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="OK9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="OL9" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="10" spans="1:402" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -54182,7 +54183,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="22">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="60"/>
@@ -54478,7 +54479,7 @@
         <v>0</v>
       </c>
       <c r="CX10" s="22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="CY10" s="22">
         <v>0</v>
@@ -54511,7 +54512,7 @@
         <v>0</v>
       </c>
       <c r="DI10" s="22">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="DJ10" s="22">
         <v>0</v>
@@ -54982,7 +54983,7 @@
         <v>14</v>
       </c>
       <c r="JJ10" s="22">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="JK10" s="22">
         <v>0</v>
@@ -58591,403 +58592,403 @@
         <v>0</v>
       </c>
       <c r="JJ13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="JK13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="JL13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="JM13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="JN13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="JO13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="JP13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="JQ13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="JR13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="JS13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="JT13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="JU13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="JV13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="JW13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="JX13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="JY13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="JZ13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="KA13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="KB13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="KC13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="KD13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="KE13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="KF13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="KG13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="KH13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="KI13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="KJ13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="KK13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="KL13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="KM13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="KN13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="KO13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="KP13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="KQ13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="KR13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="KS13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="KT13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="KU13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="KV13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="KW13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="KX13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="KY13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="KZ13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="LA13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="LB13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="LC13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="LD13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="LE13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="LF13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="LG13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="LH13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="LI13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="LJ13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="LK13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="LL13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="LM13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="LN13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="LO13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="LP13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="LQ13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="LR13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="LS13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="LT13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="LU13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="LV13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="LW13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="LX13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="LY13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="LZ13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="MA13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="MB13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="MC13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="MD13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="ME13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="MF13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="MG13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="MH13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="MI13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="MJ13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="MK13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="ML13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="MM13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="MN13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="MO13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="MP13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="MQ13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="MR13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="MS13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="MT13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="MU13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="MV13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="MW13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="MX13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="MY13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="MZ13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NA13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NB13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NC13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="ND13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NE13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NF13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NG13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NH13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NI13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NJ13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NK13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NL13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NM13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NN13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NO13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NP13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NQ13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NR13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NS13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NT13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NU13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NV13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NW13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NX13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NY13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NZ13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="OA13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="OB13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="OC13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="OD13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="OE13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="OF13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="OG13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="OH13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="OI13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="OJ13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="OK13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="OL13" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:402" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -63532,403 +63533,403 @@
         <v>8</v>
       </c>
       <c r="JJ18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="JK18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="JL18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="JM18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="JN18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="JO18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="JP18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="JQ18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="JR18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="JS18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="JT18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="JU18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="JV18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="JW18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="JX18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="JY18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="JZ18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="KA18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="KB18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="KC18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="KD18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="KE18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="KF18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="KG18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="KH18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="KI18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="KJ18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="KK18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="KL18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="KM18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="KN18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="KO18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="KP18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="KQ18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="KR18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="KS18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="KT18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="KU18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="KV18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="KW18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="KX18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="KY18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="KZ18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="LA18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="LB18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="LC18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="LD18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="LE18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="LF18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="LG18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="LH18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="LI18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="LJ18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="LK18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="LL18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="LM18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="LN18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="LO18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="LP18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="LQ18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="LR18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="LS18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="LT18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="LU18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="LV18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="LW18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="LX18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="LY18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="LZ18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="MA18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="MB18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="MC18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="MD18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="ME18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="MF18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="MG18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="MH18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="MI18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="MJ18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="MK18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="ML18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="MM18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="MN18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="MO18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="MP18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="MQ18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="MR18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="MS18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="MT18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="MU18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="MV18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="MW18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="MX18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="MY18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="MZ18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="NA18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="NB18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="NC18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="ND18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="NE18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="NF18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="NG18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="NH18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="NI18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="NJ18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="NK18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="NL18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="NM18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="NN18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="NO18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="NP18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="NQ18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="NR18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="NS18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="NT18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="NU18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="NV18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="NW18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="NX18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="NY18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="NZ18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="OA18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="OB18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="OC18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="OD18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="OE18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="OF18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="OG18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="OH18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="OI18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="OJ18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="OK18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="OL18" s="22">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:402" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -63936,7 +63937,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="22">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" s="37"/>
       <c r="D19" s="60"/>
@@ -64736,7 +64737,7 @@
         <v>0</v>
       </c>
       <c r="JJ19" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="JK19" s="22">
         <v>0</v>
@@ -65140,7 +65141,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="22">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C20" s="37"/>
       <c r="D20" s="60"/>
@@ -65154,7 +65155,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="22">
         <v>0</v>
@@ -65463,7 +65464,7 @@
         <v>0</v>
       </c>
       <c r="DG20" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DH20" s="22">
         <v>0</v>
@@ -65496,7 +65497,7 @@
         <v>0</v>
       </c>
       <c r="DR20" s="22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="DS20" s="22">
         <v>0</v>
@@ -77436,14 +77437,14 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{DF1194B1-EBAB-4941-A075-CF0AED6A020A}" scale="85" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1" view="pageBreakPreview" topLeftCell="A49">
+    <customSheetView guid="{52D76B34-E0A5-4D8A-BB93-26BF349B7B6B}" scale="85" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1" view="pageBreakPreview" topLeftCell="A49">
       <pane xSplit="5" topLeftCell="GI1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="O8" sqref="O8"/>
       <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.47244094488188981" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
       <printOptions horizontalCentered="1" verticalCentered="1"/>
       <pageSetup paperSize="8" scale="26" orientation="landscape" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{52D76B34-E0A5-4D8A-BB93-26BF349B7B6B}" scale="85" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1" view="pageBreakPreview" topLeftCell="A49">
+    <customSheetView guid="{DF1194B1-EBAB-4941-A075-CF0AED6A020A}" scale="85" showPageBreaks="1" showGridLines="0" fitToPage="1" printArea="1" view="pageBreakPreview" topLeftCell="A49">
       <pane xSplit="5" topLeftCell="GI1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="O8" sqref="O8"/>
       <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.47244094488188981" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -77477,7 +77478,7 @@
   <dimension ref="A1:HI791"/>
   <sheetViews>
     <sheetView showGridLines="0" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -78234,13 +78235,13 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -78260,7 +78261,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -78280,7 +78281,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -78300,7 +78301,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -78320,7 +78321,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -78340,7 +78341,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -78360,7 +78361,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -78380,7 +78381,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -78400,7 +78401,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -78420,7 +78421,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -78440,7 +78441,7 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -78460,7 +78461,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -78480,7 +78481,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -78500,7 +78501,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -78520,7 +78521,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -78540,7 +78541,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -78560,7 +78561,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -78580,7 +78581,7 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -78600,7 +78601,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -78620,7 +78621,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -78640,7 +78641,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -78660,7 +78661,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -78680,7 +78681,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -78700,7 +78701,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -78720,7 +78721,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -78740,7 +78741,7 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -78760,7 +78761,7 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -78780,7 +78781,7 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -78800,7 +78801,7 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -78820,7 +78821,7 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -78840,7 +78841,7 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -78860,7 +78861,7 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -78880,7 +78881,7 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -78900,7 +78901,7 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -78920,7 +78921,7 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F70">
         <v>2</v>
@@ -78940,7 +78941,7 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F71">
         <v>2</v>
@@ -78960,7 +78961,7 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F72">
         <v>2</v>
@@ -78980,7 +78981,7 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F73">
         <v>4</v>
@@ -79000,7 +79001,7 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F74">
         <v>6</v>
@@ -79020,7 +79021,7 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F75">
         <v>7</v>
@@ -79040,7 +79041,7 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76">
         <v>11</v>
@@ -79060,7 +79061,7 @@
         <v>0</v>
       </c>
       <c r="E77">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F77">
         <v>12</v>
@@ -79080,7 +79081,7 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F78">
         <v>18</v>
@@ -79100,7 +79101,7 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F79">
         <v>20</v>
@@ -79120,7 +79121,7 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F80">
         <v>23</v>
@@ -79140,7 +79141,7 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F81">
         <v>26</v>
@@ -79160,7 +79161,7 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F82">
         <v>32</v>
@@ -79180,7 +79181,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F83">
         <v>34</v>
@@ -79200,7 +79201,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F84">
         <v>36</v>
@@ -79220,7 +79221,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F85">
         <v>38</v>
@@ -79240,7 +79241,7 @@
         <v>0</v>
       </c>
       <c r="E86">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F86">
         <v>45</v>
@@ -79260,7 +79261,7 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F87">
         <v>51</v>
@@ -79280,7 +79281,7 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F88">
         <v>54</v>
@@ -79300,7 +79301,7 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F89">
         <v>64</v>
@@ -79320,7 +79321,7 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F90">
         <v>65</v>
@@ -79340,7 +79341,7 @@
         <v>0</v>
       </c>
       <c r="E91">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F91">
         <v>78</v>
@@ -79360,7 +79361,7 @@
         <v>0</v>
       </c>
       <c r="E92">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F92">
         <v>79</v>
@@ -79380,7 +79381,7 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F93">
         <v>83</v>
@@ -79400,7 +79401,7 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F94">
         <v>83</v>
@@ -79420,7 +79421,7 @@
         <v>0</v>
       </c>
       <c r="E95">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F95">
         <v>84</v>
@@ -79440,7 +79441,7 @@
         <v>0</v>
       </c>
       <c r="E96">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F96">
         <v>84</v>
@@ -79460,7 +79461,7 @@
         <v>0</v>
       </c>
       <c r="E97">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F97">
         <v>84</v>
@@ -79480,7 +79481,7 @@
         <v>0</v>
       </c>
       <c r="E98">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F98">
         <v>84</v>
@@ -79500,7 +79501,7 @@
         <v>0</v>
       </c>
       <c r="E99">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F99">
         <v>84</v>
@@ -79520,7 +79521,7 @@
         <v>0</v>
       </c>
       <c r="E100">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F100">
         <v>85</v>
@@ -79540,7 +79541,7 @@
         <v>0</v>
       </c>
       <c r="E101">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F101">
         <v>85</v>
@@ -79560,7 +79561,7 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F102">
         <v>86</v>
@@ -79580,7 +79581,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F103">
         <v>88</v>
@@ -79600,7 +79601,7 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F104">
         <v>88</v>
@@ -79620,7 +79621,7 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F105">
         <v>88</v>
@@ -79640,7 +79641,7 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F106">
         <v>88</v>
@@ -79660,7 +79661,7 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F107">
         <v>88</v>
@@ -79680,7 +79681,7 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F108">
         <v>88</v>
@@ -79700,7 +79701,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F109">
         <v>88</v>
@@ -79720,7 +79721,7 @@
         <v>0</v>
       </c>
       <c r="E110">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F110">
         <v>88</v>
@@ -79740,7 +79741,7 @@
         <v>0</v>
       </c>
       <c r="E111">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F111">
         <v>88</v>
@@ -79760,7 +79761,7 @@
         <v>0</v>
       </c>
       <c r="E112">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F112">
         <v>88</v>
@@ -79780,7 +79781,7 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F113">
         <v>88</v>
@@ -79800,7 +79801,7 @@
         <v>0</v>
       </c>
       <c r="E114">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F114">
         <v>88</v>
@@ -79820,7 +79821,7 @@
         <v>0</v>
       </c>
       <c r="E115">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F115">
         <v>88</v>
@@ -79840,7 +79841,7 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F116">
         <v>88</v>
@@ -79860,7 +79861,7 @@
         <v>0</v>
       </c>
       <c r="E117">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F117">
         <v>88</v>
@@ -79880,7 +79881,7 @@
         <v>0</v>
       </c>
       <c r="E118">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F118">
         <v>88</v>
@@ -79900,7 +79901,7 @@
         <v>0</v>
       </c>
       <c r="E119">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F119">
         <v>88</v>
@@ -79920,7 +79921,7 @@
         <v>0</v>
       </c>
       <c r="E120">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F120">
         <v>88</v>
@@ -79940,7 +79941,7 @@
         <v>0</v>
       </c>
       <c r="E121">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F121">
         <v>88</v>
@@ -79960,7 +79961,7 @@
         <v>0</v>
       </c>
       <c r="E122">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F122">
         <v>88</v>
@@ -79980,7 +79981,7 @@
         <v>0</v>
       </c>
       <c r="E123">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F123">
         <v>88</v>
@@ -80000,7 +80001,7 @@
         <v>0</v>
       </c>
       <c r="E124">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F124">
         <v>88</v>
@@ -80020,7 +80021,7 @@
         <v>0</v>
       </c>
       <c r="E125">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F125">
         <v>88</v>
@@ -80040,7 +80041,7 @@
         <v>0</v>
       </c>
       <c r="E126">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F126">
         <v>88</v>
@@ -80060,7 +80061,7 @@
         <v>0</v>
       </c>
       <c r="E127">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F127">
         <v>88</v>
@@ -80080,7 +80081,7 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F128">
         <v>88</v>
@@ -80100,7 +80101,7 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F129">
         <v>88</v>
@@ -80120,7 +80121,7 @@
         <v>0</v>
       </c>
       <c r="E130">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F130">
         <v>88</v>
@@ -80140,7 +80141,7 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F131">
         <v>88</v>
@@ -80160,7 +80161,7 @@
         <v>0</v>
       </c>
       <c r="E132">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F132">
         <v>88</v>
@@ -80180,7 +80181,7 @@
         <v>0</v>
       </c>
       <c r="E133">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F133">
         <v>88</v>
@@ -80200,7 +80201,7 @@
         <v>0</v>
       </c>
       <c r="E134">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F134">
         <v>88</v>
@@ -80220,7 +80221,7 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F135">
         <v>88</v>
@@ -80240,7 +80241,7 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F136">
         <v>88</v>
@@ -80260,7 +80261,7 @@
         <v>0</v>
       </c>
       <c r="E137">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F137">
         <v>88</v>
@@ -80280,7 +80281,7 @@
         <v>0</v>
       </c>
       <c r="E138">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F138">
         <v>88</v>
@@ -80300,7 +80301,7 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F139">
         <v>88</v>
@@ -80314,13 +80315,13 @@
         <v>0</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D140">
         <v>0</v>
       </c>
       <c r="E140">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F140">
         <v>88</v>
@@ -80340,7 +80341,7 @@
         <v>0</v>
       </c>
       <c r="E141">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F141">
         <v>88</v>
@@ -80360,7 +80361,7 @@
         <v>0</v>
       </c>
       <c r="E142">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F142">
         <v>88</v>
@@ -80380,7 +80381,7 @@
         <v>0</v>
       </c>
       <c r="E143">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F143">
         <v>88</v>
@@ -80400,7 +80401,7 @@
         <v>0</v>
       </c>
       <c r="E144">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F144">
         <v>88</v>
@@ -80420,7 +80421,7 @@
         <v>0</v>
       </c>
       <c r="E145">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F145">
         <v>88</v>
@@ -80440,7 +80441,7 @@
         <v>0</v>
       </c>
       <c r="E146">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F146">
         <v>88</v>
@@ -80460,7 +80461,7 @@
         <v>0</v>
       </c>
       <c r="E147">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F147">
         <v>88</v>
@@ -80480,7 +80481,7 @@
         <v>0</v>
       </c>
       <c r="E148">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F148">
         <v>88</v>
@@ -80500,7 +80501,7 @@
         <v>0</v>
       </c>
       <c r="E149">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F149">
         <v>88</v>
@@ -80520,7 +80521,7 @@
         <v>0</v>
       </c>
       <c r="E150">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F150">
         <v>88</v>
@@ -80534,13 +80535,13 @@
         <v>0</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D151">
         <v>0</v>
       </c>
       <c r="E151">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F151">
         <v>88</v>
@@ -80560,7 +80561,7 @@
         <v>0</v>
       </c>
       <c r="E152">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F152">
         <v>88</v>
@@ -80580,7 +80581,7 @@
         <v>0</v>
       </c>
       <c r="E153">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F153">
         <v>88</v>
@@ -80600,7 +80601,7 @@
         <v>0</v>
       </c>
       <c r="E154">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F154">
         <v>89</v>
@@ -80620,7 +80621,7 @@
         <v>0</v>
       </c>
       <c r="E155">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F155">
         <v>89</v>
@@ -80640,7 +80641,7 @@
         <v>0</v>
       </c>
       <c r="E156">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F156">
         <v>89</v>
@@ -80660,7 +80661,7 @@
         <v>0</v>
       </c>
       <c r="E157">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F157">
         <v>89</v>
@@ -80680,7 +80681,7 @@
         <v>0</v>
       </c>
       <c r="E158">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F158">
         <v>90</v>
@@ -80700,7 +80701,7 @@
         <v>0</v>
       </c>
       <c r="E159">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F159">
         <v>90</v>
@@ -80720,7 +80721,7 @@
         <v>0</v>
       </c>
       <c r="E160">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F160">
         <v>91</v>
@@ -80740,7 +80741,7 @@
         <v>0</v>
       </c>
       <c r="E161">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F161">
         <v>91</v>
@@ -80760,7 +80761,7 @@
         <v>0</v>
       </c>
       <c r="E162">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F162">
         <v>92</v>
@@ -80780,7 +80781,7 @@
         <v>0</v>
       </c>
       <c r="E163">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F163">
         <v>92</v>
@@ -80800,7 +80801,7 @@
         <v>0</v>
       </c>
       <c r="E164">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F164">
         <v>94</v>
@@ -80820,7 +80821,7 @@
         <v>0</v>
       </c>
       <c r="E165">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F165">
         <v>94</v>
@@ -80840,7 +80841,7 @@
         <v>0</v>
       </c>
       <c r="E166">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F166">
         <v>94</v>
@@ -80860,7 +80861,7 @@
         <v>0</v>
       </c>
       <c r="E167">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F167">
         <v>95</v>
@@ -80880,7 +80881,7 @@
         <v>0</v>
       </c>
       <c r="E168">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F168">
         <v>95</v>
@@ -80900,7 +80901,7 @@
         <v>0</v>
       </c>
       <c r="E169">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F169">
         <v>97</v>
@@ -80920,7 +80921,7 @@
         <v>0</v>
       </c>
       <c r="E170">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F170">
         <v>98</v>
@@ -80940,7 +80941,7 @@
         <v>0</v>
       </c>
       <c r="E171">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F171">
         <v>98</v>
@@ -80960,7 +80961,7 @@
         <v>0</v>
       </c>
       <c r="E172">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F172">
         <v>98</v>
@@ -80980,7 +80981,7 @@
         <v>0</v>
       </c>
       <c r="E173">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F173">
         <v>98</v>
@@ -81000,7 +81001,7 @@
         <v>0</v>
       </c>
       <c r="E174">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F174">
         <v>99</v>
@@ -81020,7 +81021,7 @@
         <v>0</v>
       </c>
       <c r="E175">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F175">
         <v>100</v>
@@ -81040,7 +81041,7 @@
         <v>0</v>
       </c>
       <c r="E176">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F176">
         <v>100</v>
@@ -81060,7 +81061,7 @@
         <v>0</v>
       </c>
       <c r="E177">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F177">
         <v>105</v>
@@ -81080,7 +81081,7 @@
         <v>0</v>
       </c>
       <c r="E178">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F178">
         <v>106</v>
@@ -81100,7 +81101,7 @@
         <v>0</v>
       </c>
       <c r="E179">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F179">
         <v>108</v>
@@ -81120,7 +81121,7 @@
         <v>0</v>
       </c>
       <c r="E180">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F180">
         <v>110</v>
@@ -81140,7 +81141,7 @@
         <v>0</v>
       </c>
       <c r="E181">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F181">
         <v>112</v>
@@ -81160,7 +81161,7 @@
         <v>0</v>
       </c>
       <c r="E182">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F182">
         <v>126</v>
@@ -81180,7 +81181,7 @@
         <v>0</v>
       </c>
       <c r="E183">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F183">
         <v>129</v>
@@ -81200,7 +81201,7 @@
         <v>0</v>
       </c>
       <c r="E184">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F184">
         <v>132</v>
@@ -81220,7 +81221,7 @@
         <v>0</v>
       </c>
       <c r="E185">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F185">
         <v>132</v>
@@ -81240,7 +81241,7 @@
         <v>0</v>
       </c>
       <c r="E186">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F186">
         <v>136</v>
@@ -81260,7 +81261,7 @@
         <v>0</v>
       </c>
       <c r="E187">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F187">
         <v>136</v>
@@ -81280,7 +81281,7 @@
         <v>0</v>
       </c>
       <c r="E188">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F188">
         <v>138</v>
@@ -81300,7 +81301,7 @@
         <v>0</v>
       </c>
       <c r="E189">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F189">
         <v>140</v>
@@ -81320,7 +81321,7 @@
         <v>0</v>
       </c>
       <c r="E190">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F190">
         <v>140</v>
@@ -81340,7 +81341,7 @@
         <v>0</v>
       </c>
       <c r="E191">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F191">
         <v>142</v>
@@ -81360,7 +81361,7 @@
         <v>0</v>
       </c>
       <c r="E192">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F192">
         <v>142</v>
@@ -81380,7 +81381,7 @@
         <v>0</v>
       </c>
       <c r="E193">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F193">
         <v>147</v>
@@ -81400,7 +81401,7 @@
         <v>0</v>
       </c>
       <c r="E194">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F194">
         <v>149</v>
@@ -81420,7 +81421,7 @@
         <v>0</v>
       </c>
       <c r="E195">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F195">
         <v>153</v>
@@ -81440,7 +81441,7 @@
         <v>0</v>
       </c>
       <c r="E196">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="F196">
         <v>158</v>
@@ -81460,7 +81461,7 @@
         <v>0</v>
       </c>
       <c r="E197">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F197">
         <v>160</v>
@@ -81480,7 +81481,7 @@
         <v>0</v>
       </c>
       <c r="E198">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F198">
         <v>165</v>
@@ -81500,7 +81501,7 @@
         <v>0</v>
       </c>
       <c r="E199">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F199">
         <v>168</v>
@@ -81520,7 +81521,7 @@
         <v>0</v>
       </c>
       <c r="E200">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F200">
         <v>174</v>
@@ -81540,7 +81541,7 @@
         <v>0</v>
       </c>
       <c r="E201">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F201">
         <v>176</v>
@@ -81560,7 +81561,7 @@
         <v>0</v>
       </c>
       <c r="E202">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F202">
         <v>177</v>
@@ -81580,7 +81581,7 @@
         <v>0</v>
       </c>
       <c r="E203">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F203">
         <v>181</v>
@@ -81600,7 +81601,7 @@
         <v>0</v>
       </c>
       <c r="E204">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F204">
         <v>181</v>
@@ -81620,7 +81621,7 @@
         <v>0</v>
       </c>
       <c r="E205">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F205">
         <v>182</v>
@@ -81640,7 +81641,7 @@
         <v>0</v>
       </c>
       <c r="E206">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F206">
         <v>182</v>
@@ -81660,7 +81661,7 @@
         <v>0</v>
       </c>
       <c r="E207">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F207">
         <v>182</v>
@@ -81680,7 +81681,7 @@
         <v>0</v>
       </c>
       <c r="E208">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="F208">
         <v>183</v>
@@ -81700,7 +81701,7 @@
         <v>0</v>
       </c>
       <c r="E209">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F209">
         <v>184</v>
@@ -81720,7 +81721,7 @@
         <v>0</v>
       </c>
       <c r="E210">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F210">
         <v>184</v>
@@ -81740,7 +81741,7 @@
         <v>0</v>
       </c>
       <c r="E211">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F211">
         <v>184</v>
@@ -81760,7 +81761,7 @@
         <v>0</v>
       </c>
       <c r="E212">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F212">
         <v>184</v>
@@ -81780,7 +81781,7 @@
         <v>0</v>
       </c>
       <c r="E213">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F213">
         <v>184</v>
@@ -81800,7 +81801,7 @@
         <v>0</v>
       </c>
       <c r="E214">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F214">
         <v>185</v>
@@ -81820,7 +81821,7 @@
         <v>0</v>
       </c>
       <c r="E215">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F215">
         <v>186</v>
@@ -81840,7 +81841,7 @@
         <v>0</v>
       </c>
       <c r="E216">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F216">
         <v>187</v>
@@ -81860,7 +81861,7 @@
         <v>0</v>
       </c>
       <c r="E217">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F217">
         <v>189</v>
@@ -81880,7 +81881,7 @@
         <v>0</v>
       </c>
       <c r="E218">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F218">
         <v>191</v>
@@ -81900,7 +81901,7 @@
         <v>0</v>
       </c>
       <c r="E219">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F219">
         <v>191</v>
@@ -81920,7 +81921,7 @@
         <v>0</v>
       </c>
       <c r="E220">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F220">
         <v>192</v>
@@ -81940,7 +81941,7 @@
         <v>0</v>
       </c>
       <c r="E221">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F221">
         <v>192</v>
@@ -81960,7 +81961,7 @@
         <v>0</v>
       </c>
       <c r="E222">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F222">
         <v>192</v>
@@ -81980,7 +81981,7 @@
         <v>0</v>
       </c>
       <c r="E223">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F223">
         <v>193</v>
@@ -82000,7 +82001,7 @@
         <v>0</v>
       </c>
       <c r="E224">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F224">
         <v>194</v>
@@ -82020,7 +82021,7 @@
         <v>0</v>
       </c>
       <c r="E225">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="F225">
         <v>200</v>
@@ -82040,7 +82041,7 @@
         <v>0</v>
       </c>
       <c r="E226">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F226">
         <v>203</v>
@@ -82060,7 +82061,7 @@
         <v>0</v>
       </c>
       <c r="E227">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F227">
         <v>204</v>
@@ -82080,7 +82081,7 @@
         <v>0</v>
       </c>
       <c r="E228">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F228">
         <v>208</v>
@@ -82100,7 +82101,7 @@
         <v>0</v>
       </c>
       <c r="E229">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F229">
         <v>211</v>
@@ -82120,7 +82121,7 @@
         <v>0</v>
       </c>
       <c r="E230">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F230">
         <v>215</v>
@@ -82140,7 +82141,7 @@
         <v>0</v>
       </c>
       <c r="E231">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F231">
         <v>227</v>
@@ -82160,7 +82161,7 @@
         <v>0</v>
       </c>
       <c r="E232">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F232">
         <v>231</v>
@@ -82180,7 +82181,7 @@
         <v>0</v>
       </c>
       <c r="E233">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F233">
         <v>239</v>
@@ -82200,7 +82201,7 @@
         <v>0</v>
       </c>
       <c r="E234">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F234">
         <v>242</v>
@@ -82220,7 +82221,7 @@
         <v>0</v>
       </c>
       <c r="E235">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="F235">
         <v>251</v>
@@ -82240,7 +82241,7 @@
         <v>0</v>
       </c>
       <c r="E236">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F236">
         <v>258</v>
@@ -82260,7 +82261,7 @@
         <v>0</v>
       </c>
       <c r="E237">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="F237">
         <v>268</v>
@@ -82280,7 +82281,7 @@
         <v>0</v>
       </c>
       <c r="E238">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F238">
         <v>276</v>
@@ -82300,7 +82301,7 @@
         <v>0</v>
       </c>
       <c r="E239">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F239">
         <v>292</v>
@@ -82320,7 +82321,7 @@
         <v>0</v>
       </c>
       <c r="E240">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="F240">
         <v>304</v>
@@ -82340,7 +82341,7 @@
         <v>0</v>
       </c>
       <c r="E241">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="F241">
         <v>310</v>
@@ -82360,7 +82361,7 @@
         <v>0</v>
       </c>
       <c r="E242">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F242">
         <v>313</v>
@@ -82380,7 +82381,7 @@
         <v>0</v>
       </c>
       <c r="E243">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F243">
         <v>332</v>
@@ -82400,7 +82401,7 @@
         <v>0</v>
       </c>
       <c r="E244">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="F244">
         <v>338</v>
@@ -82420,7 +82421,7 @@
         <v>0</v>
       </c>
       <c r="E245">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="F245">
         <v>347</v>
@@ -82440,7 +82441,7 @@
         <v>0</v>
       </c>
       <c r="E246">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="F246">
         <v>351</v>
@@ -82460,7 +82461,7 @@
         <v>0</v>
       </c>
       <c r="E247">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="F247">
         <v>366</v>
@@ -82480,7 +82481,7 @@
         <v>0</v>
       </c>
       <c r="E248">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F248">
         <v>367</v>
@@ -82500,7 +82501,7 @@
         <v>0</v>
       </c>
       <c r="E249">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F249">
         <v>369</v>
@@ -82520,7 +82521,7 @@
         <v>0</v>
       </c>
       <c r="E250">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="F250">
         <v>372</v>
@@ -82540,7 +82541,7 @@
         <v>0</v>
       </c>
       <c r="E251">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F251">
         <v>376</v>
@@ -82560,7 +82561,7 @@
         <v>0</v>
       </c>
       <c r="E252">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="F252">
         <v>383</v>
@@ -82580,7 +82581,7 @@
         <v>0</v>
       </c>
       <c r="E253">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="F253">
         <v>386</v>
@@ -82600,7 +82601,7 @@
         <v>0</v>
       </c>
       <c r="E254">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="F254">
         <v>389</v>
@@ -82620,7 +82621,7 @@
         <v>0</v>
       </c>
       <c r="E255">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="F255">
         <v>393</v>
@@ -82640,7 +82641,7 @@
         <v>0</v>
       </c>
       <c r="E256">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="F256">
         <v>398</v>
@@ -82660,7 +82661,7 @@
         <v>0</v>
       </c>
       <c r="E257">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="F257">
         <v>402</v>
@@ -82680,7 +82681,7 @@
         <v>0</v>
       </c>
       <c r="E258">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="F258">
         <v>407</v>
@@ -82700,7 +82701,7 @@
         <v>0</v>
       </c>
       <c r="E259">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="F259">
         <v>413</v>
@@ -82720,7 +82721,7 @@
         <v>1</v>
       </c>
       <c r="E260">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="F260">
         <v>418</v>
@@ -82740,7 +82741,7 @@
         <v>0</v>
       </c>
       <c r="E261">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="F261">
         <v>425</v>
@@ -82760,7 +82761,7 @@
         <v>0</v>
       </c>
       <c r="E262">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="F262">
         <v>428</v>
@@ -82780,7 +82781,7 @@
         <v>0</v>
       </c>
       <c r="E263">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="F263">
         <v>435</v>
@@ -82800,7 +82801,7 @@
         <v>0</v>
       </c>
       <c r="E264">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="F264">
         <v>443</v>
@@ -82820,7 +82821,7 @@
         <v>1</v>
       </c>
       <c r="E265">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="F265">
         <v>455</v>
@@ -82840,7 +82841,7 @@
         <v>0</v>
       </c>
       <c r="E266">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="F266">
         <v>461</v>
@@ -82860,7 +82861,7 @@
         <v>0</v>
       </c>
       <c r="E267">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="F267">
         <v>474</v>
@@ -82880,7 +82881,7 @@
         <v>0</v>
       </c>
       <c r="E268">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="F268">
         <v>484</v>
@@ -82900,7 +82901,7 @@
         <v>0</v>
       </c>
       <c r="E269">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="F269">
         <v>486</v>
@@ -82920,7 +82921,7 @@
         <v>0</v>
       </c>
       <c r="E270">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="F270">
         <v>494</v>
@@ -82940,7 +82941,7 @@
         <v>0</v>
       </c>
       <c r="E271">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="F271">
         <v>499</v>
@@ -82960,7 +82961,7 @@
         <v>0</v>
       </c>
       <c r="E272">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="F272">
         <v>504</v>
@@ -82980,7 +82981,7 @@
         <v>0</v>
       </c>
       <c r="E273">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="F273">
         <v>509</v>
@@ -83000,7 +83001,7 @@
         <v>0</v>
       </c>
       <c r="E274">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="F274">
         <v>522</v>
@@ -83020,7 +83021,7 @@
         <v>0</v>
       </c>
       <c r="E275">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="F275">
         <v>526</v>
@@ -83040,7 +83041,7 @@
         <v>0</v>
       </c>
       <c r="E276">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="F276">
         <v>526</v>
@@ -83060,7 +83061,7 @@
         <v>0</v>
       </c>
       <c r="E277">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="F277">
         <v>530</v>
@@ -83080,7 +83081,7 @@
         <v>0</v>
       </c>
       <c r="E278">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="F278">
         <v>539</v>
@@ -83100,7 +83101,7 @@
         <v>0</v>
       </c>
       <c r="E279">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="F279">
         <v>544</v>
@@ -83120,7 +83121,7 @@
         <v>0</v>
       </c>
       <c r="E280">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="F280">
         <v>546</v>
@@ -83140,7 +83141,7 @@
         <v>0</v>
       </c>
       <c r="E281">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="F281">
         <v>565</v>
@@ -83160,7 +83161,7 @@
         <v>0</v>
       </c>
       <c r="E282">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="F282">
         <v>572</v>
@@ -83180,7 +83181,7 @@
         <v>0</v>
       </c>
       <c r="E283">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="F283">
         <v>604</v>
@@ -83200,7 +83201,7 @@
         <v>0</v>
       </c>
       <c r="E284">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="F284">
         <v>611</v>
@@ -83220,7 +83221,7 @@
         <v>0</v>
       </c>
       <c r="E285">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="F285">
         <v>657</v>
@@ -83240,7 +83241,7 @@
         <v>0</v>
       </c>
       <c r="E286">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="F286">
         <v>681</v>
@@ -83260,7 +83261,7 @@
         <v>0</v>
       </c>
       <c r="E287">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="F287">
         <v>691</v>
@@ -83280,7 +83281,7 @@
         <v>0</v>
       </c>
       <c r="E288">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="F288">
         <v>703</v>
@@ -83300,7 +83301,7 @@
         <v>0</v>
       </c>
       <c r="E289">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="F289">
         <v>727</v>
@@ -83320,7 +83321,7 @@
         <v>0</v>
       </c>
       <c r="E290">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="F290">
         <v>742</v>
@@ -83340,7 +83341,7 @@
         <v>0</v>
       </c>
       <c r="E291">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="F291">
         <v>775</v>
@@ -83360,7 +83361,7 @@
         <v>0</v>
       </c>
       <c r="E292">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="F292">
         <v>794</v>
@@ -83380,7 +83381,7 @@
         <v>0</v>
       </c>
       <c r="E293">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="F293">
         <v>807</v>
@@ -83400,7 +83401,7 @@
         <v>0</v>
       </c>
       <c r="E294">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="F294">
         <v>824</v>
@@ -83420,7 +83421,7 @@
         <v>0</v>
       </c>
       <c r="E295">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="F295">
         <v>834</v>
@@ -83440,7 +83441,7 @@
         <v>0</v>
       </c>
       <c r="E296">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="F296">
         <v>860</v>
@@ -83460,7 +83461,7 @@
         <v>0</v>
       </c>
       <c r="E297">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="F297">
         <v>866</v>
@@ -83480,7 +83481,7 @@
         <v>0</v>
       </c>
       <c r="E298">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="F298">
         <v>878</v>
@@ -83500,7 +83501,7 @@
         <v>0</v>
       </c>
       <c r="E299">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="F299">
         <v>896</v>
@@ -83520,7 +83521,7 @@
         <v>0</v>
       </c>
       <c r="E300">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="F300">
         <v>929</v>
@@ -83540,7 +83541,7 @@
         <v>0</v>
       </c>
       <c r="E301">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="F301">
         <v>948</v>
@@ -83560,7 +83561,7 @@
         <v>0</v>
       </c>
       <c r="E302">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="F302">
         <v>976</v>
@@ -83580,7 +83581,7 @@
         <v>0</v>
       </c>
       <c r="E303">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="F303">
         <v>984</v>
@@ -83600,7 +83601,7 @@
         <v>0</v>
       </c>
       <c r="E304">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="F304">
         <v>989</v>
@@ -83620,7 +83621,7 @@
         <v>0</v>
       </c>
       <c r="E305">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="F305">
         <v>997</v>
@@ -83640,7 +83641,7 @@
         <v>0</v>
       </c>
       <c r="E306">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="F306">
         <v>1036</v>
@@ -83660,7 +83661,7 @@
         <v>0</v>
       </c>
       <c r="E307">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="F307">
         <v>1050</v>
@@ -83680,7 +83681,7 @@
         <v>0</v>
       </c>
       <c r="E308">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F308">
         <v>1061</v>
@@ -83700,7 +83701,7 @@
         <v>0</v>
       </c>
       <c r="E309">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F309">
         <v>1061</v>
@@ -83720,7 +83721,7 @@
         <v>0</v>
       </c>
       <c r="E310">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F310">
         <v>1061</v>
@@ -83740,7 +83741,7 @@
         <v>0</v>
       </c>
       <c r="E311">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F311">
         <v>1061</v>
@@ -83760,7 +83761,7 @@
         <v>0</v>
       </c>
       <c r="E312">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F312">
         <v>1061</v>
@@ -83780,7 +83781,7 @@
         <v>0</v>
       </c>
       <c r="E313">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F313">
         <v>1061</v>
@@ -83800,7 +83801,7 @@
         <v>0</v>
       </c>
       <c r="E314">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F314">
         <v>1061</v>
@@ -83820,7 +83821,7 @@
         <v>0</v>
       </c>
       <c r="E315">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F315">
         <v>1061</v>
@@ -83840,7 +83841,7 @@
         <v>0</v>
       </c>
       <c r="E316">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F316">
         <v>1061</v>
@@ -83860,7 +83861,7 @@
         <v>0</v>
       </c>
       <c r="E317">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F317">
         <v>1061</v>
@@ -83880,7 +83881,7 @@
         <v>0</v>
       </c>
       <c r="E318">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F318">
         <v>1061</v>
@@ -83900,7 +83901,7 @@
         <v>0</v>
       </c>
       <c r="E319">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F319">
         <v>1061</v>
@@ -83920,7 +83921,7 @@
         <v>0</v>
       </c>
       <c r="E320">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F320">
         <v>1061</v>
@@ -83940,7 +83941,7 @@
         <v>0</v>
       </c>
       <c r="E321">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F321">
         <v>1061</v>
@@ -83960,7 +83961,7 @@
         <v>0</v>
       </c>
       <c r="E322">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F322">
         <v>1061</v>
@@ -83980,7 +83981,7 @@
         <v>0</v>
       </c>
       <c r="E323">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F323">
         <v>1061</v>
@@ -84000,7 +84001,7 @@
         <v>0</v>
       </c>
       <c r="E324">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F324">
         <v>1061</v>
@@ -84020,7 +84021,7 @@
         <v>0</v>
       </c>
       <c r="E325">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F325">
         <v>1061</v>
@@ -84040,7 +84041,7 @@
         <v>0</v>
       </c>
       <c r="E326">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F326">
         <v>1061</v>
@@ -84060,7 +84061,7 @@
         <v>0</v>
       </c>
       <c r="E327">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F327">
         <v>1061</v>
@@ -84080,7 +84081,7 @@
         <v>0</v>
       </c>
       <c r="E328">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F328">
         <v>1061</v>
@@ -84100,7 +84101,7 @@
         <v>0</v>
       </c>
       <c r="E329">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F329">
         <v>1061</v>
@@ -84120,7 +84121,7 @@
         <v>0</v>
       </c>
       <c r="E330">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F330">
         <v>1061</v>
@@ -84140,7 +84141,7 @@
         <v>0</v>
       </c>
       <c r="E331">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F331">
         <v>1061</v>
@@ -84160,7 +84161,7 @@
         <v>0</v>
       </c>
       <c r="E332">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F332">
         <v>1061</v>
@@ -84180,7 +84181,7 @@
         <v>0</v>
       </c>
       <c r="E333">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F333">
         <v>1061</v>
@@ -84200,7 +84201,7 @@
         <v>0</v>
       </c>
       <c r="E334">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F334">
         <v>1061</v>
@@ -84220,7 +84221,7 @@
         <v>0</v>
       </c>
       <c r="E335">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F335">
         <v>1061</v>
@@ -84240,7 +84241,7 @@
         <v>0</v>
       </c>
       <c r="E336">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F336">
         <v>1061</v>
@@ -84260,7 +84261,7 @@
         <v>0</v>
       </c>
       <c r="E337">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F337">
         <v>1061</v>
@@ -84280,7 +84281,7 @@
         <v>0</v>
       </c>
       <c r="E338">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F338">
         <v>1061</v>
@@ -84300,7 +84301,7 @@
         <v>0</v>
       </c>
       <c r="E339">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F339">
         <v>1061</v>
@@ -84320,7 +84321,7 @@
         <v>0</v>
       </c>
       <c r="E340">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F340">
         <v>1061</v>
@@ -84340,7 +84341,7 @@
         <v>0</v>
       </c>
       <c r="E341">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F341">
         <v>1061</v>
@@ -84360,7 +84361,7 @@
         <v>0</v>
       </c>
       <c r="E342">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F342">
         <v>1061</v>
@@ -84380,7 +84381,7 @@
         <v>0</v>
       </c>
       <c r="E343">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F343">
         <v>1061</v>
@@ -84400,7 +84401,7 @@
         <v>0</v>
       </c>
       <c r="E344">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F344">
         <v>1061</v>
@@ -84420,7 +84421,7 @@
         <v>0</v>
       </c>
       <c r="E345">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F345">
         <v>1061</v>
@@ -84440,7 +84441,7 @@
         <v>0</v>
       </c>
       <c r="E346">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F346">
         <v>1061</v>
@@ -84460,7 +84461,7 @@
         <v>0</v>
       </c>
       <c r="E347">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F347">
         <v>1061</v>
@@ -84480,7 +84481,7 @@
         <v>0</v>
       </c>
       <c r="E348">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F348">
         <v>1061</v>
@@ -84500,7 +84501,7 @@
         <v>0</v>
       </c>
       <c r="E349">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F349">
         <v>1061</v>
@@ -84520,7 +84521,7 @@
         <v>0</v>
       </c>
       <c r="E350">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F350">
         <v>1061</v>
@@ -84540,7 +84541,7 @@
         <v>0</v>
       </c>
       <c r="E351">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F351">
         <v>1061</v>
@@ -84560,7 +84561,7 @@
         <v>0</v>
       </c>
       <c r="E352">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F352">
         <v>1061</v>
@@ -84580,7 +84581,7 @@
         <v>0</v>
       </c>
       <c r="E353">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F353">
         <v>1061</v>
@@ -84600,7 +84601,7 @@
         <v>0</v>
       </c>
       <c r="E354">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F354">
         <v>1061</v>
@@ -84620,7 +84621,7 @@
         <v>0</v>
       </c>
       <c r="E355">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F355">
         <v>1061</v>
@@ -84640,7 +84641,7 @@
         <v>0</v>
       </c>
       <c r="E356">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F356">
         <v>1061</v>
@@ -84660,7 +84661,7 @@
         <v>0</v>
       </c>
       <c r="E357">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F357">
         <v>1061</v>
@@ -84680,7 +84681,7 @@
         <v>0</v>
       </c>
       <c r="E358">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F358">
         <v>1061</v>
@@ -84700,7 +84701,7 @@
         <v>0</v>
       </c>
       <c r="E359">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F359">
         <v>1061</v>
@@ -84720,7 +84721,7 @@
         <v>0</v>
       </c>
       <c r="E360">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F360">
         <v>1061</v>
@@ -84740,7 +84741,7 @@
         <v>0</v>
       </c>
       <c r="E361">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F361">
         <v>1061</v>
@@ -84760,7 +84761,7 @@
         <v>0</v>
       </c>
       <c r="E362">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F362">
         <v>1061</v>
@@ -84780,7 +84781,7 @@
         <v>0</v>
       </c>
       <c r="E363">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F363">
         <v>1061</v>
@@ -84800,7 +84801,7 @@
         <v>0</v>
       </c>
       <c r="E364">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F364">
         <v>1061</v>
@@ -84820,7 +84821,7 @@
         <v>0</v>
       </c>
       <c r="E365">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F365">
         <v>1061</v>
@@ -84840,7 +84841,7 @@
         <v>0</v>
       </c>
       <c r="E366">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F366">
         <v>1061</v>
@@ -84860,7 +84861,7 @@
         <v>0</v>
       </c>
       <c r="E367">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F367">
         <v>1061</v>
@@ -84880,7 +84881,7 @@
         <v>0</v>
       </c>
       <c r="E368">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F368">
         <v>1061</v>
@@ -84900,7 +84901,7 @@
         <v>0</v>
       </c>
       <c r="E369">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F369">
         <v>1061</v>
@@ -84920,7 +84921,7 @@
         <v>0</v>
       </c>
       <c r="E370">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F370">
         <v>1061</v>
@@ -84940,7 +84941,7 @@
         <v>0</v>
       </c>
       <c r="E371">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F371">
         <v>1061</v>
@@ -84960,7 +84961,7 @@
         <v>0</v>
       </c>
       <c r="E372">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F372">
         <v>1061</v>
@@ -84980,7 +84981,7 @@
         <v>0</v>
       </c>
       <c r="E373">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F373">
         <v>1061</v>
@@ -85000,7 +85001,7 @@
         <v>0</v>
       </c>
       <c r="E374">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F374">
         <v>1061</v>
@@ -85020,7 +85021,7 @@
         <v>0</v>
       </c>
       <c r="E375">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F375">
         <v>1061</v>
@@ -85040,7 +85041,7 @@
         <v>0</v>
       </c>
       <c r="E376">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F376">
         <v>1061</v>
@@ -85060,7 +85061,7 @@
         <v>0</v>
       </c>
       <c r="E377">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F377">
         <v>1061</v>
@@ -85080,7 +85081,7 @@
         <v>0</v>
       </c>
       <c r="E378">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F378">
         <v>1061</v>
@@ -85100,7 +85101,7 @@
         <v>0</v>
       </c>
       <c r="E379">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F379">
         <v>1061</v>
@@ -85120,7 +85121,7 @@
         <v>0</v>
       </c>
       <c r="E380">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F380">
         <v>1061</v>
@@ -85140,7 +85141,7 @@
         <v>0</v>
       </c>
       <c r="E381">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F381">
         <v>1061</v>
@@ -85160,7 +85161,7 @@
         <v>0</v>
       </c>
       <c r="E382">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F382">
         <v>1061</v>
@@ -85180,7 +85181,7 @@
         <v>0</v>
       </c>
       <c r="E383">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F383">
         <v>1061</v>
@@ -85200,7 +85201,7 @@
         <v>0</v>
       </c>
       <c r="E384">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F384">
         <v>1061</v>
@@ -85220,7 +85221,7 @@
         <v>0</v>
       </c>
       <c r="E385">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F385">
         <v>1061</v>
@@ -85240,7 +85241,7 @@
         <v>0</v>
       </c>
       <c r="E386">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F386">
         <v>1061</v>
@@ -85260,7 +85261,7 @@
         <v>0</v>
       </c>
       <c r="E387">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F387">
         <v>1061</v>
@@ -85280,7 +85281,7 @@
         <v>0</v>
       </c>
       <c r="E388">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F388">
         <v>1061</v>
@@ -85300,7 +85301,7 @@
         <v>0</v>
       </c>
       <c r="E389">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F389">
         <v>1061</v>
@@ -85320,7 +85321,7 @@
         <v>0</v>
       </c>
       <c r="E390">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F390">
         <v>1061</v>
@@ -85340,7 +85341,7 @@
         <v>0</v>
       </c>
       <c r="E391">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F391">
         <v>1061</v>
@@ -85360,7 +85361,7 @@
         <v>0</v>
       </c>
       <c r="E392">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F392">
         <v>1061</v>
@@ -85380,7 +85381,7 @@
         <v>0</v>
       </c>
       <c r="E393">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F393">
         <v>1061</v>
@@ -85400,7 +85401,7 @@
         <v>0</v>
       </c>
       <c r="E394">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F394">
         <v>1061</v>
@@ -85420,7 +85421,7 @@
         <v>0</v>
       </c>
       <c r="E395">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F395">
         <v>1061</v>
@@ -85440,7 +85441,7 @@
         <v>0</v>
       </c>
       <c r="E396">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F396">
         <v>1061</v>
@@ -85460,7 +85461,7 @@
         <v>0</v>
       </c>
       <c r="E397">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F397">
         <v>1061</v>
@@ -85480,7 +85481,7 @@
         <v>0</v>
       </c>
       <c r="E398">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F398">
         <v>1061</v>
@@ -85500,7 +85501,7 @@
         <v>0</v>
       </c>
       <c r="E399">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F399">
         <v>1061</v>
@@ -85520,7 +85521,7 @@
         <v>0</v>
       </c>
       <c r="E400">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F400">
         <v>1061</v>
@@ -85540,7 +85541,7 @@
         <v>0</v>
       </c>
       <c r="E401">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F401">
         <v>1061</v>
@@ -85560,7 +85561,7 @@
         <v>0</v>
       </c>
       <c r="E402">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F402">
         <v>1061</v>
@@ -85580,7 +85581,7 @@
         <v>0</v>
       </c>
       <c r="E403">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F403">
         <v>1061</v>
@@ -85600,7 +85601,7 @@
         <v>0</v>
       </c>
       <c r="E404">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F404">
         <v>1061</v>
@@ -85620,7 +85621,7 @@
         <v>0</v>
       </c>
       <c r="E405">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F405">
         <v>1061</v>
@@ -85640,7 +85641,7 @@
         <v>0</v>
       </c>
       <c r="E406">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F406">
         <v>1061</v>
@@ -85660,7 +85661,7 @@
         <v>0</v>
       </c>
       <c r="E407">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F407">
         <v>1061</v>
@@ -85680,7 +85681,7 @@
         <v>0</v>
       </c>
       <c r="E408">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F408">
         <v>1061</v>
@@ -85700,7 +85701,7 @@
         <v>0</v>
       </c>
       <c r="E409">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F409">
         <v>1061</v>
@@ -85720,7 +85721,7 @@
         <v>0</v>
       </c>
       <c r="E410">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F410">
         <v>1061</v>
@@ -85740,7 +85741,7 @@
         <v>0</v>
       </c>
       <c r="E411">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F411">
         <v>1061</v>
@@ -85760,7 +85761,7 @@
         <v>0</v>
       </c>
       <c r="E412">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F412">
         <v>1061</v>
@@ -85780,7 +85781,7 @@
         <v>0</v>
       </c>
       <c r="E413">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F413">
         <v>1061</v>
@@ -85800,7 +85801,7 @@
         <v>0</v>
       </c>
       <c r="E414">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F414">
         <v>1061</v>
@@ -85820,7 +85821,7 @@
         <v>0</v>
       </c>
       <c r="E415">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F415">
         <v>1061</v>
@@ -85840,7 +85841,7 @@
         <v>0</v>
       </c>
       <c r="E416">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F416">
         <v>1061</v>
@@ -85860,7 +85861,7 @@
         <v>0</v>
       </c>
       <c r="E417">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F417">
         <v>1061</v>
@@ -85880,7 +85881,7 @@
         <v>0</v>
       </c>
       <c r="E418">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F418">
         <v>1061</v>
@@ -85900,7 +85901,7 @@
         <v>0</v>
       </c>
       <c r="E419">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F419">
         <v>1061</v>
@@ -85920,7 +85921,7 @@
         <v>0</v>
       </c>
       <c r="E420">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F420">
         <v>1061</v>
@@ -85940,7 +85941,7 @@
         <v>0</v>
       </c>
       <c r="E421">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F421">
         <v>1061</v>
@@ -85960,7 +85961,7 @@
         <v>0</v>
       </c>
       <c r="E422">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F422">
         <v>1061</v>
@@ -85980,7 +85981,7 @@
         <v>0</v>
       </c>
       <c r="E423">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F423">
         <v>1061</v>
@@ -86000,7 +86001,7 @@
         <v>0</v>
       </c>
       <c r="E424">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F424">
         <v>1061</v>
@@ -86020,7 +86021,7 @@
         <v>0</v>
       </c>
       <c r="E425">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F425">
         <v>1061</v>
@@ -86040,7 +86041,7 @@
         <v>0</v>
       </c>
       <c r="E426">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F426">
         <v>1061</v>
@@ -86060,7 +86061,7 @@
         <v>0</v>
       </c>
       <c r="E427">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F427">
         <v>1061</v>
@@ -86080,7 +86081,7 @@
         <v>0</v>
       </c>
       <c r="E428">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F428">
         <v>1061</v>
@@ -86100,7 +86101,7 @@
         <v>0</v>
       </c>
       <c r="E429">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F429">
         <v>1061</v>
@@ -86120,7 +86121,7 @@
         <v>0</v>
       </c>
       <c r="E430">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F430">
         <v>1061</v>
@@ -86140,7 +86141,7 @@
         <v>0</v>
       </c>
       <c r="E431">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F431">
         <v>1061</v>
@@ -86160,7 +86161,7 @@
         <v>0</v>
       </c>
       <c r="E432">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F432">
         <v>1061</v>
@@ -86180,7 +86181,7 @@
         <v>0</v>
       </c>
       <c r="E433">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F433">
         <v>1061</v>
@@ -86200,7 +86201,7 @@
         <v>0</v>
       </c>
       <c r="E434">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F434">
         <v>1061</v>
@@ -86220,7 +86221,7 @@
         <v>0</v>
       </c>
       <c r="E435">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F435">
         <v>1061</v>
@@ -86240,7 +86241,7 @@
         <v>0</v>
       </c>
       <c r="E436">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F436">
         <v>1061</v>
@@ -86260,7 +86261,7 @@
         <v>0</v>
       </c>
       <c r="E437">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F437">
         <v>1061</v>
@@ -86280,7 +86281,7 @@
         <v>0</v>
       </c>
       <c r="E438">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F438">
         <v>1061</v>
@@ -86300,7 +86301,7 @@
         <v>0</v>
       </c>
       <c r="E439">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F439">
         <v>1061</v>
@@ -86320,7 +86321,7 @@
         <v>0</v>
       </c>
       <c r="E440">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="F440">
         <v>1061</v>
@@ -86333,13 +86334,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{DF1194B1-EBAB-4941-A075-CF0AED6A020A}" showPageBreaks="1" showGridLines="0" printArea="1" view="pageBreakPreview" topLeftCell="L7">
+    <customSheetView guid="{52D76B34-E0A5-4D8A-BB93-26BF349B7B6B}" showPageBreaks="1" showGridLines="0" printArea="1" view="pageBreakPreview" topLeftCell="L7">
       <selection activeCell="O8" sqref="O8"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <printOptions horizontalCentered="1"/>
       <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{52D76B34-E0A5-4D8A-BB93-26BF349B7B6B}" showPageBreaks="1" showGridLines="0" printArea="1" view="pageBreakPreview" topLeftCell="L7">
+    <customSheetView guid="{DF1194B1-EBAB-4941-A075-CF0AED6A020A}" showPageBreaks="1" showGridLines="0" printArea="1" view="pageBreakPreview" topLeftCell="L7">
       <selection activeCell="O8" sqref="O8"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <printOptions horizontalCentered="1"/>
@@ -86365,8 +86366,8 @@
   </sheetPr>
   <dimension ref="A1:HE33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C6"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -86384,38 +86385,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:213" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
     </row>
     <row r="2" spans="1:213" x14ac:dyDescent="0.4">
-      <c r="J2" s="66">
+      <c r="J2" s="67">
         <v>44155</v>
       </c>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
     </row>
     <row r="4" spans="1:213" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="66">
+      <c r="F4" s="67">
         <v>44155</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
       <c r="ER4" t="e">
         <v>#REF!</v>
       </c>
@@ -86449,17 +86450,17 @@
       <c r="F6" s="72"/>
       <c r="G6" s="72"/>
       <c r="H6" s="72"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
       <c r="S6" s="49" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:213" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="64"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="29">
         <v>1061</v>
       </c>
@@ -86467,24 +86468,24 @@
         <v>724</v>
       </c>
       <c r="F7" s="29">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G7" s="29">
         <v>2</v>
       </c>
       <c r="H7" s="29">
-        <v>1065</v>
-      </c>
-      <c r="Q7" s="64" t="s">
+        <v>1071</v>
+      </c>
+      <c r="Q7" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="64"/>
+      <c r="R7" s="65"/>
       <c r="S7" s="7">
-        <v>1065</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="8" spans="1:213" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="66" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -86505,7 +86506,7 @@
       <c r="H8" s="29">
         <v>71</v>
       </c>
-      <c r="Q8" s="65" t="s">
+      <c r="Q8" s="66" t="s">
         <v>21</v>
       </c>
       <c r="R8" s="2" t="s">
@@ -86516,7 +86517,7 @@
       </c>
     </row>
     <row r="9" spans="1:213" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="65"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
@@ -86535,7 +86536,7 @@
       <c r="H9" s="29">
         <v>37</v>
       </c>
-      <c r="Q9" s="65"/>
+      <c r="Q9" s="66"/>
       <c r="R9" s="2" t="s">
         <v>2</v>
       </c>
@@ -86544,7 +86545,7 @@
       </c>
     </row>
     <row r="10" spans="1:213" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="65"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
@@ -86563,7 +86564,7 @@
       <c r="H10" s="29">
         <v>29</v>
       </c>
-      <c r="Q10" s="65"/>
+      <c r="Q10" s="66"/>
       <c r="R10" s="1" t="s">
         <v>38</v>
       </c>
@@ -86578,7 +86579,7 @@
       </c>
     </row>
     <row r="11" spans="1:213" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="65"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="2" t="s">
         <v>69</v>
       </c>
@@ -86597,7 +86598,7 @@
       <c r="H11" s="29">
         <v>52</v>
       </c>
-      <c r="Q11" s="65"/>
+      <c r="Q11" s="66"/>
       <c r="R11" s="2" t="s">
         <v>3</v>
       </c>
@@ -86606,7 +86607,7 @@
       </c>
     </row>
     <row r="12" spans="1:213" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="65"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
@@ -86617,24 +86618,24 @@
         <v>614</v>
       </c>
       <c r="F12" s="29">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G12" s="29">
         <v>2</v>
       </c>
       <c r="H12" s="29">
-        <v>867</v>
-      </c>
-      <c r="Q12" s="65"/>
+        <v>873</v>
+      </c>
+      <c r="Q12" s="66"/>
       <c r="R12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="S12" s="7">
-        <v>867</v>
+        <v>873</v>
       </c>
     </row>
     <row r="13" spans="1:213" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="65"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
@@ -86653,7 +86654,7 @@
       <c r="H13" s="29">
         <v>9</v>
       </c>
-      <c r="Q13" s="65"/>
+      <c r="Q13" s="66"/>
       <c r="R13" s="1" t="s">
         <v>4</v>
       </c>
@@ -86694,11 +86695,11 @@
       <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="66">
+      <c r="F19" s="67">
         <v>44155</v>
       </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
     </row>
     <row r="20" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
@@ -86709,7 +86710,7 @@
       <c r="E20" s="30"/>
     </row>
     <row r="21" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="66" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -86724,7 +86725,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="65"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="1" t="s">
         <v>78</v>
       </c>
@@ -86737,7 +86738,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="65"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="1" t="s">
         <v>80</v>
       </c>
@@ -86750,7 +86751,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="65"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="1" t="s">
         <v>93</v>
       </c>
@@ -86763,7 +86764,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="65"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="1" t="s">
         <v>90</v>
       </c>
@@ -86776,7 +86777,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="65"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="1" t="s">
         <v>89</v>
       </c>
@@ -86789,7 +86790,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="65"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="1" t="s">
         <v>84</v>
       </c>
@@ -86807,11 +86808,11 @@
         <v>0</v>
       </c>
       <c r="D28" s="29">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="E28" s="51"/>
       <c r="O28" s="16">
-        <v>923</v>
+        <v>932</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -86843,7 +86844,7 @@
         <v>36</v>
       </c>
       <c r="D31" s="29">
-        <v>1052</v>
+        <v>1061</v>
       </c>
       <c r="E31" s="51"/>
       <c r="O31" t="s">
@@ -86862,18 +86863,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{DF1194B1-EBAB-4941-A075-CF0AED6A020A}" scale="85" showPageBreaks="1" showGridLines="0" printArea="1">
+    <customSheetView guid="{52D76B34-E0A5-4D8A-BB93-26BF349B7B6B}" scale="85" showGridLines="0">
       <selection activeCell="F16" sqref="F16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{52D76B34-E0A5-4D8A-BB93-26BF349B7B6B}" scale="85" showGridLines="0">
+    <customSheetView guid="{DF1194B1-EBAB-4941-A075-CF0AED6A020A}" scale="85" showPageBreaks="1" showGridLines="0" printArea="1">
       <selection activeCell="F16" sqref="F16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="15">
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q8:Q13"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="Q6:R6"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:B13"/>
@@ -86884,11 +86890,6 @@
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q8:Q13"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="Q6:R6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
